--- a/Mattresses.xlsx
+++ b/Mattresses.xlsx
@@ -70,607 +70,610 @@
     <t>Sealy</t>
   </si>
   <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Plush-Memory-Foam-Queen-Mattress-52768851/315028708</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Plush-Faux-Euro-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42305451/302760243</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Full-Mattress-with-9-in-High-Profile-Foundation-42332540/315190890</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Plush-Hybrid-Euro-Top-King-Mattress-52305761/302608964</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42306451/303097529</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-15-in-Tight-Top-Ultra-Plush-Memory-Foam-King-Mattress-Set-42769461/315094907</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9in-Firm-Hybrid-Tight-Top-Full-Mattress-52303940/302621911</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Cushion-Firm-Memory-Foam-Queen-Mattress-52768651/315028772</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Firm-Memory-Foam-Queen-Mattress-Set-42769051/315094892</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13in-Firm-Hybrid-Euro-Top-Queen-Mattress-52305151/302608716</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Firm-Memory-Foam-Queen-Mattress-52769051/315028718</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-King-14-in-Plush-Mattress-with-5-in-Low-Profile-Foundation-42504961/304774512</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-King-14-in-Firm-Mattress-with-5-in-Low-Profile-Foundation-42504361/304775403</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-10in-Medium-Hybrid-Tight-Top-Queen-Mattress-F03-00135-QN0/310170954</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-10-in-Queen-Memory-Foam-Mattress-Medium-F03-00133-QN0/310170919</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Twin-XL-Plush-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305331/302760217</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Plush-Tight-Top-Mattress-Set-with-5-in-High-Profile-Foundation-42305051/302760161</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42769251/315094897</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9-in-King-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-43203961/302693266</t>
+  </si>
+  <si>
     <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-12in-Medium-Hybrid-Tight-Top-Full-Mattress-52503840/304775529</t>
   </si>
   <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Queen-Mattress-52332551/313980721</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-King-Plush-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42306961/303097317</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-California-King-Mattress-with-9-in-High-Profile-Foundation-42332562/315190898</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52768451/315028753</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Plush-Memory-Foam-Queen-Mattress-Set-42768851/315095042</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-13in-Medium-Hybrid-Tight-Top-Queen-Mattress-52304351/302586408</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12in-Medium-Hybrid-Euro-Top-Queen-Mattress-52305551/302608900</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-14in-Plush-Hybrid-Tight-Top-King-Mattress-52504861/304774618</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Cushion-Firm-Memory-Form-Queen-Mattress-52767651/315028756</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12-in-Queen-Plush-Faux-Euro-Top-Mattress-with-9-in-High-Profile-Foundation-42304551/302760035</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Twin-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305130/302760175</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Plush-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304951/302760134</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12in-Medium-Memory-Foam-Tight-Top-Full-Mattress-52338940/302607613</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-8in-Firm-Memory-Foam-Tight-Top-Twin-Mattress-F03-00132-TW0/310170811</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9-in-King-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42304061/302759840</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42767851/315094879</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-14in-Firm-Hybrid-Tight-Top-Queen-Mattress-52504251/304775459</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12in-Plush-Hybrid-Euro-Top-Full-Mattress-52304540/302608428</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Medium-Hybrid-Pillow-Top-Queen-Mattress-52306751/302609599</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52769251/315028729</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12-in-Queen-Plush-Mattress-with-9-in-High-Profile-Foundation-Set-42339151/305239371</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42306751/303097432</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Plush-Hybrid-Pillow-Top-Queen-Mattress-52306951/302610120</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12in-Firm-Memory-Foam-Tight-Top-Queen-Mattress-52339151/302611335</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-King-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42306361/303097586</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-King-Plush-Euro-Top-Mattress-with-9-in-High-Profile-Foundation-Set-42305761/302760323</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Full-Mattress-52332540/313980717</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-10-in-California-King-Firm-Mattress-with-5-in-Low-Profile-Foundation-42338862/303087132</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-California-King-Plush-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42306562/303097493</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-12-in-Tight-Top-Ultra-Firm-Memory-Foam-Queen-Mattress-Set-42768051/315094878</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Twin-XL-Mattress-52332531/313980716</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-12-in-Tight-Top-Ultra-Firm-Memory-Foam-Queen-Mattress-52768051/315028735</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Full-Cushion-Firm-Euro-Pillowtop-Mattress-with-5-in-Low-Profile-Foundation-Set-42306040/303097708</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-California-King-Plush-Euro-Pillowtop-Mattress-Set-with-5-in-Low-Profile-Foundation-42306262/303097618</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-11-in-Queen-Cushion-Firm-Mattress-with-5-in-Low-Profile-Foundation-Set-42339051/305241742</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13in-Firm-Hybrid-Tight-Top-Queen-Mattress-52306351/302588834</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-King-Mattress-52332561/313980722</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-10-in-Queen-Firm-Mattress-with-9-in-High-Profile-Foundation-42338751/303090550</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Cal-King-Mattress-Set-42768262/315094900</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-11-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304351/302759954</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12-in-Queen-Plush-Faux-Euro-Top-Mattress-with-5-in-Low-Profile-Foundation-42304651/302760055</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-11-in-Full-Cushion-Firm-Tight-Top-Mattress-with-5-in-Low-Profile-Foundation-Set-42304440/302759991</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-15-in-Tight-Top-Ultra-Plush-Memory-Foam-Queen-Mattress-52769451/315028767</t>
+  </si>
+  <si>
     <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Full-Mattress-Set-42767640/315095032</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-11-in-Queen-Cushion-Firm-Mattress-with-5-in-Low-Profile-Foundation-Set-42339051/305241742</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-8in-Firm-Memory-Foam-Tight-Top-Twin-Mattress-F03-00132-TW0/310170811</t>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-King-14-in-Firm-Mattress-with-9-in-High-Profile-Foundation-42504261/304774765</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-11-in-Queen-Cushion-Firm-Mattress-with-9-in-High-Profile-Foundation-Set-42338951/305241879</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Twin-XL-Mattress-with-9-in-High-Profile-Foundation-42332531/315190889</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Plush-Euro-Pillowtop-Mattress-with-5-in-Low-Profile-Foundation-Set-42307051/303097095</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Euro-Top-Mattress-with-5-in-Low-Profile-Foundation-Set-42305651/302760414</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Full-Plush-Faux-Euro-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42305840/302760344</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Queen-Mattress-with-9-in-High-Profile-Foundation-42332551/315190902</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-King-Mattress-with-9-in-High-Profile-Foundation-42332561/315190905</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42304851/302760115</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Plush-Euro-Pillowtop-Mattress-with-9-in-High-Profile-Foundation-Set-42306151/303097676</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Medium-Hybrid-Pillow-Top-Queen-Mattress-52305951/302621999</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Plush-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42306651/303097470</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-10in-Medium-Hybrid-Tight-Top-Queen-Mattress-F03-00135-QN0/310170954</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12-in-Queen-Plush-Faux-Euro-Top-Mattress-with-9-in-High-Profile-Foundation-42304551/302760035</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Twin-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305130/302760175</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Plush-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304951/302760134</t>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42768451/315095033</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52767851/315028700</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-10in-Plush-Hybrid-Tight-Top-Full-Mattress-52306540/302590635</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Cushion-Firm-Memory-Foam-King-Mattress-Set-42768661/315095044</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-King-12-in-Mattress-with-9-in-High-Profile-Foundation-42503861/304775748</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305551/302760274</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Full-Mattress-52768240/315028722</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-Full-12-in-Mattress-with-5-in-Low-Profile-Foundation-42503940/304775619</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Full-Mattress-Set-42769240/315094896</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-12in-Medium-Memory-Foam-Tight-Top-Queen-Mattress-F03-00109-QN0/308547328</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-11in-Plush-Hybrid-Pillow-Top-Queen-Mattress-52306151/302622049</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Sealy-Response-Performance-12in-Plush-Hybrid-Euro-Top-Queen-Mattress-52305351/302608781</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Cushion-Firm-Memory-Form-Queen-Mattress-52767651/315028756</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-King-Plush-Euro-Top-Mattress-with-9-in-High-Profile-Foundation-Set-42305761/302760323</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-14in-Plush-Hybrid-Tight-Top-King-Mattress-52504861/304774618</t>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-5-in-High-Profile-Foundation-42305251/302760200</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-California-King-Mattress-52332562/313980720</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-King-14-in-Plush-Mattress-with-9-in-High-Profile-Foundation-42504861/304774391</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304751/302760093</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-5-in-Low-Profile-Foundation-42306851/303097367</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Full-Plush-Faux-Euro-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42305840/302760344</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Plush-Tight-Top-Mattress-Set-with-5-in-High-Profile-Foundation-42305051/302760161</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-11in-Plush-Hybrid-Pillow-Top-Queen-Mattress-52306151/302622049</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-King-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42306361/303097586</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-12-in-Tight-Top-Ultra-Firm-Memory-Foam-Queen-Mattress-Set-42768051/315094878</t>
+    <t>https://www.homedepot.com/p/Sealy-Response-Premium-15in-Firm-Hybrid-Tight-Top-King-Mattress-52307561/302610944</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Sealy-12-in-King-Spring-Memory-Foam-Hybrid-Mattress-Medium-Firm-F03-00122-KG0/308549982</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9-in-King-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42304061/302759840</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9-in-King-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-43203961/302693266</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-5-in-High-Profile-Foundation-42305251/302760200</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-11-in-Full-Cushion-Firm-Tight-Top-Mattress-with-5-in-Low-Profile-Foundation-Set-42304440/302759991</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-13in-Medium-Hybrid-Tight-Top-Queen-Mattress-52304351/302586408</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Plush-Memory-Foam-Queen-Mattress-52768851/315028708</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-10-in-California-King-Firm-Mattress-with-5-in-Low-Profile-Foundation-42338862/303087132</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9in-Firm-Hybrid-Tight-Top-Full-Mattress-52303940/302621911</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-King-14-in-Firm-Mattress-with-5-in-Low-Profile-Foundation-42504361/304775403</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-California-King-Plush-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42306562/303097493</t>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12-in-Queen-Plush-Mattress-with-5-in-Low-Profile-Foundation-Set-42339251/305239153</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-King-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42305961/303097747</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Twin-XL-Plush-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305331/302760217</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12in-Firm-Memory-Foam-Tight-Top-Queen-Mattress-52339151/302611335</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-King-14-in-Firm-Mattress-with-9-in-High-Profile-Foundation-42504261/304774765</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52767851/315028700</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Queen-Mattress-with-9-in-High-Profile-Foundation-42332551/315190902</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Queen-Mattress-52332551/313980721</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-King-14-in-Plush-Mattress-with-9-in-High-Profile-Foundation-42504861/304774391</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-King-12-in-Mattress-with-9-in-High-Profile-Foundation-42503861/304775748</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-15-in-Tight-Top-Ultra-Plush-Memory-Foam-Queen-Mattress-52769451/315028767</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Twin-XL-Mattress-with-9-in-High-Profile-Foundation-42332531/315190889</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-15-in-Tight-Top-Ultra-Plush-Memory-Foam-King-Mattress-Set-42769461/315094907</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Plush-Euro-Pillowtop-Mattress-with-5-in-Low-Profile-Foundation-Set-42307051/303097095</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305551/302760274</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12in-Medium-Hybrid-Euro-Top-Queen-Mattress-52305551/302608900</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-King-Mattress-with-9-in-High-Profile-Foundation-42332561/315190905</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-10-in-Queen-Memory-Foam-Mattress-Medium-F03-00133-QN0/310170919</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52769251/315028729</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42306451/303097529</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-King-Plush-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42306961/303097317</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-King-Mattress-52332561/313980722</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Medium-Hybrid-Pillow-Top-Queen-Mattress-52306751/302609599</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Cushion-Firm-Memory-Foam-King-Mattress-Set-42768661/315095044</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13in-Firm-Hybrid-Tight-Top-Queen-Mattress-52306351/302588834</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Cushion-Firm-Memory-Foam-Queen-Mattress-52768651/315028772</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Cal-King-Mattress-Set-42768262/315094900</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Full-Mattress-with-9-in-High-Profile-Foundation-42332540/315190890</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Twin-XL-Mattress-52332531/313980716</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-11-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304351/302759954</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-11-in-Queen-Cushion-Firm-Mattress-with-9-in-High-Profile-Foundation-Set-42338951/305241879</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Firm-Memory-Foam-Queen-Mattress-Set-42769051/315094892</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Full-Mattress-Set-42769240/315094896</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13in-Firm-Hybrid-Euro-Top-Queen-Mattress-52305151/302608716</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Plush-Hybrid-Euro-Top-King-Mattress-52305761/302608964</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42768451/315095033</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12in-Plush-Hybrid-Euro-Top-Full-Mattress-52304540/302608428</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12-in-Queen-Plush-Mattress-with-5-in-Low-Profile-Foundation-Set-42339251/305239153</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304751/302760093</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-Full-12-in-Mattress-with-5-in-Low-Profile-Foundation-42503940/304775619</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Full-Mattress-52332540/313980717</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Plush-Hybrid-Pillow-Top-Queen-Mattress-52306951/302610120</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12-in-Queen-Plush-Faux-Euro-Top-Mattress-with-5-in-Low-Profile-Foundation-42304651/302760055</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Medium-Hybrid-Pillow-Top-Queen-Mattress-52305951/302621999</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42306751/303097432</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Euro-Top-Mattress-with-5-in-Low-Profile-Foundation-Set-42305651/302760414</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Full-Cushion-Firm-Euro-Pillowtop-Mattress-with-5-in-Low-Profile-Foundation-Set-42306040/303097708</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-12in-Medium-Memory-Foam-Tight-Top-Queen-Mattress-F03-00109-QN0/308547328</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Firm-Memory-Foam-Queen-Mattress-52769051/315028718</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-California-King-Mattress-52332562/313980720</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42304851/302760115</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12-in-Queen-Plush-Mattress-with-9-in-High-Profile-Foundation-Set-42339151/305239371</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-California-King-Mattress-with-9-in-High-Profile-Foundation-42332562/315190898</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-10-in-Queen-Firm-Mattress-with-9-in-High-Profile-Foundation-42338751/303090550</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Full-Mattress-52768240/315028722</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-King-14-in-Plush-Mattress-with-5-in-Low-Profile-Foundation-42504961/304774512</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12in-Medium-Memory-Foam-Tight-Top-Full-Mattress-52338940/302607613</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52768451/315028753</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Premium-15in-Firm-Hybrid-Tight-Top-King-Mattress-52307561/302610944</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Plush-Memory-Foam-Queen-Mattress-Set-42768851/315095042</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-12-in-Tight-Top-Ultra-Firm-Memory-Foam-Queen-Mattress-52768051/315028735</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42767851/315094879</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42769251/315094897</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Plush-Euro-Pillowtop-Mattress-with-9-in-High-Profile-Foundation-Set-42306151/303097676</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Plush-Faux-Euro-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42305451/302760243</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-California-King-Plush-Euro-Pillowtop-Mattress-Set-with-5-in-Low-Profile-Foundation-42306262/303097618</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-14in-Firm-Hybrid-Tight-Top-Queen-Mattress-52504251/304775459</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-10in-Plush-Hybrid-Tight-Top-Full-Mattress-52306540/302590635</t>
+    <t>Model #52768851</t>
+  </si>
+  <si>
+    <t>Model #42305451</t>
+  </si>
+  <si>
+    <t>Model #42332540</t>
+  </si>
+  <si>
+    <t>Model #52305761</t>
+  </si>
+  <si>
+    <t>Model #42306451</t>
+  </si>
+  <si>
+    <t>Model #42769461</t>
+  </si>
+  <si>
+    <t>Model #52303940</t>
+  </si>
+  <si>
+    <t>Model #52768651</t>
+  </si>
+  <si>
+    <t>Model #42769051</t>
+  </si>
+  <si>
+    <t>Model #52305151</t>
+  </si>
+  <si>
+    <t>Model #52769051</t>
+  </si>
+  <si>
+    <t>Model #42504961</t>
+  </si>
+  <si>
+    <t>Model #42504361</t>
+  </si>
+  <si>
+    <t>Model #F03-00135-QN0</t>
+  </si>
+  <si>
+    <t>Model #F03-00133-QN0</t>
+  </si>
+  <si>
+    <t>Model #42305331</t>
+  </si>
+  <si>
+    <t>Model #42305051</t>
+  </si>
+  <si>
+    <t>Model #42769251</t>
+  </si>
+  <si>
+    <t>Model #43203961</t>
   </si>
   <si>
     <t>Model #52503840</t>
   </si>
   <si>
+    <t>Model #52332551</t>
+  </si>
+  <si>
+    <t>Model #42306961</t>
+  </si>
+  <si>
+    <t>Model #42332562</t>
+  </si>
+  <si>
+    <t>Model #52768451</t>
+  </si>
+  <si>
+    <t>Model #42768851</t>
+  </si>
+  <si>
+    <t>Model #52304351</t>
+  </si>
+  <si>
+    <t>Model #52305551</t>
+  </si>
+  <si>
+    <t>Model #52504861</t>
+  </si>
+  <si>
+    <t>Model #52767651</t>
+  </si>
+  <si>
+    <t>Model #42304551</t>
+  </si>
+  <si>
+    <t>Model #42305130</t>
+  </si>
+  <si>
+    <t>Model #42304951</t>
+  </si>
+  <si>
+    <t>Model #52338940</t>
+  </si>
+  <si>
+    <t>Model #F03-00132-TW0</t>
+  </si>
+  <si>
+    <t>Model #42304061</t>
+  </si>
+  <si>
+    <t>Model #42767851</t>
+  </si>
+  <si>
+    <t>Model #52504251</t>
+  </si>
+  <si>
+    <t>Model #52304540</t>
+  </si>
+  <si>
+    <t>Model #52306751</t>
+  </si>
+  <si>
+    <t>Model #52769251</t>
+  </si>
+  <si>
+    <t>Model #42339151</t>
+  </si>
+  <si>
+    <t>Model #42306751</t>
+  </si>
+  <si>
+    <t>Model #52306951</t>
+  </si>
+  <si>
+    <t>Model #52339151</t>
+  </si>
+  <si>
+    <t>Model #42306361</t>
+  </si>
+  <si>
+    <t>Model #42305761</t>
+  </si>
+  <si>
+    <t>Model #52332540</t>
+  </si>
+  <si>
+    <t>Model #42338862</t>
+  </si>
+  <si>
+    <t>Model #42306562</t>
+  </si>
+  <si>
+    <t>Model #42768051</t>
+  </si>
+  <si>
+    <t>Model #52332531</t>
+  </si>
+  <si>
+    <t>Model #52768051</t>
+  </si>
+  <si>
+    <t>Model #42306040</t>
+  </si>
+  <si>
+    <t>Model #42306262</t>
+  </si>
+  <si>
+    <t>Model #42339051</t>
+  </si>
+  <si>
+    <t>Model #52306351</t>
+  </si>
+  <si>
+    <t>Model #52332561</t>
+  </si>
+  <si>
+    <t>Model #42338751</t>
+  </si>
+  <si>
+    <t>Model #42768262</t>
+  </si>
+  <si>
+    <t>Model #42304351</t>
+  </si>
+  <si>
+    <t>Model #42304651</t>
+  </si>
+  <si>
+    <t>Model #42304440</t>
+  </si>
+  <si>
+    <t>Model #52769451</t>
+  </si>
+  <si>
     <t>Model #42767640</t>
   </si>
   <si>
-    <t>Model #42339051</t>
-  </si>
-  <si>
-    <t>Model #F03-00132-TW0</t>
+    <t>Model #42504261</t>
+  </si>
+  <si>
+    <t>Model #42338951</t>
+  </si>
+  <si>
+    <t>Model #42332531</t>
+  </si>
+  <si>
+    <t>Model #42307051</t>
+  </si>
+  <si>
+    <t>Model #42305651</t>
+  </si>
+  <si>
+    <t>Model #42305840</t>
+  </si>
+  <si>
+    <t>Model #42332551</t>
+  </si>
+  <si>
+    <t>Model #42332561</t>
+  </si>
+  <si>
+    <t>Model #42304851</t>
+  </si>
+  <si>
+    <t>Model #42306151</t>
+  </si>
+  <si>
+    <t>Model #52305951</t>
   </si>
   <si>
     <t>Model #42306651</t>
   </si>
   <si>
-    <t>Model #F03-00135-QN0</t>
-  </si>
-  <si>
-    <t>Model #42304551</t>
-  </si>
-  <si>
-    <t>Model #42305130</t>
-  </si>
-  <si>
-    <t>Model #42304951</t>
+    <t>Model #42768451</t>
+  </si>
+  <si>
+    <t>Model #52767851</t>
+  </si>
+  <si>
+    <t>Model #52306540</t>
+  </si>
+  <si>
+    <t>Model #42768661</t>
+  </si>
+  <si>
+    <t>Model #42503861</t>
+  </si>
+  <si>
+    <t>Model #42305551</t>
+  </si>
+  <si>
+    <t>Model #52768240</t>
+  </si>
+  <si>
+    <t>Model #42503940</t>
+  </si>
+  <si>
+    <t>Model #42769240</t>
+  </si>
+  <si>
+    <t>Model #F03-00109-QN0</t>
+  </si>
+  <si>
+    <t>Model #52306151</t>
   </si>
   <si>
     <t>Model #52305351</t>
   </si>
   <si>
-    <t>Model #52767651</t>
-  </si>
-  <si>
-    <t>Model #42305761</t>
-  </si>
-  <si>
-    <t>Model #52504861</t>
+    <t>Model #42305251</t>
+  </si>
+  <si>
+    <t>Model #52332562</t>
+  </si>
+  <si>
+    <t>Model #42504861</t>
+  </si>
+  <si>
+    <t>Model #42304751</t>
   </si>
   <si>
     <t>Model #42306851</t>
   </si>
   <si>
-    <t>Model #42305840</t>
-  </si>
-  <si>
-    <t>Model #42305051</t>
-  </si>
-  <si>
-    <t>Model #52306151</t>
-  </si>
-  <si>
-    <t>Model #42306361</t>
-  </si>
-  <si>
-    <t>Model #42768051</t>
+    <t>Model #52307561</t>
   </si>
   <si>
     <t>Model #F03-00122-KG0</t>
   </si>
   <si>
-    <t>Model #42304061</t>
-  </si>
-  <si>
-    <t>Model #43203961</t>
-  </si>
-  <si>
-    <t>Model #42305251</t>
-  </si>
-  <si>
-    <t>Model #42304440</t>
-  </si>
-  <si>
-    <t>Model #52304351</t>
-  </si>
-  <si>
-    <t>Model #52768851</t>
-  </si>
-  <si>
-    <t>Model #42338862</t>
-  </si>
-  <si>
-    <t>Model #52303940</t>
-  </si>
-  <si>
-    <t>Model #42504361</t>
-  </si>
-  <si>
-    <t>Model #42306562</t>
+    <t>Model #42339251</t>
   </si>
   <si>
     <t>Model #42305961</t>
   </si>
   <si>
-    <t>Model #42305331</t>
-  </si>
-  <si>
-    <t>Model #52339151</t>
-  </si>
-  <si>
-    <t>Model #42504261</t>
-  </si>
-  <si>
-    <t>Model #52767851</t>
-  </si>
-  <si>
-    <t>Model #42332551</t>
-  </si>
-  <si>
-    <t>Model #52332551</t>
-  </si>
-  <si>
-    <t>Model #42504861</t>
-  </si>
-  <si>
-    <t>Model #42503861</t>
-  </si>
-  <si>
-    <t>Model #52769451</t>
-  </si>
-  <si>
-    <t>Model #42332531</t>
-  </si>
-  <si>
-    <t>Model #42769461</t>
-  </si>
-  <si>
-    <t>Model #42307051</t>
-  </si>
-  <si>
-    <t>Model #42305551</t>
-  </si>
-  <si>
-    <t>Model #52305551</t>
-  </si>
-  <si>
-    <t>Model #42332561</t>
-  </si>
-  <si>
-    <t>Model #F03-00133-QN0</t>
-  </si>
-  <si>
-    <t>Model #52769251</t>
-  </si>
-  <si>
-    <t>Model #42306451</t>
-  </si>
-  <si>
-    <t>Model #42306961</t>
-  </si>
-  <si>
-    <t>Model #52332561</t>
-  </si>
-  <si>
-    <t>Model #52306751</t>
-  </si>
-  <si>
-    <t>Model #42768661</t>
-  </si>
-  <si>
-    <t>Model #52306351</t>
-  </si>
-  <si>
-    <t>Model #52768651</t>
-  </si>
-  <si>
-    <t>Model #42768262</t>
-  </si>
-  <si>
-    <t>Model #42332540</t>
-  </si>
-  <si>
-    <t>Model #52332531</t>
-  </si>
-  <si>
-    <t>Model #42304351</t>
-  </si>
-  <si>
-    <t>Model #42338951</t>
-  </si>
-  <si>
-    <t>Model #42769051</t>
-  </si>
-  <si>
-    <t>Model #42769240</t>
-  </si>
-  <si>
-    <t>Model #52305151</t>
-  </si>
-  <si>
-    <t>Model #52305761</t>
-  </si>
-  <si>
-    <t>Model #42768451</t>
-  </si>
-  <si>
-    <t>Model #52304540</t>
-  </si>
-  <si>
-    <t>Model #42339251</t>
-  </si>
-  <si>
-    <t>Model #42304751</t>
-  </si>
-  <si>
-    <t>Model #42503940</t>
-  </si>
-  <si>
-    <t>Model #52332540</t>
-  </si>
-  <si>
-    <t>Model #52306951</t>
-  </si>
-  <si>
-    <t>Model #42304651</t>
-  </si>
-  <si>
-    <t>Model #52305951</t>
-  </si>
-  <si>
-    <t>Model #42306751</t>
-  </si>
-  <si>
-    <t>Model #42305651</t>
-  </si>
-  <si>
-    <t>Model #42306040</t>
-  </si>
-  <si>
-    <t>Model #F03-00109-QN0</t>
-  </si>
-  <si>
-    <t>Model #52769051</t>
-  </si>
-  <si>
-    <t>Model #52332562</t>
-  </si>
-  <si>
-    <t>Model #42304851</t>
-  </si>
-  <si>
-    <t>Model #42339151</t>
-  </si>
-  <si>
-    <t>Model #42332562</t>
-  </si>
-  <si>
-    <t>Model #42338751</t>
-  </si>
-  <si>
-    <t>Model #52768240</t>
-  </si>
-  <si>
-    <t>Model #42504961</t>
-  </si>
-  <si>
-    <t>Model #52338940</t>
-  </si>
-  <si>
-    <t>Model #52768451</t>
-  </si>
-  <si>
-    <t>Model #52307561</t>
-  </si>
-  <si>
-    <t>Model #42768851</t>
-  </si>
-  <si>
-    <t>Model #52768051</t>
-  </si>
-  <si>
-    <t>Model #42767851</t>
-  </si>
-  <si>
-    <t>Model #42769251</t>
-  </si>
-  <si>
-    <t>Model #42306151</t>
-  </si>
-  <si>
-    <t>Model #42305451</t>
-  </si>
-  <si>
-    <t>Model #42306262</t>
-  </si>
-  <si>
-    <t>Model #52504251</t>
-  </si>
-  <si>
-    <t>Model #52306540</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Queen</t>
+  </si>
+  <si>
     <t>Full</t>
   </si>
   <si>
-    <t>Queen</t>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Twin XL</t>
+  </si>
+  <si>
+    <t>California King</t>
   </si>
   <si>
     <t>Twin</t>
   </si>
   <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>California King</t>
-  </si>
-  <si>
-    <t>Twin XL</t>
+    <t>Foam</t>
   </si>
   <si>
     <t>Hybrid</t>
@@ -682,181 +685,178 @@
     <t>Innerspring</t>
   </si>
   <si>
-    <t>Foam</t>
-  </si>
-  <si>
     <t>Box Spring Not Required</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>13</t>
+    <t>8</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>Pillow Top</t>
+  </si>
+  <si>
+    <t>Euro Top</t>
   </si>
   <si>
     <t>Tight Top</t>
   </si>
   <si>
-    <t>Euro Top</t>
-  </si>
-  <si>
-    <t>Pillow Top</t>
+    <t>Cooling,Edge Support,Handles,Hypoallergenic,Motion Isolation</t>
   </si>
   <si>
     <t>No Additional Features</t>
   </si>
   <si>
+    <t>Cooling,Edge Support,Motion Isolation</t>
+  </si>
+  <si>
     <t>Cooling,Motion Isolation</t>
   </si>
   <si>
-    <t>Cooling,Edge Support,Handles,Hypoallergenic,Motion Isolation</t>
-  </si>
-  <si>
-    <t>Cooling,Edge Support,Motion Isolation</t>
-  </si>
-  <si>
     <t>Edge Support,Handles,Hypoallergenic,Motion Isolation</t>
   </si>
   <si>
+    <t>98 lb</t>
+  </si>
+  <si>
+    <t>141 lb</t>
+  </si>
+  <si>
+    <t>210 lb</t>
+  </si>
+  <si>
+    <t>168 lb</t>
+  </si>
+  <si>
+    <t>103 lb</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>166 lb</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
     <t>76</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>220 lb</t>
+  </si>
+  <si>
+    <t>89 lb</t>
+  </si>
+  <si>
+    <t>163 lb</t>
+  </si>
+  <si>
+    <t>72 lb</t>
+  </si>
+  <si>
+    <t>69 lb</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>137 lb</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>101 lb</t>
+  </si>
+  <si>
+    <t>139 lb</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>150 lb</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>85 lb</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>192 lb</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>109 lb</t>
+  </si>
+  <si>
     <t>95 lb</t>
   </si>
   <si>
-    <t>69 lb</t>
-  </si>
-  <si>
-    <t>72 lb</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>150 lb</t>
+    <t>110</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>154 lb</t>
+  </si>
+  <si>
+    <t>196 lb</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>74 lb</t>
+  </si>
+  <si>
+    <t>119 lb</t>
+  </si>
+  <si>
+    <t>120 lb</t>
   </si>
   <si>
     <t>105</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>98 lb</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>109 lb</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>210 lb</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>101 lb</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>196 lb</t>
-  </si>
-  <si>
-    <t>192 lb</t>
-  </si>
-  <si>
-    <t>141 lb</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>168 lb</t>
-  </si>
-  <si>
-    <t>119 lb</t>
-  </si>
-  <si>
-    <t>154 lb</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>103 lb</t>
-  </si>
-  <si>
-    <t>120 lb</t>
-  </si>
-  <si>
-    <t>139 lb</t>
-  </si>
-  <si>
-    <t>220 lb</t>
-  </si>
-  <si>
-    <t>74 lb</t>
-  </si>
-  <si>
-    <t>89 lb</t>
-  </si>
-  <si>
-    <t>163 lb</t>
-  </si>
-  <si>
-    <t>85 lb</t>
-  </si>
-  <si>
-    <t>137 lb</t>
-  </si>
-  <si>
-    <t>166 lb</t>
-  </si>
-  <si>
-    <t>119</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1279</v>
+        <v>1199</v>
       </c>
       <c r="H2" t="s">
         <v>212</v>
@@ -1338,10 +1338,13 @@
         <v>116</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F3">
+        <v>1730</v>
       </c>
       <c r="G3">
-        <v>1048.67</v>
+        <v>711.42</v>
       </c>
       <c r="H3" t="s">
         <v>212</v>
@@ -1353,19 +1356,16 @@
         <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
         <v>225</v>
       </c>
       <c r="M3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N3" t="s">
         <v>236</v>
-      </c>
-      <c r="O3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>734.33</v>
+        <v>1679</v>
       </c>
       <c r="H4" t="s">
         <v>212</v>
@@ -1400,13 +1400,16 @@
         <v>223</v>
       </c>
       <c r="L4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N4" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1423,13 +1426,13 @@
         <v>118</v>
       </c>
       <c r="E5">
-        <v>90.7692</v>
+        <v>92</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>1729</v>
       </c>
       <c r="G5">
-        <v>299.99</v>
+        <v>942.22</v>
       </c>
       <c r="H5" t="s">
         <v>212</v>
@@ -1444,13 +1447,13 @@
         <v>223</v>
       </c>
       <c r="L5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1467,19 +1470,22 @@
         <v>119</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>905.98</v>
+        <v>911.89</v>
       </c>
       <c r="H6" t="s">
         <v>212</v>
       </c>
       <c r="I6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K6" t="s">
         <v>223</v>
@@ -1488,10 +1494,10 @@
         <v>225</v>
       </c>
       <c r="M6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1508,34 +1514,34 @@
         <v>120</v>
       </c>
       <c r="E7">
-        <v>82.2222</v>
-      </c>
-      <c r="F7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>599.99</v>
+        <v>2199</v>
       </c>
       <c r="H7" t="s">
         <v>212</v>
       </c>
       <c r="I7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K7" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N7" t="s">
         <v>235</v>
+      </c>
+      <c r="O7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1555,10 +1561,10 @@
         <v>92</v>
       </c>
       <c r="F8">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G8">
-        <v>672.76</v>
+        <v>311.94</v>
       </c>
       <c r="H8" t="s">
         <v>212</v>
@@ -1567,19 +1573,19 @@
         <v>214</v>
       </c>
       <c r="J8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K8" t="s">
         <v>223</v>
       </c>
       <c r="L8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1596,19 +1602,16 @@
         <v>122</v>
       </c>
       <c r="E9">
-        <v>91.5548</v>
-      </c>
-      <c r="F9">
-        <v>1743</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>596.36</v>
+        <v>1199</v>
       </c>
       <c r="H9" t="s">
         <v>212</v>
       </c>
       <c r="I9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J9" t="s">
         <v>219</v>
@@ -1617,16 +1620,16 @@
         <v>223</v>
       </c>
       <c r="L9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N9" t="s">
         <v>235</v>
       </c>
       <c r="O9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1643,34 +1646,34 @@
         <v>123</v>
       </c>
       <c r="E10">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>1739</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>628.3</v>
+        <v>1599</v>
       </c>
       <c r="H10" t="s">
         <v>212</v>
       </c>
       <c r="I10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K10" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
         <v>224</v>
       </c>
       <c r="M10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N10" t="s">
         <v>235</v>
+      </c>
+      <c r="O10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1687,34 +1690,34 @@
         <v>124</v>
       </c>
       <c r="E11">
-        <v>91.53230000000001</v>
+        <v>92</v>
       </c>
       <c r="F11">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="G11">
-        <v>539.71</v>
+        <v>547.33</v>
       </c>
       <c r="H11" t="s">
         <v>212</v>
       </c>
       <c r="I11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K11" t="s">
         <v>223</v>
       </c>
       <c r="L11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M11" t="s">
         <v>233</v>
       </c>
       <c r="N11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1731,34 +1734,37 @@
         <v>125</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>999</v>
+        <v>1399</v>
       </c>
       <c r="H12" t="s">
         <v>212</v>
       </c>
       <c r="I12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K12" t="s">
         <v>223</v>
       </c>
       <c r="L12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1778,19 +1784,19 @@
         <v>100</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>1130.17</v>
+        <v>2899</v>
       </c>
       <c r="H13" t="s">
         <v>212</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K13" t="s">
         <v>223</v>
@@ -1799,10 +1805,13 @@
         <v>224</v>
       </c>
       <c r="M13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N13" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1819,10 +1828,7 @@
         <v>127</v>
       </c>
       <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>2599</v>
@@ -1831,25 +1837,25 @@
         <v>212</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K14" t="s">
         <v>223</v>
       </c>
       <c r="L14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1866,31 +1872,34 @@
         <v>128</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
       </c>
       <c r="G15">
-        <v>899</v>
+        <v>599.99</v>
       </c>
       <c r="H15" t="s">
         <v>212</v>
       </c>
       <c r="I15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K15" t="s">
         <v>223</v>
       </c>
       <c r="L15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M15" t="s">
         <v>234</v>
       </c>
       <c r="N15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1907,10 +1916,13 @@
         <v>129</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>806.78</v>
+        <v>593.99</v>
       </c>
       <c r="H16" t="s">
         <v>212</v>
@@ -1919,19 +1931,19 @@
         <v>213</v>
       </c>
       <c r="J16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" t="s">
         <v>223</v>
       </c>
       <c r="L16" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1951,31 +1963,31 @@
         <v>92</v>
       </c>
       <c r="F17">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="G17">
-        <v>618.85</v>
+        <v>659.8</v>
       </c>
       <c r="H17" t="s">
         <v>212</v>
       </c>
       <c r="I17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K17" t="s">
         <v>223</v>
       </c>
       <c r="L17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1992,34 +2004,34 @@
         <v>131</v>
       </c>
       <c r="E18">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>1732</v>
       </c>
       <c r="G18">
-        <v>722.34</v>
+        <v>618.85</v>
       </c>
       <c r="H18" t="s">
         <v>212</v>
       </c>
       <c r="I18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K18" t="s">
         <v>223</v>
       </c>
       <c r="L18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s">
         <v>234</v>
       </c>
       <c r="N18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2036,34 +2048,34 @@
         <v>132</v>
       </c>
       <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1313.41</v>
+        <v>1380.6</v>
       </c>
       <c r="H19" t="s">
         <v>212</v>
       </c>
       <c r="I19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K19" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N19" t="s">
         <v>235</v>
+      </c>
+      <c r="O19" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2080,34 +2092,37 @@
         <v>133</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F20">
+        <v>589</v>
       </c>
       <c r="G20">
-        <v>1196.96</v>
+        <v>805.97</v>
       </c>
       <c r="H20" t="s">
         <v>212</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
         <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2124,37 +2139,34 @@
         <v>134</v>
       </c>
       <c r="E21">
-        <v>84.4615</v>
-      </c>
-      <c r="F21">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>899.99</v>
+        <v>1279</v>
       </c>
       <c r="H21" t="s">
         <v>212</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s">
         <v>223</v>
       </c>
       <c r="L21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2171,37 +2183,37 @@
         <v>135</v>
       </c>
       <c r="E22">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F22">
-        <v>579</v>
+        <v>1694</v>
       </c>
       <c r="G22">
-        <v>813.4299999999999</v>
+        <v>1499</v>
       </c>
       <c r="H22" t="s">
         <v>212</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s">
         <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2218,37 +2230,34 @@
         <v>136</v>
       </c>
       <c r="E23">
-        <v>90.52630000000001</v>
+        <v>88</v>
       </c>
       <c r="F23">
-        <v>589</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>805.97</v>
+        <v>1262.93</v>
       </c>
       <c r="H23" t="s">
         <v>212</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
         <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s">
         <v>232</v>
       </c>
       <c r="N23" t="s">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2265,22 +2274,19 @@
         <v>137</v>
       </c>
       <c r="E24">
-        <v>92</v>
-      </c>
-      <c r="F24">
-        <v>1731</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>761.13</v>
+        <v>2290</v>
       </c>
       <c r="H24" t="s">
         <v>212</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
         <v>223</v>
@@ -2289,10 +2295,13 @@
         <v>225</v>
       </c>
       <c r="M24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O24" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2309,13 +2318,13 @@
         <v>138</v>
       </c>
       <c r="E25">
-        <v>90.7217</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>570.16</v>
+        <v>1099</v>
       </c>
       <c r="H25" t="s">
         <v>212</v>
@@ -2330,16 +2339,16 @@
         <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s">
         <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2356,34 +2365,37 @@
         <v>139</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>583</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>486.57</v>
+        <v>1267.82</v>
       </c>
       <c r="H26" t="s">
         <v>212</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s">
         <v>232</v>
       </c>
       <c r="N26" t="s">
         <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2400,34 +2412,34 @@
         <v>140</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>583</v>
       </c>
       <c r="G27">
-        <v>1199</v>
+        <v>486.57</v>
       </c>
       <c r="H27" t="s">
         <v>212</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s">
         <v>223</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s">
         <v>234</v>
       </c>
       <c r="N27" t="s">
-        <v>237</v>
-      </c>
-      <c r="O27" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2447,16 +2459,16 @@
         <v>92</v>
       </c>
       <c r="F28">
-        <v>425</v>
+        <v>1731</v>
       </c>
       <c r="G28">
-        <v>928.13</v>
+        <v>664.13</v>
       </c>
       <c r="H28" t="s">
         <v>212</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
         <v>220</v>
@@ -2465,13 +2477,13 @@
         <v>223</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2488,34 +2500,37 @@
         <v>142</v>
       </c>
       <c r="E29">
-        <v>90.756</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>311.94</v>
+        <v>2599</v>
       </c>
       <c r="H29" t="s">
         <v>212</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s">
         <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N29" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2535,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2599</v>
+        <v>999</v>
       </c>
       <c r="H30" t="s">
         <v>212</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J30" t="s">
         <v>219</v>
@@ -2550,16 +2565,16 @@
         <v>223</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M30" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2576,34 +2591,34 @@
         <v>144</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>581</v>
       </c>
       <c r="G31">
-        <v>1316.83</v>
+        <v>672.76</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
       </c>
       <c r="I31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
         <v>223</v>
       </c>
       <c r="L31" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2623,31 +2638,34 @@
         <v>92</v>
       </c>
       <c r="F32">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="G32">
-        <v>1231.62</v>
+        <v>596.36</v>
       </c>
       <c r="H32" t="s">
         <v>212</v>
       </c>
       <c r="I32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K32" t="s">
         <v>223</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N32" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2664,34 +2682,34 @@
         <v>146</v>
       </c>
       <c r="E33">
-        <v>91.5239</v>
+        <v>92</v>
       </c>
       <c r="F33">
         <v>1739</v>
       </c>
       <c r="G33">
-        <v>659.8</v>
+        <v>628.3</v>
       </c>
       <c r="H33" t="s">
         <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K33" t="s">
         <v>223</v>
       </c>
       <c r="L33" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2708,13 +2726,10 @@
         <v>147</v>
       </c>
       <c r="E34">
-        <v>92</v>
-      </c>
-      <c r="F34">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>662.86</v>
+        <v>489</v>
       </c>
       <c r="H34" t="s">
         <v>212</v>
@@ -2723,19 +2738,19 @@
         <v>214</v>
       </c>
       <c r="J34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K34" t="s">
         <v>223</v>
       </c>
       <c r="L34" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2752,37 +2767,34 @@
         <v>148</v>
       </c>
       <c r="E35">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F35">
-        <v>1692</v>
+        <v>26</v>
       </c>
       <c r="G35">
-        <v>2599</v>
+        <v>299.99</v>
       </c>
       <c r="H35" t="s">
         <v>212</v>
       </c>
       <c r="I35" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s">
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N35" t="s">
-        <v>235</v>
-      </c>
-      <c r="O35" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2799,34 +2811,37 @@
         <v>149</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F36">
+        <v>579</v>
       </c>
       <c r="G36">
-        <v>999</v>
+        <v>813.4299999999999</v>
       </c>
       <c r="H36" t="s">
         <v>212</v>
       </c>
       <c r="I36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s">
         <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O36" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2843,37 +2858,34 @@
         <v>150</v>
       </c>
       <c r="E37">
-        <v>80</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1699</v>
+        <v>1199</v>
       </c>
       <c r="H37" t="s">
         <v>212</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s">
         <v>225</v>
       </c>
       <c r="M37" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O37" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2890,19 +2902,19 @@
         <v>151</v>
       </c>
       <c r="E38">
-        <v>94</v>
+        <v>66.666</v>
       </c>
       <c r="F38">
-        <v>1694</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>1499</v>
+        <v>1799</v>
       </c>
       <c r="H38" t="s">
         <v>212</v>
       </c>
       <c r="I38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J38" t="s">
         <v>220</v>
@@ -2911,16 +2923,16 @@
         <v>223</v>
       </c>
       <c r="L38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M38" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O38" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2937,19 +2949,22 @@
         <v>152</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F39">
+        <v>579</v>
       </c>
       <c r="G39">
-        <v>2899</v>
+        <v>534.96</v>
       </c>
       <c r="H39" t="s">
         <v>212</v>
       </c>
       <c r="I39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K39" t="s">
         <v>223</v>
@@ -2958,13 +2973,10 @@
         <v>229</v>
       </c>
       <c r="M39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N39" t="s">
-        <v>235</v>
-      </c>
-      <c r="O39" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2981,19 +2993,22 @@
         <v>153</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F40">
+        <v>1733</v>
       </c>
       <c r="G40">
-        <v>2099</v>
+        <v>905.98</v>
       </c>
       <c r="H40" t="s">
         <v>212</v>
       </c>
       <c r="I40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K40" t="s">
         <v>223</v>
@@ -3005,10 +3020,7 @@
         <v>232</v>
       </c>
       <c r="N40" t="s">
-        <v>235</v>
-      </c>
-      <c r="O40" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3025,34 +3037,37 @@
         <v>154</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>1499</v>
+        <v>1399</v>
       </c>
       <c r="H41" t="s">
         <v>212</v>
       </c>
       <c r="I41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K41" t="s">
         <v>223</v>
       </c>
       <c r="L41" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O41" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3069,34 +3084,37 @@
         <v>155</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F42">
+        <v>424</v>
       </c>
       <c r="G42">
-        <v>1424</v>
+        <v>924.17</v>
       </c>
       <c r="H42" t="s">
         <v>212</v>
       </c>
       <c r="I42" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s">
         <v>223</v>
       </c>
       <c r="L42" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O42" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3113,34 +3131,34 @@
         <v>156</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>2199</v>
+        <v>920.75</v>
       </c>
       <c r="H43" t="s">
         <v>212</v>
       </c>
       <c r="I43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J43" t="s">
         <v>220</v>
       </c>
       <c r="K43" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L43" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M43" t="s">
         <v>232</v>
       </c>
       <c r="N43" t="s">
-        <v>237</v>
-      </c>
-      <c r="O43" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3157,34 +3175,34 @@
         <v>157</v>
       </c>
       <c r="E44">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G44">
-        <v>899</v>
+        <v>866.4400000000001</v>
       </c>
       <c r="H44" t="s">
         <v>212</v>
       </c>
       <c r="I44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s">
         <v>223</v>
       </c>
       <c r="L44" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3204,31 +3222,31 @@
         <v>92</v>
       </c>
       <c r="F45">
-        <v>1740</v>
+        <v>424</v>
       </c>
       <c r="G45">
-        <v>828</v>
+        <v>662.86</v>
       </c>
       <c r="H45" t="s">
         <v>212</v>
       </c>
       <c r="I45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K45" t="s">
         <v>223</v>
       </c>
       <c r="L45" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3245,34 +3263,34 @@
         <v>159</v>
       </c>
       <c r="E46">
-        <v>91.5656</v>
+        <v>100</v>
       </c>
       <c r="F46">
-        <v>1731</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>664.13</v>
+        <v>1313.41</v>
       </c>
       <c r="H46" t="s">
         <v>212</v>
       </c>
       <c r="I46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K46" t="s">
         <v>223</v>
       </c>
       <c r="L46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3289,34 +3307,34 @@
         <v>160</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
       </c>
       <c r="G47">
-        <v>2299</v>
+        <v>1130.17</v>
       </c>
       <c r="H47" t="s">
         <v>212</v>
       </c>
       <c r="I47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J47" t="s">
         <v>220</v>
       </c>
       <c r="K47" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N47" t="s">
-        <v>238</v>
-      </c>
-      <c r="O47" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3333,13 +3351,13 @@
         <v>161</v>
       </c>
       <c r="E48">
-        <v>77.5</v>
+        <v>94</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>1693</v>
       </c>
       <c r="G48">
-        <v>593.99</v>
+        <v>1479</v>
       </c>
       <c r="H48" t="s">
         <v>212</v>
@@ -3348,19 +3366,22 @@
         <v>214</v>
       </c>
       <c r="J48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K48" t="s">
         <v>223</v>
       </c>
       <c r="L48" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N48" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O48" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3377,37 +3398,34 @@
         <v>162</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="G49">
-        <v>1399</v>
+        <v>928.13</v>
       </c>
       <c r="H49" t="s">
         <v>212</v>
       </c>
       <c r="I49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K49" t="s">
         <v>223</v>
       </c>
       <c r="L49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M49" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N49" t="s">
-        <v>237</v>
-      </c>
-      <c r="O49" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3427,19 +3445,19 @@
         <v>100</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>911.89</v>
+        <v>1316.83</v>
       </c>
       <c r="H50" t="s">
         <v>212</v>
       </c>
       <c r="I50" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K50" t="s">
         <v>223</v>
@@ -3448,10 +3466,10 @@
         <v>225</v>
       </c>
       <c r="M50" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3468,25 +3486,22 @@
         <v>164</v>
       </c>
       <c r="E51">
-        <v>87.1429</v>
-      </c>
-      <c r="F51">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1262.93</v>
+        <v>1196.96</v>
       </c>
       <c r="H51" t="s">
         <v>212</v>
       </c>
       <c r="I51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J51" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K51" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L51" t="s">
         <v>229</v>
@@ -3496,6 +3511,9 @@
       </c>
       <c r="N51" t="s">
         <v>235</v>
+      </c>
+      <c r="O51" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3518,7 +3536,7 @@
         <v>1693</v>
       </c>
       <c r="G52">
-        <v>1999</v>
+        <v>1474</v>
       </c>
       <c r="H52" t="s">
         <v>212</v>
@@ -3527,7 +3545,7 @@
         <v>216</v>
       </c>
       <c r="J52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K52" t="s">
         <v>223</v>
@@ -3536,13 +3554,13 @@
         <v>225</v>
       </c>
       <c r="M52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O52" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3559,19 +3577,19 @@
         <v>166</v>
       </c>
       <c r="E53">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F53">
-        <v>1733</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>905.98</v>
+        <v>1099</v>
       </c>
       <c r="H53" t="s">
         <v>212</v>
       </c>
       <c r="I53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J53" t="s">
         <v>219</v>
@@ -3587,6 +3605,9 @@
       </c>
       <c r="N53" t="s">
         <v>235</v>
+      </c>
+      <c r="O53" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3603,34 +3624,34 @@
         <v>167</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F54">
+        <v>1730</v>
       </c>
       <c r="G54">
-        <v>1899</v>
+        <v>919.6900000000001</v>
       </c>
       <c r="H54" t="s">
         <v>212</v>
       </c>
       <c r="I54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J54" t="s">
         <v>220</v>
       </c>
       <c r="K54" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L54" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N54" t="s">
-        <v>237</v>
-      </c>
-      <c r="O54" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3647,34 +3668,34 @@
         <v>168</v>
       </c>
       <c r="E55">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>799</v>
+        <v>1492.56</v>
       </c>
       <c r="H55" t="s">
         <v>212</v>
       </c>
       <c r="I55" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K55" t="s">
         <v>223</v>
       </c>
       <c r="L55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M55" t="s">
         <v>232</v>
       </c>
       <c r="N55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3694,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1199</v>
+        <v>734.33</v>
       </c>
       <c r="H56" t="s">
         <v>212</v>
       </c>
       <c r="I56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J56" t="s">
         <v>222</v>
@@ -3709,16 +3730,13 @@
         <v>223</v>
       </c>
       <c r="L56" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M56" t="s">
         <v>234</v>
       </c>
       <c r="N56" t="s">
-        <v>237</v>
-      </c>
-      <c r="O56" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3735,34 +3753,34 @@
         <v>170</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>1620.9</v>
+        <v>799</v>
       </c>
       <c r="H57" t="s">
         <v>212</v>
       </c>
       <c r="I57" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J57" t="s">
         <v>220</v>
       </c>
       <c r="K57" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s">
         <v>225</v>
       </c>
       <c r="M57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N57" t="s">
-        <v>239</v>
-      </c>
-      <c r="O57" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3779,19 +3797,22 @@
         <v>171</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F58">
+        <v>1693</v>
       </c>
       <c r="G58">
-        <v>1679</v>
+        <v>1999</v>
       </c>
       <c r="H58" t="s">
         <v>212</v>
       </c>
       <c r="I58" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K58" t="s">
         <v>223</v>
@@ -3800,13 +3821,13 @@
         <v>225</v>
       </c>
       <c r="M58" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O58" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3823,37 +3844,34 @@
         <v>172</v>
       </c>
       <c r="E59">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F59">
-        <v>1693</v>
+        <v>425</v>
       </c>
       <c r="G59">
-        <v>1474</v>
+        <v>620.97</v>
       </c>
       <c r="H59" t="s">
         <v>212</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K59" t="s">
         <v>223</v>
       </c>
       <c r="L59" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N59" t="s">
-        <v>238</v>
-      </c>
-      <c r="O59" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3870,37 +3888,34 @@
         <v>173</v>
       </c>
       <c r="E60">
-        <v>92</v>
-      </c>
-      <c r="F60">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>590.6900000000001</v>
+        <v>1620.9</v>
       </c>
       <c r="H60" t="s">
         <v>212</v>
       </c>
       <c r="I60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K60" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N60" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3917,31 +3932,37 @@
         <v>174</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F61">
+        <v>589</v>
       </c>
       <c r="G61">
-        <v>763.6900000000001</v>
+        <v>590.6900000000001</v>
       </c>
       <c r="H61" t="s">
         <v>212</v>
       </c>
       <c r="I61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K61" t="s">
         <v>223</v>
       </c>
       <c r="L61" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N61" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O61" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3958,34 +3979,34 @@
         <v>175</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F62">
+        <v>576</v>
       </c>
       <c r="G62">
-        <v>1599</v>
+        <v>673.63</v>
       </c>
       <c r="H62" t="s">
         <v>212</v>
       </c>
       <c r="I62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J62" t="s">
         <v>220</v>
       </c>
       <c r="K62" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L62" t="s">
         <v>229</v>
       </c>
       <c r="M62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N62" t="s">
-        <v>237</v>
-      </c>
-      <c r="O62" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4002,34 +4023,37 @@
         <v>176</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F63">
+        <v>582</v>
       </c>
       <c r="G63">
-        <v>1349.25</v>
+        <v>570.16</v>
       </c>
       <c r="H63" t="s">
         <v>212</v>
       </c>
       <c r="I63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J63" t="s">
         <v>220</v>
       </c>
       <c r="K63" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4046,19 +4070,16 @@
         <v>177</v>
       </c>
       <c r="E64">
-        <v>92</v>
-      </c>
-      <c r="F64">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>547.33</v>
+        <v>1499</v>
       </c>
       <c r="H64" t="s">
         <v>212</v>
       </c>
       <c r="I64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J64" t="s">
         <v>219</v>
@@ -4067,13 +4088,16 @@
         <v>223</v>
       </c>
       <c r="L64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N64" t="s">
         <v>235</v>
+      </c>
+      <c r="O64" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4090,34 +4114,34 @@
         <v>178</v>
       </c>
       <c r="E65">
-        <v>92</v>
-      </c>
-      <c r="F65">
-        <v>1729</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>942.22</v>
+        <v>1048.67</v>
       </c>
       <c r="H65" t="s">
         <v>212</v>
       </c>
       <c r="I65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K65" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L65" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N65" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+      <c r="O65" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4134,34 +4158,37 @@
         <v>179</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F66">
+        <v>1692</v>
       </c>
       <c r="G66">
-        <v>1173.21</v>
+        <v>2599</v>
       </c>
       <c r="H66" t="s">
         <v>212</v>
       </c>
       <c r="I66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J66" t="s">
         <v>220</v>
       </c>
       <c r="K66" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M66" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O66" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4178,13 +4205,10 @@
         <v>180</v>
       </c>
       <c r="E67">
-        <v>90.77719999999999</v>
-      </c>
-      <c r="F67">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>534.96</v>
+        <v>763.6900000000001</v>
       </c>
       <c r="H67" t="s">
         <v>212</v>
@@ -4193,19 +4217,19 @@
         <v>213</v>
       </c>
       <c r="J67" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K67" t="s">
         <v>223</v>
       </c>
       <c r="L67" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4222,19 +4246,16 @@
         <v>181</v>
       </c>
       <c r="E68">
-        <v>92</v>
-      </c>
-      <c r="F68">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1083.47</v>
+        <v>1424</v>
       </c>
       <c r="H68" t="s">
         <v>212</v>
       </c>
       <c r="I68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J68" t="s">
         <v>221</v>
@@ -4243,13 +4264,16 @@
         <v>223</v>
       </c>
       <c r="L68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M68" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N68" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O68" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4266,22 +4290,22 @@
         <v>182</v>
       </c>
       <c r="E69">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F69">
-        <v>1757</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>653.62</v>
+        <v>899</v>
       </c>
       <c r="H69" t="s">
         <v>212</v>
       </c>
       <c r="I69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K69" t="s">
         <v>223</v>
@@ -4293,7 +4317,7 @@
         <v>232</v>
       </c>
       <c r="N69" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4310,13 +4334,13 @@
         <v>183</v>
       </c>
       <c r="E70">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>1729</v>
       </c>
       <c r="G70">
-        <v>1479</v>
+        <v>825.83</v>
       </c>
       <c r="H70" t="s">
         <v>212</v>
@@ -4325,22 +4349,19 @@
         <v>213</v>
       </c>
       <c r="J70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K70" t="s">
         <v>223</v>
       </c>
       <c r="L70" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N70" t="s">
-        <v>235</v>
-      </c>
-      <c r="O70" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4357,19 +4378,16 @@
         <v>184</v>
       </c>
       <c r="E71">
-        <v>94</v>
-      </c>
-      <c r="F71">
-        <v>1693</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1479</v>
+        <v>806.78</v>
       </c>
       <c r="H71" t="s">
         <v>212</v>
       </c>
       <c r="I71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J71" t="s">
         <v>220</v>
@@ -4378,16 +4396,13 @@
         <v>223</v>
       </c>
       <c r="L71" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N71" t="s">
-        <v>238</v>
-      </c>
-      <c r="O71" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4404,34 +4419,37 @@
         <v>185</v>
       </c>
       <c r="E72">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F72">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>866.4400000000001</v>
+        <v>1699</v>
       </c>
       <c r="H72" t="s">
         <v>212</v>
       </c>
       <c r="I72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J72" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K72" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L72" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M72" t="s">
         <v>234</v>
       </c>
       <c r="N72" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O72" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4448,34 +4466,34 @@
         <v>186</v>
       </c>
       <c r="E73">
-        <v>92</v>
-      </c>
-      <c r="F73">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>673.63</v>
+        <v>2299</v>
       </c>
       <c r="H73" t="s">
         <v>212</v>
       </c>
       <c r="I73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K73" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N73" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O73" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4495,19 +4513,19 @@
         <v>92</v>
       </c>
       <c r="F74">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="G74">
-        <v>709.96</v>
+        <v>599</v>
       </c>
       <c r="H74" t="s">
         <v>212</v>
       </c>
       <c r="I74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K74" t="s">
         <v>223</v>
@@ -4519,7 +4537,7 @@
         <v>234</v>
       </c>
       <c r="N74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4536,34 +4554,34 @@
         <v>188</v>
       </c>
       <c r="E75">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G75">
-        <v>920.75</v>
+        <v>920.78</v>
       </c>
       <c r="H75" t="s">
         <v>212</v>
       </c>
       <c r="I75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K75" t="s">
         <v>223</v>
       </c>
       <c r="L75" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4583,19 +4601,19 @@
         <v>92</v>
       </c>
       <c r="F76">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="G76">
-        <v>825.83</v>
+        <v>709.96</v>
       </c>
       <c r="H76" t="s">
         <v>212</v>
       </c>
       <c r="I76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K76" t="s">
         <v>223</v>
@@ -4604,10 +4622,10 @@
         <v>224</v>
       </c>
       <c r="M76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4624,13 +4642,10 @@
         <v>190</v>
       </c>
       <c r="E77">
-        <v>92</v>
-      </c>
-      <c r="F77">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>919.6900000000001</v>
+        <v>905.98</v>
       </c>
       <c r="H77" t="s">
         <v>212</v>
@@ -4639,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="J77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K77" t="s">
         <v>223</v>
       </c>
       <c r="L77" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M77" t="s">
         <v>234</v>
       </c>
       <c r="N77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4668,34 +4683,34 @@
         <v>191</v>
       </c>
       <c r="E78">
-        <v>90.28570000000001</v>
-      </c>
-      <c r="F78">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>599.99</v>
+        <v>1173.21</v>
       </c>
       <c r="H78" t="s">
         <v>212</v>
       </c>
       <c r="I78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K78" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N78" t="s">
         <v>235</v>
+      </c>
+      <c r="O78" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4712,37 +4727,34 @@
         <v>192</v>
       </c>
       <c r="E79">
-        <v>40</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1399</v>
+        <v>999</v>
       </c>
       <c r="H79" t="s">
         <v>212</v>
       </c>
       <c r="I79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J79" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K79" t="s">
         <v>223</v>
       </c>
       <c r="L79" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O79" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4759,19 +4771,16 @@
         <v>193</v>
       </c>
       <c r="E80">
-        <v>94</v>
-      </c>
-      <c r="F80">
-        <v>1693</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>1999</v>
+        <v>780.6</v>
       </c>
       <c r="H80" t="s">
         <v>212</v>
       </c>
       <c r="I80" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J80" t="s">
         <v>220</v>
@@ -4780,16 +4789,13 @@
         <v>223</v>
       </c>
       <c r="L80" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M80" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N80" t="s">
-        <v>238</v>
-      </c>
-      <c r="O80" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4806,25 +4812,22 @@
         <v>194</v>
       </c>
       <c r="E81">
-        <v>92</v>
-      </c>
-      <c r="F81">
-        <v>1736</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>599</v>
+        <v>1899</v>
       </c>
       <c r="H81" t="s">
         <v>212</v>
       </c>
       <c r="I81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J81" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K81" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L81" t="s">
         <v>224</v>
@@ -4834,6 +4837,9 @@
       </c>
       <c r="N81" t="s">
         <v>235</v>
+      </c>
+      <c r="O81" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4850,37 +4856,34 @@
         <v>195</v>
       </c>
       <c r="E82">
-        <v>92</v>
-      </c>
-      <c r="F82">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>924.17</v>
+        <v>2099</v>
       </c>
       <c r="H82" t="s">
         <v>212</v>
       </c>
       <c r="I82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K82" t="s">
         <v>223</v>
       </c>
       <c r="L82" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M82" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O82" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4897,16 +4900,19 @@
         <v>196</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F83">
+        <v>1740</v>
       </c>
       <c r="G83">
-        <v>2290</v>
+        <v>828</v>
       </c>
       <c r="H83" t="s">
         <v>212</v>
       </c>
       <c r="I83" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J83" t="s">
         <v>220</v>
@@ -4915,16 +4921,13 @@
         <v>223</v>
       </c>
       <c r="L83" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N83" t="s">
-        <v>238</v>
-      </c>
-      <c r="O83" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4941,13 +4944,10 @@
         <v>197</v>
       </c>
       <c r="E84">
-        <v>92</v>
-      </c>
-      <c r="F84">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>620.97</v>
+        <v>986.5700000000001</v>
       </c>
       <c r="H84" t="s">
         <v>212</v>
@@ -4956,19 +4956,22 @@
         <v>214</v>
       </c>
       <c r="J84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K84" t="s">
         <v>223</v>
       </c>
       <c r="L84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N84" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="O84" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4985,34 +4988,37 @@
         <v>198</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>986.5700000000001</v>
+        <v>1479</v>
       </c>
       <c r="H85" t="s">
         <v>212</v>
       </c>
       <c r="I85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K85" t="s">
         <v>223</v>
       </c>
       <c r="L85" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M85" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N85" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O85" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -5029,37 +5035,34 @@
         <v>199</v>
       </c>
       <c r="E86">
-        <v>100</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>2899</v>
+        <v>1349.25</v>
       </c>
       <c r="H86" t="s">
         <v>212</v>
       </c>
       <c r="I86" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J86" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K86" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L86" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M86" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N86" t="s">
         <v>235</v>
       </c>
       <c r="O86" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -5076,10 +5079,13 @@
         <v>200</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F87">
+        <v>35</v>
       </c>
       <c r="G87">
-        <v>489</v>
+        <v>599.99</v>
       </c>
       <c r="H87" t="s">
         <v>212</v>
@@ -5088,19 +5094,19 @@
         <v>213</v>
       </c>
       <c r="J87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K87" t="s">
         <v>223</v>
       </c>
       <c r="L87" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M87" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -5117,37 +5123,34 @@
         <v>201</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G88">
-        <v>1099</v>
+        <v>722.34</v>
       </c>
       <c r="H88" t="s">
         <v>212</v>
       </c>
       <c r="I88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K88" t="s">
         <v>223</v>
       </c>
       <c r="L88" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M88" t="s">
         <v>232</v>
       </c>
       <c r="N88" t="s">
-        <v>237</v>
-      </c>
-      <c r="O88" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5167,31 +5170,31 @@
         <v>92</v>
       </c>
       <c r="F89">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="G89">
-        <v>1399</v>
+        <v>539.71</v>
       </c>
       <c r="H89" t="s">
         <v>212</v>
       </c>
       <c r="I89" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K89" t="s">
         <v>223</v>
       </c>
       <c r="L89" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5208,37 +5211,34 @@
         <v>203</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>1731</v>
       </c>
       <c r="G90">
-        <v>1267.82</v>
+        <v>761.13</v>
       </c>
       <c r="H90" t="s">
         <v>212</v>
       </c>
       <c r="I90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J90" t="s">
         <v>220</v>
       </c>
       <c r="K90" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L90" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N90" t="s">
-        <v>237</v>
-      </c>
-      <c r="O90" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5255,37 +5255,37 @@
         <v>204</v>
       </c>
       <c r="E91">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>1693</v>
       </c>
       <c r="G91">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="H91" t="s">
         <v>212</v>
       </c>
       <c r="I91" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K91" t="s">
         <v>223</v>
       </c>
       <c r="L91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M91" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N91" t="s">
         <v>237</v>
       </c>
       <c r="O91" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5305,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1199</v>
+        <v>2899</v>
       </c>
       <c r="H92" t="s">
         <v>212</v>
       </c>
       <c r="I92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J92" t="s">
         <v>220</v>
@@ -5320,16 +5320,16 @@
         <v>223</v>
       </c>
       <c r="L92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O92" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5346,34 +5346,34 @@
         <v>206</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F93">
+        <v>1757</v>
       </c>
       <c r="G93">
-        <v>1380.6</v>
+        <v>653.62</v>
       </c>
       <c r="H93" t="s">
         <v>212</v>
       </c>
       <c r="I93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J93" t="s">
         <v>220</v>
       </c>
       <c r="K93" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L93" t="s">
         <v>229</v>
       </c>
       <c r="M93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N93" t="s">
-        <v>237</v>
-      </c>
-      <c r="O93" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5390,34 +5390,31 @@
         <v>207</v>
       </c>
       <c r="E94">
-        <v>97.5</v>
-      </c>
-      <c r="F94">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>920.78</v>
+        <v>899</v>
       </c>
       <c r="H94" t="s">
         <v>212</v>
       </c>
       <c r="I94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K94" t="s">
         <v>223</v>
       </c>
       <c r="L94" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5437,31 +5434,31 @@
         <v>92</v>
       </c>
       <c r="F95">
-        <v>1730</v>
+        <v>1739</v>
       </c>
       <c r="G95">
-        <v>711.42</v>
+        <v>1399</v>
       </c>
       <c r="H95" t="s">
         <v>212</v>
       </c>
       <c r="I95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K95" t="s">
         <v>223</v>
       </c>
       <c r="L95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5478,22 +5475,22 @@
         <v>209</v>
       </c>
       <c r="E96">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="G96">
-        <v>1492.56</v>
+        <v>899.99</v>
       </c>
       <c r="H96" t="s">
         <v>212</v>
       </c>
       <c r="I96" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K96" t="s">
         <v>223</v>
@@ -5505,7 +5502,10 @@
         <v>234</v>
       </c>
       <c r="N96" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O96" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5522,22 +5522,22 @@
         <v>210</v>
       </c>
       <c r="E97">
-        <v>66.66670000000001</v>
+        <v>92</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>425</v>
       </c>
       <c r="G97">
-        <v>1799</v>
+        <v>1083.47</v>
       </c>
       <c r="H97" t="s">
         <v>212</v>
       </c>
       <c r="I97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J97" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K97" t="s">
         <v>223</v>
@@ -5546,13 +5546,10 @@
         <v>229</v>
       </c>
       <c r="M97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N97" t="s">
-        <v>235</v>
-      </c>
-      <c r="O97" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5569,31 +5566,34 @@
         <v>211</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F98">
+        <v>1740</v>
       </c>
       <c r="G98">
-        <v>780.6</v>
+        <v>1231.62</v>
       </c>
       <c r="H98" t="s">
         <v>212</v>
       </c>
       <c r="I98" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K98" t="s">
         <v>223</v>
       </c>
       <c r="L98" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M98" t="s">
         <v>232</v>
       </c>
       <c r="N98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1279</v>
+        <v>1199</v>
       </c>
       <c r="H99" t="s">
         <v>212</v>
@@ -5654,10 +5654,13 @@
         <v>116</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F100">
+        <v>1730</v>
       </c>
       <c r="G100">
-        <v>1048.67</v>
+        <v>711.42</v>
       </c>
       <c r="H100" t="s">
         <v>212</v>
@@ -5669,19 +5672,16 @@
         <v>220</v>
       </c>
       <c r="K100" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L100" t="s">
         <v>225</v>
       </c>
       <c r="M100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N100" t="s">
         <v>236</v>
-      </c>
-      <c r="O100" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>734.33</v>
+        <v>1679</v>
       </c>
       <c r="H101" t="s">
         <v>212</v>
@@ -5716,13 +5716,16 @@
         <v>223</v>
       </c>
       <c r="L101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N101" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O101" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5739,13 +5742,13 @@
         <v>118</v>
       </c>
       <c r="E102">
-        <v>90.7692</v>
+        <v>92</v>
       </c>
       <c r="F102">
-        <v>26</v>
+        <v>1729</v>
       </c>
       <c r="G102">
-        <v>299.99</v>
+        <v>942.22</v>
       </c>
       <c r="H102" t="s">
         <v>212</v>
@@ -5760,13 +5763,13 @@
         <v>223</v>
       </c>
       <c r="L102" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5783,19 +5786,22 @@
         <v>119</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
       </c>
       <c r="G103">
-        <v>905.98</v>
+        <v>911.89</v>
       </c>
       <c r="H103" t="s">
         <v>212</v>
       </c>
       <c r="I103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K103" t="s">
         <v>223</v>
@@ -5804,10 +5810,10 @@
         <v>225</v>
       </c>
       <c r="M103" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5824,34 +5830,34 @@
         <v>120</v>
       </c>
       <c r="E104">
-        <v>82.2222</v>
-      </c>
-      <c r="F104">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>599.99</v>
+        <v>2199</v>
       </c>
       <c r="H104" t="s">
         <v>212</v>
       </c>
       <c r="I104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J104" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K104" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M104" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N104" t="s">
         <v>235</v>
+      </c>
+      <c r="O104" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5871,10 +5877,10 @@
         <v>92</v>
       </c>
       <c r="F105">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G105">
-        <v>672.76</v>
+        <v>311.94</v>
       </c>
       <c r="H105" t="s">
         <v>212</v>
@@ -5883,19 +5889,19 @@
         <v>214</v>
       </c>
       <c r="J105" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K105" t="s">
         <v>223</v>
       </c>
       <c r="L105" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5912,19 +5918,16 @@
         <v>122</v>
       </c>
       <c r="E106">
-        <v>91.5548</v>
-      </c>
-      <c r="F106">
-        <v>1743</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>596.36</v>
+        <v>1199</v>
       </c>
       <c r="H106" t="s">
         <v>212</v>
       </c>
       <c r="I106" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J106" t="s">
         <v>219</v>
@@ -5933,16 +5936,16 @@
         <v>223</v>
       </c>
       <c r="L106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N106" t="s">
         <v>235</v>
       </c>
       <c r="O106" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5959,34 +5962,34 @@
         <v>123</v>
       </c>
       <c r="E107">
-        <v>92</v>
-      </c>
-      <c r="F107">
-        <v>1739</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>628.3</v>
+        <v>1599</v>
       </c>
       <c r="H107" t="s">
         <v>212</v>
       </c>
       <c r="I107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J107" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K107" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L107" t="s">
         <v>224</v>
       </c>
       <c r="M107" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N107" t="s">
         <v>235</v>
+      </c>
+      <c r="O107" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -6003,34 +6006,34 @@
         <v>124</v>
       </c>
       <c r="E108">
-        <v>91.53230000000001</v>
+        <v>92</v>
       </c>
       <c r="F108">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="G108">
-        <v>539.71</v>
+        <v>547.33</v>
       </c>
       <c r="H108" t="s">
         <v>212</v>
       </c>
       <c r="I108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K108" t="s">
         <v>223</v>
       </c>
       <c r="L108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M108" t="s">
         <v>233</v>
       </c>
       <c r="N108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -6047,34 +6050,37 @@
         <v>125</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>999</v>
+        <v>1399</v>
       </c>
       <c r="H109" t="s">
         <v>212</v>
       </c>
       <c r="I109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J109" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K109" t="s">
         <v>223</v>
       </c>
       <c r="L109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M109" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -6094,19 +6100,19 @@
         <v>100</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>1130.17</v>
+        <v>2899</v>
       </c>
       <c r="H110" t="s">
         <v>212</v>
       </c>
       <c r="I110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K110" t="s">
         <v>223</v>
@@ -6115,10 +6121,13 @@
         <v>224</v>
       </c>
       <c r="M110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N110" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O110" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6135,10 +6144,7 @@
         <v>127</v>
       </c>
       <c r="E111">
-        <v>100</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>2599</v>
@@ -6147,25 +6153,25 @@
         <v>212</v>
       </c>
       <c r="I111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K111" t="s">
         <v>223</v>
       </c>
       <c r="L111" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M111" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O111" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -6182,31 +6188,34 @@
         <v>128</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F112">
+        <v>27</v>
       </c>
       <c r="G112">
-        <v>899</v>
+        <v>599.99</v>
       </c>
       <c r="H112" t="s">
         <v>212</v>
       </c>
       <c r="I112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K112" t="s">
         <v>223</v>
       </c>
       <c r="L112" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M112" t="s">
         <v>234</v>
       </c>
       <c r="N112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -6223,10 +6232,13 @@
         <v>129</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="F113">
+        <v>8</v>
       </c>
       <c r="G113">
-        <v>806.78</v>
+        <v>593.99</v>
       </c>
       <c r="H113" t="s">
         <v>212</v>
@@ -6235,19 +6247,19 @@
         <v>213</v>
       </c>
       <c r="J113" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K113" t="s">
         <v>223</v>
       </c>
       <c r="L113" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6267,31 +6279,31 @@
         <v>92</v>
       </c>
       <c r="F114">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="G114">
-        <v>618.85</v>
+        <v>659.8</v>
       </c>
       <c r="H114" t="s">
         <v>212</v>
       </c>
       <c r="I114" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K114" t="s">
         <v>223</v>
       </c>
       <c r="L114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6308,34 +6320,34 @@
         <v>131</v>
       </c>
       <c r="E115">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F115">
-        <v>5</v>
+        <v>1732</v>
       </c>
       <c r="G115">
-        <v>722.34</v>
+        <v>618.85</v>
       </c>
       <c r="H115" t="s">
         <v>212</v>
       </c>
       <c r="I115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K115" t="s">
         <v>223</v>
       </c>
       <c r="L115" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M115" t="s">
         <v>234</v>
       </c>
       <c r="N115" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6352,34 +6364,34 @@
         <v>132</v>
       </c>
       <c r="E116">
-        <v>100</v>
-      </c>
-      <c r="F116">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>1313.41</v>
+        <v>1380.6</v>
       </c>
       <c r="H116" t="s">
         <v>212</v>
       </c>
       <c r="I116" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J116" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K116" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L116" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M116" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N116" t="s">
         <v>235</v>
+      </c>
+      <c r="O116" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6396,34 +6408,37 @@
         <v>133</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F117">
+        <v>589</v>
       </c>
       <c r="G117">
-        <v>1196.96</v>
+        <v>805.97</v>
       </c>
       <c r="H117" t="s">
         <v>212</v>
       </c>
       <c r="I117" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J117" t="s">
         <v>220</v>
       </c>
       <c r="K117" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L117" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M117" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O117" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6440,37 +6455,34 @@
         <v>134</v>
       </c>
       <c r="E118">
-        <v>84.4615</v>
-      </c>
-      <c r="F118">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>899.99</v>
+        <v>1279</v>
       </c>
       <c r="H118" t="s">
         <v>212</v>
       </c>
       <c r="I118" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J118" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K118" t="s">
         <v>223</v>
       </c>
       <c r="L118" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M118" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O118" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6487,37 +6499,37 @@
         <v>135</v>
       </c>
       <c r="E119">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F119">
-        <v>579</v>
+        <v>1694</v>
       </c>
       <c r="G119">
-        <v>813.4299999999999</v>
+        <v>1499</v>
       </c>
       <c r="H119" t="s">
         <v>212</v>
       </c>
       <c r="I119" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J119" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K119" t="s">
         <v>223</v>
       </c>
       <c r="L119" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M119" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N119" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O119" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6534,37 +6546,34 @@
         <v>136</v>
       </c>
       <c r="E120">
-        <v>90.52630000000001</v>
+        <v>88</v>
       </c>
       <c r="F120">
-        <v>589</v>
+        <v>14</v>
       </c>
       <c r="G120">
-        <v>805.97</v>
+        <v>1262.93</v>
       </c>
       <c r="H120" t="s">
         <v>212</v>
       </c>
       <c r="I120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J120" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K120" t="s">
         <v>223</v>
       </c>
       <c r="L120" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M120" t="s">
         <v>232</v>
       </c>
       <c r="N120" t="s">
-        <v>235</v>
-      </c>
-      <c r="O120" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6581,22 +6590,19 @@
         <v>137</v>
       </c>
       <c r="E121">
-        <v>92</v>
-      </c>
-      <c r="F121">
-        <v>1731</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>761.13</v>
+        <v>2290</v>
       </c>
       <c r="H121" t="s">
         <v>212</v>
       </c>
       <c r="I121" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J121" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K121" t="s">
         <v>223</v>
@@ -6605,10 +6611,13 @@
         <v>225</v>
       </c>
       <c r="M121" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N121" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O121" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6625,13 +6634,13 @@
         <v>138</v>
       </c>
       <c r="E122">
-        <v>90.7217</v>
+        <v>20</v>
       </c>
       <c r="F122">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>570.16</v>
+        <v>1099</v>
       </c>
       <c r="H122" t="s">
         <v>212</v>
@@ -6646,16 +6655,16 @@
         <v>223</v>
       </c>
       <c r="L122" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M122" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N122" t="s">
         <v>235</v>
       </c>
       <c r="O122" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -6672,34 +6681,37 @@
         <v>139</v>
       </c>
       <c r="E123">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="F123">
-        <v>583</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>486.57</v>
+        <v>1267.82</v>
       </c>
       <c r="H123" t="s">
         <v>212</v>
       </c>
       <c r="I123" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J123" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K123" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M123" t="s">
         <v>232</v>
       </c>
       <c r="N123" t="s">
         <v>235</v>
+      </c>
+      <c r="O123" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -6716,34 +6728,34 @@
         <v>140</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F124">
+        <v>583</v>
       </c>
       <c r="G124">
-        <v>1199</v>
+        <v>486.57</v>
       </c>
       <c r="H124" t="s">
         <v>212</v>
       </c>
       <c r="I124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J124" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K124" t="s">
         <v>223</v>
       </c>
       <c r="L124" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M124" t="s">
         <v>234</v>
       </c>
       <c r="N124" t="s">
-        <v>237</v>
-      </c>
-      <c r="O124" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -6763,16 +6775,16 @@
         <v>92</v>
       </c>
       <c r="F125">
-        <v>425</v>
+        <v>1731</v>
       </c>
       <c r="G125">
-        <v>928.13</v>
+        <v>664.13</v>
       </c>
       <c r="H125" t="s">
         <v>212</v>
       </c>
       <c r="I125" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J125" t="s">
         <v>220</v>
@@ -6781,13 +6793,13 @@
         <v>223</v>
       </c>
       <c r="L125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N125" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -6804,34 +6816,37 @@
         <v>142</v>
       </c>
       <c r="E126">
-        <v>90.756</v>
+        <v>100</v>
       </c>
       <c r="F126">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>311.94</v>
+        <v>2599</v>
       </c>
       <c r="H126" t="s">
         <v>212</v>
       </c>
       <c r="I126" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K126" t="s">
         <v>223</v>
       </c>
       <c r="L126" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M126" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N126" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O126" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -6851,13 +6866,13 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>2599</v>
+        <v>999</v>
       </c>
       <c r="H127" t="s">
         <v>212</v>
       </c>
       <c r="I127" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J127" t="s">
         <v>219</v>
@@ -6866,16 +6881,16 @@
         <v>223</v>
       </c>
       <c r="L127" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M127" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N127" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O127" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -6892,34 +6907,34 @@
         <v>144</v>
       </c>
       <c r="E128">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>581</v>
       </c>
       <c r="G128">
-        <v>1316.83</v>
+        <v>672.76</v>
       </c>
       <c r="H128" t="s">
         <v>212</v>
       </c>
       <c r="I128" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J128" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K128" t="s">
         <v>223</v>
       </c>
       <c r="L128" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -6939,31 +6954,34 @@
         <v>92</v>
       </c>
       <c r="F129">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="G129">
-        <v>1231.62</v>
+        <v>596.36</v>
       </c>
       <c r="H129" t="s">
         <v>212</v>
       </c>
       <c r="I129" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J129" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K129" t="s">
         <v>223</v>
       </c>
       <c r="L129" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N129" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O129" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -6980,34 +6998,34 @@
         <v>146</v>
       </c>
       <c r="E130">
-        <v>91.5239</v>
+        <v>92</v>
       </c>
       <c r="F130">
         <v>1739</v>
       </c>
       <c r="G130">
-        <v>659.8</v>
+        <v>628.3</v>
       </c>
       <c r="H130" t="s">
         <v>212</v>
       </c>
       <c r="I130" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J130" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K130" t="s">
         <v>223</v>
       </c>
       <c r="L130" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -7024,13 +7042,10 @@
         <v>147</v>
       </c>
       <c r="E131">
-        <v>92</v>
-      </c>
-      <c r="F131">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>662.86</v>
+        <v>489</v>
       </c>
       <c r="H131" t="s">
         <v>212</v>
@@ -7039,19 +7054,19 @@
         <v>214</v>
       </c>
       <c r="J131" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K131" t="s">
         <v>223</v>
       </c>
       <c r="L131" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M131" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -7068,37 +7083,34 @@
         <v>148</v>
       </c>
       <c r="E132">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F132">
-        <v>1692</v>
+        <v>26</v>
       </c>
       <c r="G132">
-        <v>2599</v>
+        <v>299.99</v>
       </c>
       <c r="H132" t="s">
         <v>212</v>
       </c>
       <c r="I132" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J132" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K132" t="s">
         <v>223</v>
       </c>
       <c r="L132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M132" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N132" t="s">
-        <v>235</v>
-      </c>
-      <c r="O132" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -7115,34 +7127,37 @@
         <v>149</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F133">
+        <v>579</v>
       </c>
       <c r="G133">
-        <v>999</v>
+        <v>813.4299999999999</v>
       </c>
       <c r="H133" t="s">
         <v>212</v>
       </c>
       <c r="I133" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J133" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K133" t="s">
         <v>223</v>
       </c>
       <c r="L133" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M133" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O133" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -7159,37 +7174,34 @@
         <v>150</v>
       </c>
       <c r="E134">
-        <v>80</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>1699</v>
+        <v>1199</v>
       </c>
       <c r="H134" t="s">
         <v>212</v>
       </c>
       <c r="I134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J134" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K134" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L134" t="s">
         <v>225</v>
       </c>
       <c r="M134" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N134" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O134" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -7206,19 +7218,19 @@
         <v>151</v>
       </c>
       <c r="E135">
-        <v>94</v>
+        <v>66.666</v>
       </c>
       <c r="F135">
-        <v>1694</v>
+        <v>3</v>
       </c>
       <c r="G135">
-        <v>1499</v>
+        <v>1799</v>
       </c>
       <c r="H135" t="s">
         <v>212</v>
       </c>
       <c r="I135" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J135" t="s">
         <v>220</v>
@@ -7227,16 +7239,16 @@
         <v>223</v>
       </c>
       <c r="L135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M135" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N135" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O135" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -7253,19 +7265,22 @@
         <v>152</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F136">
+        <v>579</v>
       </c>
       <c r="G136">
-        <v>2899</v>
+        <v>534.96</v>
       </c>
       <c r="H136" t="s">
         <v>212</v>
       </c>
       <c r="I136" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J136" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K136" t="s">
         <v>223</v>
@@ -7274,13 +7289,10 @@
         <v>229</v>
       </c>
       <c r="M136" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N136" t="s">
-        <v>235</v>
-      </c>
-      <c r="O136" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -7297,19 +7309,22 @@
         <v>153</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F137">
+        <v>1733</v>
       </c>
       <c r="G137">
-        <v>2099</v>
+        <v>905.98</v>
       </c>
       <c r="H137" t="s">
         <v>212</v>
       </c>
       <c r="I137" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K137" t="s">
         <v>223</v>
@@ -7321,10 +7336,7 @@
         <v>232</v>
       </c>
       <c r="N137" t="s">
-        <v>235</v>
-      </c>
-      <c r="O137" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:15">
@@ -7341,34 +7353,37 @@
         <v>154</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>1499</v>
+        <v>1399</v>
       </c>
       <c r="H138" t="s">
         <v>212</v>
       </c>
       <c r="I138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J138" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K138" t="s">
         <v>223</v>
       </c>
       <c r="L138" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M138" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N138" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O138" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:15">
@@ -7385,34 +7400,37 @@
         <v>155</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F139">
+        <v>424</v>
       </c>
       <c r="G139">
-        <v>1424</v>
+        <v>924.17</v>
       </c>
       <c r="H139" t="s">
         <v>212</v>
       </c>
       <c r="I139" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J139" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K139" t="s">
         <v>223</v>
       </c>
       <c r="L139" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M139" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N139" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O139" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:15">
@@ -7429,34 +7447,34 @@
         <v>156</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>2199</v>
+        <v>920.75</v>
       </c>
       <c r="H140" t="s">
         <v>212</v>
       </c>
       <c r="I140" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J140" t="s">
         <v>220</v>
       </c>
       <c r="K140" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L140" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M140" t="s">
         <v>232</v>
       </c>
       <c r="N140" t="s">
-        <v>237</v>
-      </c>
-      <c r="O140" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -7473,34 +7491,34 @@
         <v>157</v>
       </c>
       <c r="E141">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G141">
-        <v>899</v>
+        <v>866.4400000000001</v>
       </c>
       <c r="H141" t="s">
         <v>212</v>
       </c>
       <c r="I141" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J141" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K141" t="s">
         <v>223</v>
       </c>
       <c r="L141" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M141" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -7520,31 +7538,31 @@
         <v>92</v>
       </c>
       <c r="F142">
-        <v>1740</v>
+        <v>424</v>
       </c>
       <c r="G142">
-        <v>828</v>
+        <v>662.86</v>
       </c>
       <c r="H142" t="s">
         <v>212</v>
       </c>
       <c r="I142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J142" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K142" t="s">
         <v>223</v>
       </c>
       <c r="L142" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M142" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N142" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -7561,34 +7579,34 @@
         <v>159</v>
       </c>
       <c r="E143">
-        <v>91.5656</v>
+        <v>100</v>
       </c>
       <c r="F143">
-        <v>1731</v>
+        <v>5</v>
       </c>
       <c r="G143">
-        <v>664.13</v>
+        <v>1313.41</v>
       </c>
       <c r="H143" t="s">
         <v>212</v>
       </c>
       <c r="I143" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J143" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K143" t="s">
         <v>223</v>
       </c>
       <c r="L143" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N143" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -7605,34 +7623,34 @@
         <v>160</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
       </c>
       <c r="G144">
-        <v>2299</v>
+        <v>1130.17</v>
       </c>
       <c r="H144" t="s">
         <v>212</v>
       </c>
       <c r="I144" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J144" t="s">
         <v>220</v>
       </c>
       <c r="K144" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L144" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M144" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N144" t="s">
-        <v>238</v>
-      </c>
-      <c r="O144" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -7649,13 +7667,13 @@
         <v>161</v>
       </c>
       <c r="E145">
-        <v>77.5</v>
+        <v>94</v>
       </c>
       <c r="F145">
-        <v>8</v>
+        <v>1693</v>
       </c>
       <c r="G145">
-        <v>593.99</v>
+        <v>1479</v>
       </c>
       <c r="H145" t="s">
         <v>212</v>
@@ -7664,19 +7682,22 @@
         <v>214</v>
       </c>
       <c r="J145" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K145" t="s">
         <v>223</v>
       </c>
       <c r="L145" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M145" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N145" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O145" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -7693,37 +7714,34 @@
         <v>162</v>
       </c>
       <c r="E146">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="G146">
-        <v>1399</v>
+        <v>928.13</v>
       </c>
       <c r="H146" t="s">
         <v>212</v>
       </c>
       <c r="I146" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J146" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K146" t="s">
         <v>223</v>
       </c>
       <c r="L146" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M146" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N146" t="s">
-        <v>237</v>
-      </c>
-      <c r="O146" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -7743,19 +7761,19 @@
         <v>100</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147">
-        <v>911.89</v>
+        <v>1316.83</v>
       </c>
       <c r="H147" t="s">
         <v>212</v>
       </c>
       <c r="I147" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J147" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K147" t="s">
         <v>223</v>
@@ -7764,10 +7782,10 @@
         <v>225</v>
       </c>
       <c r="M147" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N147" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -7784,25 +7802,22 @@
         <v>164</v>
       </c>
       <c r="E148">
-        <v>87.1429</v>
-      </c>
-      <c r="F148">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>1262.93</v>
+        <v>1196.96</v>
       </c>
       <c r="H148" t="s">
         <v>212</v>
       </c>
       <c r="I148" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J148" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K148" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L148" t="s">
         <v>229</v>
@@ -7812,6 +7827,9 @@
       </c>
       <c r="N148" t="s">
         <v>235</v>
+      </c>
+      <c r="O148" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -7834,7 +7852,7 @@
         <v>1693</v>
       </c>
       <c r="G149">
-        <v>1999</v>
+        <v>1474</v>
       </c>
       <c r="H149" t="s">
         <v>212</v>
@@ -7843,7 +7861,7 @@
         <v>216</v>
       </c>
       <c r="J149" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K149" t="s">
         <v>223</v>
@@ -7852,13 +7870,13 @@
         <v>225</v>
       </c>
       <c r="M149" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O149" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -7875,19 +7893,19 @@
         <v>166</v>
       </c>
       <c r="E150">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F150">
-        <v>1733</v>
+        <v>1</v>
       </c>
       <c r="G150">
-        <v>905.98</v>
+        <v>1099</v>
       </c>
       <c r="H150" t="s">
         <v>212</v>
       </c>
       <c r="I150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J150" t="s">
         <v>219</v>
@@ -7903,6 +7921,9 @@
       </c>
       <c r="N150" t="s">
         <v>235</v>
+      </c>
+      <c r="O150" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:15">
@@ -7919,34 +7940,34 @@
         <v>167</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F151">
+        <v>1730</v>
       </c>
       <c r="G151">
-        <v>1899</v>
+        <v>919.6900000000001</v>
       </c>
       <c r="H151" t="s">
         <v>212</v>
       </c>
       <c r="I151" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J151" t="s">
         <v>220</v>
       </c>
       <c r="K151" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L151" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M151" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N151" t="s">
-        <v>237</v>
-      </c>
-      <c r="O151" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:15">
@@ -7963,34 +7984,34 @@
         <v>168</v>
       </c>
       <c r="E152">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F152">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G152">
-        <v>799</v>
+        <v>1492.56</v>
       </c>
       <c r="H152" t="s">
         <v>212</v>
       </c>
       <c r="I152" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J152" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K152" t="s">
         <v>223</v>
       </c>
       <c r="L152" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M152" t="s">
         <v>232</v>
       </c>
       <c r="N152" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -8010,13 +8031,13 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>1199</v>
+        <v>734.33</v>
       </c>
       <c r="H153" t="s">
         <v>212</v>
       </c>
       <c r="I153" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J153" t="s">
         <v>222</v>
@@ -8025,16 +8046,13 @@
         <v>223</v>
       </c>
       <c r="L153" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M153" t="s">
         <v>234</v>
       </c>
       <c r="N153" t="s">
-        <v>237</v>
-      </c>
-      <c r="O153" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="154" spans="1:15">
@@ -8051,34 +8069,34 @@
         <v>170</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
       </c>
       <c r="G154">
-        <v>1620.9</v>
+        <v>799</v>
       </c>
       <c r="H154" t="s">
         <v>212</v>
       </c>
       <c r="I154" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J154" t="s">
         <v>220</v>
       </c>
       <c r="K154" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L154" t="s">
         <v>225</v>
       </c>
       <c r="M154" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N154" t="s">
-        <v>239</v>
-      </c>
-      <c r="O154" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -8095,19 +8113,22 @@
         <v>171</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F155">
+        <v>1693</v>
       </c>
       <c r="G155">
-        <v>1679</v>
+        <v>1999</v>
       </c>
       <c r="H155" t="s">
         <v>212</v>
       </c>
       <c r="I155" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J155" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K155" t="s">
         <v>223</v>
@@ -8116,13 +8137,13 @@
         <v>225</v>
       </c>
       <c r="M155" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N155" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O155" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:15">
@@ -8139,37 +8160,34 @@
         <v>172</v>
       </c>
       <c r="E156">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F156">
-        <v>1693</v>
+        <v>425</v>
       </c>
       <c r="G156">
-        <v>1474</v>
+        <v>620.97</v>
       </c>
       <c r="H156" t="s">
         <v>212</v>
       </c>
       <c r="I156" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J156" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K156" t="s">
         <v>223</v>
       </c>
       <c r="L156" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M156" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N156" t="s">
-        <v>238</v>
-      </c>
-      <c r="O156" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:15">
@@ -8186,37 +8204,34 @@
         <v>173</v>
       </c>
       <c r="E157">
-        <v>92</v>
-      </c>
-      <c r="F157">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>590.6900000000001</v>
+        <v>1620.9</v>
       </c>
       <c r="H157" t="s">
         <v>212</v>
       </c>
       <c r="I157" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J157" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K157" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L157" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M157" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N157" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:15">
@@ -8233,31 +8248,37 @@
         <v>174</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F158">
+        <v>589</v>
       </c>
       <c r="G158">
-        <v>763.6900000000001</v>
+        <v>590.6900000000001</v>
       </c>
       <c r="H158" t="s">
         <v>212</v>
       </c>
       <c r="I158" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J158" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K158" t="s">
         <v>223</v>
       </c>
       <c r="L158" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M158" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N158" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O158" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:15">
@@ -8274,34 +8295,34 @@
         <v>175</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F159">
+        <v>576</v>
       </c>
       <c r="G159">
-        <v>1599</v>
+        <v>673.63</v>
       </c>
       <c r="H159" t="s">
         <v>212</v>
       </c>
       <c r="I159" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J159" t="s">
         <v>220</v>
       </c>
       <c r="K159" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L159" t="s">
         <v>229</v>
       </c>
       <c r="M159" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N159" t="s">
-        <v>237</v>
-      </c>
-      <c r="O159" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:15">
@@ -8318,34 +8339,37 @@
         <v>176</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F160">
+        <v>582</v>
       </c>
       <c r="G160">
-        <v>1349.25</v>
+        <v>570.16</v>
       </c>
       <c r="H160" t="s">
         <v>212</v>
       </c>
       <c r="I160" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J160" t="s">
         <v>220</v>
       </c>
       <c r="K160" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L160" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M160" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N160" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:15">
@@ -8362,19 +8386,16 @@
         <v>177</v>
       </c>
       <c r="E161">
-        <v>92</v>
-      </c>
-      <c r="F161">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>547.33</v>
+        <v>1499</v>
       </c>
       <c r="H161" t="s">
         <v>212</v>
       </c>
       <c r="I161" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J161" t="s">
         <v>219</v>
@@ -8383,13 +8404,16 @@
         <v>223</v>
       </c>
       <c r="L161" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N161" t="s">
         <v>235</v>
+      </c>
+      <c r="O161" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:15">
@@ -8406,34 +8430,34 @@
         <v>178</v>
       </c>
       <c r="E162">
-        <v>92</v>
-      </c>
-      <c r="F162">
-        <v>1729</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>942.22</v>
+        <v>1048.67</v>
       </c>
       <c r="H162" t="s">
         <v>212</v>
       </c>
       <c r="I162" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J162" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K162" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L162" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M162" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N162" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+      <c r="O162" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:15">
@@ -8450,34 +8474,37 @@
         <v>179</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F163">
+        <v>1692</v>
       </c>
       <c r="G163">
-        <v>1173.21</v>
+        <v>2599</v>
       </c>
       <c r="H163" t="s">
         <v>212</v>
       </c>
       <c r="I163" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J163" t="s">
         <v>220</v>
       </c>
       <c r="K163" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L163" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M163" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N163" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O163" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -8494,13 +8521,10 @@
         <v>180</v>
       </c>
       <c r="E164">
-        <v>90.77719999999999</v>
-      </c>
-      <c r="F164">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>534.96</v>
+        <v>763.6900000000001</v>
       </c>
       <c r="H164" t="s">
         <v>212</v>
@@ -8509,19 +8533,19 @@
         <v>213</v>
       </c>
       <c r="J164" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K164" t="s">
         <v>223</v>
       </c>
       <c r="L164" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N164" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -8538,19 +8562,16 @@
         <v>181</v>
       </c>
       <c r="E165">
-        <v>92</v>
-      </c>
-      <c r="F165">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1083.47</v>
+        <v>1424</v>
       </c>
       <c r="H165" t="s">
         <v>212</v>
       </c>
       <c r="I165" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J165" t="s">
         <v>221</v>
@@ -8559,13 +8580,16 @@
         <v>223</v>
       </c>
       <c r="L165" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M165" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N165" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O165" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:15">
@@ -8582,22 +8606,22 @@
         <v>182</v>
       </c>
       <c r="E166">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F166">
-        <v>1757</v>
+        <v>4</v>
       </c>
       <c r="G166">
-        <v>653.62</v>
+        <v>899</v>
       </c>
       <c r="H166" t="s">
         <v>212</v>
       </c>
       <c r="I166" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J166" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K166" t="s">
         <v>223</v>
@@ -8609,7 +8633,7 @@
         <v>232</v>
       </c>
       <c r="N166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:15">
@@ -8626,13 +8650,13 @@
         <v>183</v>
       </c>
       <c r="E167">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>1729</v>
       </c>
       <c r="G167">
-        <v>1479</v>
+        <v>825.83</v>
       </c>
       <c r="H167" t="s">
         <v>212</v>
@@ -8641,22 +8665,19 @@
         <v>213</v>
       </c>
       <c r="J167" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K167" t="s">
         <v>223</v>
       </c>
       <c r="L167" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M167" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N167" t="s">
-        <v>235</v>
-      </c>
-      <c r="O167" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -8673,19 +8694,16 @@
         <v>184</v>
       </c>
       <c r="E168">
-        <v>94</v>
-      </c>
-      <c r="F168">
-        <v>1693</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>1479</v>
+        <v>806.78</v>
       </c>
       <c r="H168" t="s">
         <v>212</v>
       </c>
       <c r="I168" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J168" t="s">
         <v>220</v>
@@ -8694,16 +8712,13 @@
         <v>223</v>
       </c>
       <c r="L168" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M168" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N168" t="s">
-        <v>238</v>
-      </c>
-      <c r="O168" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:15">
@@ -8720,34 +8735,37 @@
         <v>185</v>
       </c>
       <c r="E169">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F169">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G169">
-        <v>866.4400000000001</v>
+        <v>1699</v>
       </c>
       <c r="H169" t="s">
         <v>212</v>
       </c>
       <c r="I169" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J169" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K169" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L169" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M169" t="s">
         <v>234</v>
       </c>
       <c r="N169" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O169" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:15">
@@ -8764,34 +8782,34 @@
         <v>186</v>
       </c>
       <c r="E170">
-        <v>92</v>
-      </c>
-      <c r="F170">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>673.63</v>
+        <v>2299</v>
       </c>
       <c r="H170" t="s">
         <v>212</v>
       </c>
       <c r="I170" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J170" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K170" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L170" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M170" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N170" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O170" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:15">
@@ -8811,19 +8829,19 @@
         <v>92</v>
       </c>
       <c r="F171">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="G171">
-        <v>709.96</v>
+        <v>599</v>
       </c>
       <c r="H171" t="s">
         <v>212</v>
       </c>
       <c r="I171" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J171" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K171" t="s">
         <v>223</v>
@@ -8835,7 +8853,7 @@
         <v>234</v>
       </c>
       <c r="N171" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -8852,34 +8870,34 @@
         <v>188</v>
       </c>
       <c r="E172">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G172">
-        <v>920.75</v>
+        <v>920.78</v>
       </c>
       <c r="H172" t="s">
         <v>212</v>
       </c>
       <c r="I172" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J172" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K172" t="s">
         <v>223</v>
       </c>
       <c r="L172" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M172" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N172" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:15">
@@ -8899,19 +8917,19 @@
         <v>92</v>
       </c>
       <c r="F173">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="G173">
-        <v>825.83</v>
+        <v>709.96</v>
       </c>
       <c r="H173" t="s">
         <v>212</v>
       </c>
       <c r="I173" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J173" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K173" t="s">
         <v>223</v>
@@ -8920,10 +8938,10 @@
         <v>224</v>
       </c>
       <c r="M173" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N173" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="174" spans="1:15">
@@ -8940,13 +8958,10 @@
         <v>190</v>
       </c>
       <c r="E174">
-        <v>92</v>
-      </c>
-      <c r="F174">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>919.6900000000001</v>
+        <v>905.98</v>
       </c>
       <c r="H174" t="s">
         <v>212</v>
@@ -8955,19 +8970,19 @@
         <v>213</v>
       </c>
       <c r="J174" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K174" t="s">
         <v>223</v>
       </c>
       <c r="L174" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M174" t="s">
         <v>234</v>
       </c>
       <c r="N174" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:15">
@@ -8984,34 +8999,34 @@
         <v>191</v>
       </c>
       <c r="E175">
-        <v>90.28570000000001</v>
-      </c>
-      <c r="F175">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>599.99</v>
+        <v>1173.21</v>
       </c>
       <c r="H175" t="s">
         <v>212</v>
       </c>
       <c r="I175" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J175" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K175" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L175" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M175" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N175" t="s">
         <v>235</v>
+      </c>
+      <c r="O175" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:15">
@@ -9028,37 +9043,34 @@
         <v>192</v>
       </c>
       <c r="E176">
-        <v>40</v>
-      </c>
-      <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1399</v>
+        <v>999</v>
       </c>
       <c r="H176" t="s">
         <v>212</v>
       </c>
       <c r="I176" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J176" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K176" t="s">
         <v>223</v>
       </c>
       <c r="L176" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M176" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N176" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O176" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="177" spans="1:15">
@@ -9075,19 +9087,16 @@
         <v>193</v>
       </c>
       <c r="E177">
-        <v>94</v>
-      </c>
-      <c r="F177">
-        <v>1693</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>1999</v>
+        <v>780.6</v>
       </c>
       <c r="H177" t="s">
         <v>212</v>
       </c>
       <c r="I177" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J177" t="s">
         <v>220</v>
@@ -9096,16 +9105,13 @@
         <v>223</v>
       </c>
       <c r="L177" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M177" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N177" t="s">
-        <v>238</v>
-      </c>
-      <c r="O177" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:15">
@@ -9122,25 +9128,22 @@
         <v>194</v>
       </c>
       <c r="E178">
-        <v>92</v>
-      </c>
-      <c r="F178">
-        <v>1736</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>599</v>
+        <v>1899</v>
       </c>
       <c r="H178" t="s">
         <v>212</v>
       </c>
       <c r="I178" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J178" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K178" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L178" t="s">
         <v>224</v>
@@ -9150,6 +9153,9 @@
       </c>
       <c r="N178" t="s">
         <v>235</v>
+      </c>
+      <c r="O178" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="179" spans="1:15">
@@ -9166,37 +9172,34 @@
         <v>195</v>
       </c>
       <c r="E179">
-        <v>92</v>
-      </c>
-      <c r="F179">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>924.17</v>
+        <v>2099</v>
       </c>
       <c r="H179" t="s">
         <v>212</v>
       </c>
       <c r="I179" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J179" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K179" t="s">
         <v>223</v>
       </c>
       <c r="L179" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M179" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N179" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O179" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="180" spans="1:15">
@@ -9213,16 +9216,19 @@
         <v>196</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F180">
+        <v>1740</v>
       </c>
       <c r="G180">
-        <v>2290</v>
+        <v>828</v>
       </c>
       <c r="H180" t="s">
         <v>212</v>
       </c>
       <c r="I180" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J180" t="s">
         <v>220</v>
@@ -9231,16 +9237,13 @@
         <v>223</v>
       </c>
       <c r="L180" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M180" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N180" t="s">
-        <v>238</v>
-      </c>
-      <c r="O180" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:15">
@@ -9257,13 +9260,10 @@
         <v>197</v>
       </c>
       <c r="E181">
-        <v>92</v>
-      </c>
-      <c r="F181">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>620.97</v>
+        <v>986.5700000000001</v>
       </c>
       <c r="H181" t="s">
         <v>212</v>
@@ -9272,19 +9272,22 @@
         <v>214</v>
       </c>
       <c r="J181" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K181" t="s">
         <v>223</v>
       </c>
       <c r="L181" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M181" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N181" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="O181" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -9301,34 +9304,37 @@
         <v>198</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>986.5700000000001</v>
+        <v>1479</v>
       </c>
       <c r="H182" t="s">
         <v>212</v>
       </c>
       <c r="I182" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J182" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K182" t="s">
         <v>223</v>
       </c>
       <c r="L182" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M182" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N182" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O182" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:15">
@@ -9345,37 +9351,34 @@
         <v>199</v>
       </c>
       <c r="E183">
-        <v>100</v>
-      </c>
-      <c r="F183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>2899</v>
+        <v>1349.25</v>
       </c>
       <c r="H183" t="s">
         <v>212</v>
       </c>
       <c r="I183" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J183" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K183" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L183" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M183" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N183" t="s">
         <v>235</v>
       </c>
       <c r="O183" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:15">
@@ -9392,10 +9395,13 @@
         <v>200</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F184">
+        <v>35</v>
       </c>
       <c r="G184">
-        <v>489</v>
+        <v>599.99</v>
       </c>
       <c r="H184" t="s">
         <v>212</v>
@@ -9404,19 +9410,19 @@
         <v>213</v>
       </c>
       <c r="J184" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K184" t="s">
         <v>223</v>
       </c>
       <c r="L184" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M184" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N184" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="185" spans="1:15">
@@ -9433,37 +9439,34 @@
         <v>201</v>
       </c>
       <c r="E185">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G185">
-        <v>1099</v>
+        <v>722.34</v>
       </c>
       <c r="H185" t="s">
         <v>212</v>
       </c>
       <c r="I185" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J185" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K185" t="s">
         <v>223</v>
       </c>
       <c r="L185" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M185" t="s">
         <v>232</v>
       </c>
       <c r="N185" t="s">
-        <v>237</v>
-      </c>
-      <c r="O185" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="186" spans="1:15">
@@ -9483,31 +9486,31 @@
         <v>92</v>
       </c>
       <c r="F186">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="G186">
-        <v>1399</v>
+        <v>539.71</v>
       </c>
       <c r="H186" t="s">
         <v>212</v>
       </c>
       <c r="I186" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J186" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K186" t="s">
         <v>223</v>
       </c>
       <c r="L186" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M186" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N186" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="187" spans="1:15">
@@ -9524,37 +9527,34 @@
         <v>203</v>
       </c>
       <c r="E187">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>1731</v>
       </c>
       <c r="G187">
-        <v>1267.82</v>
+        <v>761.13</v>
       </c>
       <c r="H187" t="s">
         <v>212</v>
       </c>
       <c r="I187" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J187" t="s">
         <v>220</v>
       </c>
       <c r="K187" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L187" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M187" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N187" t="s">
-        <v>237</v>
-      </c>
-      <c r="O187" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
     </row>
     <row r="188" spans="1:15">
@@ -9571,37 +9571,37 @@
         <v>204</v>
       </c>
       <c r="E188">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>1693</v>
       </c>
       <c r="G188">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="H188" t="s">
         <v>212</v>
       </c>
       <c r="I188" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J188" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K188" t="s">
         <v>223</v>
       </c>
       <c r="L188" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M188" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N188" t="s">
         <v>237</v>
       </c>
       <c r="O188" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" spans="1:15">
@@ -9621,13 +9621,13 @@
         <v>0</v>
       </c>
       <c r="G189">
-        <v>1199</v>
+        <v>2899</v>
       </c>
       <c r="H189" t="s">
         <v>212</v>
       </c>
       <c r="I189" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J189" t="s">
         <v>220</v>
@@ -9636,16 +9636,16 @@
         <v>223</v>
       </c>
       <c r="L189" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M189" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N189" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O189" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:15">
@@ -9662,34 +9662,34 @@
         <v>206</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F190">
+        <v>1757</v>
       </c>
       <c r="G190">
-        <v>1380.6</v>
+        <v>653.62</v>
       </c>
       <c r="H190" t="s">
         <v>212</v>
       </c>
       <c r="I190" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J190" t="s">
         <v>220</v>
       </c>
       <c r="K190" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L190" t="s">
         <v>229</v>
       </c>
       <c r="M190" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N190" t="s">
-        <v>237</v>
-      </c>
-      <c r="O190" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
     </row>
     <row r="191" spans="1:15">
@@ -9706,34 +9706,31 @@
         <v>207</v>
       </c>
       <c r="E191">
-        <v>97.5</v>
-      </c>
-      <c r="F191">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>920.78</v>
+        <v>899</v>
       </c>
       <c r="H191" t="s">
         <v>212</v>
       </c>
       <c r="I191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J191" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K191" t="s">
         <v>223</v>
       </c>
       <c r="L191" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M191" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N191" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" spans="1:15">
@@ -9753,31 +9750,31 @@
         <v>92</v>
       </c>
       <c r="F192">
-        <v>1730</v>
+        <v>1739</v>
       </c>
       <c r="G192">
-        <v>711.42</v>
+        <v>1399</v>
       </c>
       <c r="H192" t="s">
         <v>212</v>
       </c>
       <c r="I192" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J192" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K192" t="s">
         <v>223</v>
       </c>
       <c r="L192" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M192" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N192" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="193" spans="1:15">
@@ -9794,22 +9791,22 @@
         <v>209</v>
       </c>
       <c r="E193">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F193">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="G193">
-        <v>1492.56</v>
+        <v>899.99</v>
       </c>
       <c r="H193" t="s">
         <v>212</v>
       </c>
       <c r="I193" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J193" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K193" t="s">
         <v>223</v>
@@ -9821,7 +9818,10 @@
         <v>234</v>
       </c>
       <c r="N193" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O193" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="194" spans="1:15">
@@ -9838,22 +9838,22 @@
         <v>210</v>
       </c>
       <c r="E194">
-        <v>66.66670000000001</v>
+        <v>92</v>
       </c>
       <c r="F194">
-        <v>3</v>
+        <v>425</v>
       </c>
       <c r="G194">
-        <v>1799</v>
+        <v>1083.47</v>
       </c>
       <c r="H194" t="s">
         <v>212</v>
       </c>
       <c r="I194" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J194" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K194" t="s">
         <v>223</v>
@@ -9862,13 +9862,10 @@
         <v>229</v>
       </c>
       <c r="M194" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N194" t="s">
-        <v>235</v>
-      </c>
-      <c r="O194" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195" spans="1:15">
@@ -9885,31 +9882,34 @@
         <v>211</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F195">
+        <v>1740</v>
       </c>
       <c r="G195">
-        <v>780.6</v>
+        <v>1231.62</v>
       </c>
       <c r="H195" t="s">
         <v>212</v>
       </c>
       <c r="I195" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J195" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K195" t="s">
         <v>223</v>
       </c>
       <c r="L195" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M195" t="s">
         <v>232</v>
       </c>
       <c r="N195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Mattresses.xlsx
+++ b/Mattresses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="282">
   <si>
     <t>Shop</t>
   </si>
@@ -70,663 +70,666 @@
     <t>Sealy</t>
   </si>
   <si>
+    <t>https://www.homedepot.com/p/Sealy-8in-Firm-Memory-Foam-Tight-Top-Twin-Mattress-F03-00132-TW0/310170811</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-12-in-Tight-Top-Ultra-Firm-Memory-Foam-Queen-Mattress-Set-42768051/315094878</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-15-in-Tight-Top-Ultra-Plush-Memory-Foam-King-Mattress-Set-42769461/315094907</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305551/302760274</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Twin-XL-Mattress-52332531/313980716</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-King-Plush-Euro-Top-Mattress-with-9-in-High-Profile-Foundation-Set-42305761/302760323</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Cushion-Firm-Memory-Form-Queen-Mattress-52767651/315028756</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-King-14-in-Plush-Mattress-with-5-in-Low-Profile-Foundation-42504961/304774512</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-12-in-King-Spring-Memory-Foam-Hybrid-Mattress-Medium-Firm-F03-00122-KG0/308549982</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-King-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42305961/303097747</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Firm-Memory-Foam-Queen-Mattress-52769051/315028718</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12-in-Queen-Plush-Faux-Euro-Top-Mattress-with-9-in-High-Profile-Foundation-42304551/302760035</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Queen-Mattress-52332551/313980721</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-King-Plush-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42306961/303097317</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Queen-Mattress-with-9-in-High-Profile-Foundation-42332551/315190902</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12-in-Queen-Plush-Faux-Euro-Top-Mattress-with-5-in-Low-Profile-Foundation-42304651/302760055</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Full-Cushion-Firm-Euro-Pillowtop-Mattress-with-5-in-Low-Profile-Foundation-Set-42306040/303097708</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Plush-Tight-Top-Mattress-Set-with-5-in-High-Profile-Foundation-42305051/302760161</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-10in-Plush-Hybrid-Tight-Top-Full-Mattress-52306540/302590635</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Cushion-Firm-Memory-Foam-Queen-Mattress-52768651/315028772</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52769251/315028729</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-10-in-Queen-Firm-Mattress-with-9-in-High-Profile-Foundation-42338751/303090550</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42306751/303097432</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-King-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42306361/303097586</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42768451/315095033</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-15-in-Tight-Top-Ultra-Plush-Memory-Foam-Queen-Mattress-52769451/315028767</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Plush-Faux-Euro-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42305451/302760243</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12-in-Queen-Plush-Mattress-with-9-in-High-Profile-Foundation-Set-42339151/305239371</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12in-Firm-Memory-Foam-Tight-Top-Queen-Mattress-52339151/302611335</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Twin-XL-Plush-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305331/302760217</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-California-King-Plush-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42306562/303097493</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-5-in-Low-Profile-Foundation-42306851/303097367</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-King-14-in-Firm-Mattress-with-5-in-Low-Profile-Foundation-42504361/304775403</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-Full-12-in-Mattress-with-5-in-Low-Profile-Foundation-42503940/304775619</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-King-14-in-Firm-Mattress-with-9-in-High-Profile-Foundation-42504261/304774765</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Full-Plush-Faux-Euro-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42305840/302760344</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9-in-King-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42304061/302759840</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-California-King-Mattress-with-9-in-High-Profile-Foundation-42332562/315190898</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-California-King-Plush-Euro-Pillowtop-Mattress-Set-with-5-in-Low-Profile-Foundation-42306262/303097618</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Cal-King-Mattress-Set-42768262/315094900</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Full-Mattress-Set-42769240/315094896</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Full-Mattress-52768240/315028722</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304751/302760093</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13in-Firm-Hybrid-Tight-Top-Queen-Mattress-52306351/302588834</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-12-in-Tight-Top-Ultra-Firm-Memory-Foam-Queen-Mattress-52768051/315028735</t>
+  </si>
+  <si>
     <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Plush-Memory-Foam-Queen-Mattress-52768851/315028708</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Plush-Faux-Euro-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42305451/302760243</t>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-14in-Plush-Hybrid-Tight-Top-King-Mattress-52504861/304774618</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-12in-Medium-Hybrid-Tight-Top-Full-Mattress-52503840/304775529</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Plush-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42306651/303097470</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Plush-Hybrid-Euro-Top-King-Mattress-52305761/302608964</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9in-Firm-Hybrid-Tight-Top-Full-Mattress-52303940/302621911</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-King-14-in-Plush-Mattress-with-9-in-High-Profile-Foundation-42504861/304774391</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Plush-Euro-Pillowtop-Mattress-with-9-in-High-Profile-Foundation-Set-42306151/303097676</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-11-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304351/302759954</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-5-in-High-Profile-Foundation-42305251/302760200</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-11-in-Full-Cushion-Firm-Tight-Top-Mattress-with-5-in-Low-Profile-Foundation-Set-42304440/302759991</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-California-King-Mattress-52332562/313980720</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-12in-Medium-Memory-Foam-Tight-Top-Queen-Mattress-F03-00109-QN0/308547328</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9-in-King-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-43203961/302693266</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Firm-Memory-Foam-Queen-Mattress-Set-42769051/315094892</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-11-in-Queen-Cushion-Firm-Mattress-with-9-in-High-Profile-Foundation-Set-42338951/305241879</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Premium-15in-Firm-Hybrid-Tight-Top-King-Mattress-52307561/302610944</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12-in-Queen-Plush-Mattress-with-5-in-Low-Profile-Foundation-Set-42339251/305239153</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12in-Plush-Hybrid-Euro-Top-Full-Mattress-52304540/302608428</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-King-Mattress-52332561/313980722</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Full-Mattress-with-9-in-High-Profile-Foundation-42332540/315190890</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Plush-Hybrid-Euro-Top-King-Mattress-52305761/302608964</t>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Euro-Top-Mattress-with-5-in-Low-Profile-Foundation-Set-42305651/302760414</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Full-Mattress-52332540/313980717</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-10-in-Queen-Memory-Foam-Mattress-Medium-F03-00133-QN0/310170919</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-11in-Plush-Hybrid-Pillow-Top-Queen-Mattress-52306151/302622049</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-King-12-in-Mattress-with-9-in-High-Profile-Foundation-42503861/304775748</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42769251/315094897</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42767851/315094879</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42304851/302760115</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-10in-Medium-Hybrid-Tight-Top-Queen-Mattress-F03-00135-QN0/310170954</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Plush-Memory-Foam-Queen-Mattress-Set-42768851/315095042</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52768451/315028753</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Medium-Hybrid-Pillow-Top-Queen-Mattress-52306751/302609599</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13in-Firm-Hybrid-Euro-Top-Queen-Mattress-52305151/302608716</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-11-in-Queen-Cushion-Firm-Mattress-with-5-in-Low-Profile-Foundation-Set-42339051/305241742</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52767851/315028700</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-14in-Firm-Hybrid-Tight-Top-Queen-Mattress-52504251/304775459</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-13in-Medium-Hybrid-Tight-Top-Queen-Mattress-52304351/302586408</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Plush-Hybrid-Pillow-Top-Queen-Mattress-52306951/302610120</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42306451/303097529</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-15-in-Tight-Top-Ultra-Plush-Memory-Foam-King-Mattress-Set-42769461/315094907</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9in-Firm-Hybrid-Tight-Top-Full-Mattress-52303940/302621911</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Cushion-Firm-Memory-Foam-Queen-Mattress-52768651/315028772</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Firm-Memory-Foam-Queen-Mattress-Set-42769051/315094892</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13in-Firm-Hybrid-Euro-Top-Queen-Mattress-52305151/302608716</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Firm-Memory-Foam-Queen-Mattress-52769051/315028718</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-King-14-in-Plush-Mattress-with-5-in-Low-Profile-Foundation-42504961/304774512</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-King-14-in-Firm-Mattress-with-5-in-Low-Profile-Foundation-42504361/304775403</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-10in-Medium-Hybrid-Tight-Top-Queen-Mattress-F03-00135-QN0/310170954</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-10-in-Queen-Memory-Foam-Mattress-Medium-F03-00133-QN0/310170919</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Twin-XL-Plush-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305331/302760217</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Plush-Tight-Top-Mattress-Set-with-5-in-High-Profile-Foundation-42305051/302760161</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42769251/315094897</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9-in-King-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-43203961/302693266</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-12in-Medium-Hybrid-Tight-Top-Full-Mattress-52503840/304775529</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Queen-Mattress-52332551/313980721</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-King-Plush-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42306961/303097317</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-California-King-Mattress-with-9-in-High-Profile-Foundation-42332562/315190898</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52768451/315028753</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Plush-Memory-Foam-Queen-Mattress-Set-42768851/315095042</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-13in-Medium-Hybrid-Tight-Top-Queen-Mattress-52304351/302586408</t>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Medium-Hybrid-Pillow-Top-Queen-Mattress-52305951/302621999</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Plush-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304951/302760134</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-King-Mattress-with-9-in-High-Profile-Foundation-42332561/315190905</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Sealy-Response-Performance-12in-Medium-Hybrid-Euro-Top-Queen-Mattress-52305551/302608900</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-14in-Plush-Hybrid-Tight-Top-King-Mattress-52504861/304774618</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Cushion-Firm-Memory-Form-Queen-Mattress-52767651/315028756</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12-in-Queen-Plush-Faux-Euro-Top-Mattress-with-9-in-High-Profile-Foundation-42304551/302760035</t>
+    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12in-Plush-Hybrid-Euro-Top-Queen-Mattress-52305351/302608781</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Twin-XL-Mattress-with-9-in-High-Profile-Foundation-42332531/315190889</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12in-Medium-Memory-Foam-Tight-Top-Full-Mattress-52338940/302607613</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-10-in-California-King-Firm-Mattress-with-5-in-Low-Profile-Foundation-42338862/303087132</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Cushion-Firm-Memory-Foam-King-Mattress-Set-42768661/315095044</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Full-Mattress-Set-42767640/315095032</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Twin-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305130/302760175</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Plush-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304951/302760134</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12in-Medium-Memory-Foam-Tight-Top-Full-Mattress-52338940/302607613</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-8in-Firm-Memory-Foam-Tight-Top-Twin-Mattress-F03-00132-TW0/310170811</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-9-in-King-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42304061/302759840</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42767851/315094879</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-14in-Firm-Hybrid-Tight-Top-Queen-Mattress-52504251/304775459</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12in-Plush-Hybrid-Euro-Top-Full-Mattress-52304540/302608428</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Medium-Hybrid-Pillow-Top-Queen-Mattress-52306751/302609599</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52769251/315028729</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12-in-Queen-Plush-Mattress-with-9-in-High-Profile-Foundation-Set-42339151/305239371</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42306751/303097432</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Plush-Hybrid-Pillow-Top-Queen-Mattress-52306951/302610120</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12in-Firm-Memory-Foam-Tight-Top-Queen-Mattress-52339151/302611335</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-King-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42306361/303097586</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-King-Plush-Euro-Top-Mattress-with-9-in-High-Profile-Foundation-Set-42305761/302760323</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Full-Mattress-52332540/313980717</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-10-in-California-King-Firm-Mattress-with-5-in-Low-Profile-Foundation-42338862/303087132</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-California-King-Plush-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42306562/303097493</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-12-in-Tight-Top-Ultra-Firm-Memory-Foam-Queen-Mattress-Set-42768051/315094878</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-Twin-XL-Mattress-52332531/313980716</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-12-in-Tight-Top-Ultra-Firm-Memory-Foam-Queen-Mattress-52768051/315028735</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Full-Cushion-Firm-Euro-Pillowtop-Mattress-with-5-in-Low-Profile-Foundation-Set-42306040/303097708</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-California-King-Plush-Euro-Pillowtop-Mattress-Set-with-5-in-Low-Profile-Foundation-42306262/303097618</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-11-in-Queen-Cushion-Firm-Mattress-with-5-in-Low-Profile-Foundation-Set-42339051/305241742</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13in-Firm-Hybrid-Tight-Top-Queen-Mattress-52306351/302588834</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-King-Mattress-52332561/313980722</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-10-in-Queen-Firm-Mattress-with-9-in-High-Profile-Foundation-42338751/303090550</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Cal-King-Mattress-Set-42768262/315094900</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-11-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304351/302759954</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-12-in-Queen-Plush-Faux-Euro-Top-Mattress-with-5-in-Low-Profile-Foundation-42304651/302760055</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Essentials-11-in-Full-Cushion-Firm-Tight-Top-Mattress-with-5-in-Low-Profile-Foundation-Set-42304440/302759991</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-15-in-Tight-Top-Ultra-Plush-Memory-Foam-Queen-Mattress-52769451/315028767</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Full-Mattress-Set-42767640/315095032</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Performance-Copper-ll-King-14-in-Firm-Mattress-with-9-in-High-Profile-Foundation-42504261/304774765</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-11-in-Queen-Cushion-Firm-Mattress-with-9-in-High-Profile-Foundation-Set-42338951/305241879</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Twin-XL-Mattress-with-9-in-High-Profile-Foundation-42332531/315190889</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Plush-Euro-Pillowtop-Mattress-with-5-in-Low-Profile-Foundation-Set-42307051/303097095</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Euro-Top-Mattress-with-5-in-Low-Profile-Foundation-Set-42305651/302760414</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Full-Plush-Faux-Euro-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42305840/302760344</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-Queen-Mattress-with-9-in-High-Profile-Foundation-42332551/315190902</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Cushion-King-Mattress-with-9-in-High-Profile-Foundation-42332561/315190905</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42304851/302760115</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Plush-Euro-Pillowtop-Mattress-with-9-in-High-Profile-Foundation-Set-42306151/303097676</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14in-Medium-Hybrid-Pillow-Top-Queen-Mattress-52305951/302621999</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Plush-Tight-Top-Mattress-Set-with-5-in-Low-Profile-Foundation-42306651/303097470</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-Set-42768451/315095033</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Testimony-II-13-in-Tight-Top-Plush-Memory-Foam-Queen-Mattress-52767851/315028700</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-10in-Plush-Hybrid-Tight-Top-Full-Mattress-52306540/302590635</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-14-in-Euro-Pillow-Top-Cushion-Firm-Memory-Foam-King-Mattress-Set-42768661/315095044</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-King-12-in-Mattress-with-9-in-High-Profile-Foundation-42503861/304775748</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42305551/302760274</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-II-13-in-Tight-Top-Cushion-Firm-Memory-Foam-Full-Mattress-52768240/315028722</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Essentials-Trust-ll-Full-12-in-Mattress-with-5-in-Low-Profile-Foundation-42503940/304775619</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Posturepedic-Plus-Victorious-II-14-in-Tight-Top-Plush-Memory-Foam-Full-Mattress-Set-42769240/315094896</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-12in-Medium-Memory-Foam-Tight-Top-Queen-Mattress-F03-00109-QN0/308547328</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-11in-Plush-Hybrid-Pillow-Top-Queen-Mattress-52306151/302622049</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12in-Plush-Hybrid-Euro-Top-Queen-Mattress-52305351/302608781</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-13-in-Queen-Cushion-Firm-Faux-Euro-Top-Mattress-Set-with-5-in-High-Profile-Foundation-42305251/302760200</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Kelburn-II-13-in-Hybrid-Firm-Memory-Foam-Tight-Top-Cushion-California-King-Mattress-52332562/313980720</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Hybrid-Premium-Silver-Chill-King-14-in-Plush-Mattress-with-9-in-High-Profile-Foundation-42504861/304774391</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-12-in-Queen-Cushion-Firm-Tight-Top-Mattress-Set-with-9-in-High-Profile-Foundation-42304751/302760093</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-Queen-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-5-in-Low-Profile-Foundation-42306851/303097367</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Premium-15in-Firm-Hybrid-Tight-Top-King-Mattress-52307561/302610944</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-12-in-King-Spring-Memory-Foam-Hybrid-Mattress-Medium-Firm-F03-00122-KG0/308549982</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Conform-Essentials-12-in-Queen-Plush-Mattress-with-5-in-Low-Profile-Foundation-Set-42339251/305239153</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Sealy-Response-Performance-14-in-King-Cushion-Firm-Euro-Pillowtop-Mattress-Set-with-9-in-High-Profile-Foundation-42305961/303097747</t>
+    <t>Model #F03-00132-TW0</t>
+  </si>
+  <si>
+    <t>Model #42768051</t>
+  </si>
+  <si>
+    <t>Model #42769461</t>
+  </si>
+  <si>
+    <t>Model #42305551</t>
+  </si>
+  <si>
+    <t>Model #52332531</t>
+  </si>
+  <si>
+    <t>Model #42305761</t>
+  </si>
+  <si>
+    <t>Model #52767651</t>
+  </si>
+  <si>
+    <t>Model #42504961</t>
+  </si>
+  <si>
+    <t>Model #F03-00122-KG0</t>
+  </si>
+  <si>
+    <t>Model #42305961</t>
+  </si>
+  <si>
+    <t>Model #52769051</t>
+  </si>
+  <si>
+    <t>Model #42304551</t>
+  </si>
+  <si>
+    <t>Model #52332551</t>
+  </si>
+  <si>
+    <t>Model #42306961</t>
+  </si>
+  <si>
+    <t>Model #42332551</t>
+  </si>
+  <si>
+    <t>Model #42304651</t>
+  </si>
+  <si>
+    <t>Model #42306040</t>
+  </si>
+  <si>
+    <t>Model #42305051</t>
+  </si>
+  <si>
+    <t>Model #52306540</t>
+  </si>
+  <si>
+    <t>Model #52768651</t>
+  </si>
+  <si>
+    <t>Model #52769251</t>
+  </si>
+  <si>
+    <t>Model #42338751</t>
+  </si>
+  <si>
+    <t>Model #42306751</t>
+  </si>
+  <si>
+    <t>Model #42306361</t>
+  </si>
+  <si>
+    <t>Model #42768451</t>
+  </si>
+  <si>
+    <t>Model #52769451</t>
+  </si>
+  <si>
+    <t>Model #42305451</t>
+  </si>
+  <si>
+    <t>Model #42339151</t>
+  </si>
+  <si>
+    <t>Model #52339151</t>
+  </si>
+  <si>
+    <t>Model #42305331</t>
+  </si>
+  <si>
+    <t>Model #42306562</t>
+  </si>
+  <si>
+    <t>Model #42306851</t>
+  </si>
+  <si>
+    <t>Model #42504361</t>
+  </si>
+  <si>
+    <t>Model #42503940</t>
+  </si>
+  <si>
+    <t>Model #42504261</t>
+  </si>
+  <si>
+    <t>Model #42305840</t>
+  </si>
+  <si>
+    <t>Model #42304061</t>
+  </si>
+  <si>
+    <t>Model #42332562</t>
+  </si>
+  <si>
+    <t>Model #42306262</t>
+  </si>
+  <si>
+    <t>Model #42768262</t>
+  </si>
+  <si>
+    <t>Model #42769240</t>
+  </si>
+  <si>
+    <t>Model #52768240</t>
+  </si>
+  <si>
+    <t>Model #42304751</t>
+  </si>
+  <si>
+    <t>Model #52306351</t>
+  </si>
+  <si>
+    <t>Model #52768051</t>
   </si>
   <si>
     <t>Model #52768851</t>
   </si>
   <si>
-    <t>Model #42305451</t>
+    <t>Model #52504861</t>
+  </si>
+  <si>
+    <t>Model #52503840</t>
+  </si>
+  <si>
+    <t>Model #42306651</t>
+  </si>
+  <si>
+    <t>Model #52305761</t>
+  </si>
+  <si>
+    <t>Model #52303940</t>
+  </si>
+  <si>
+    <t>Model #42504861</t>
+  </si>
+  <si>
+    <t>Model #42306151</t>
+  </si>
+  <si>
+    <t>Model #42304351</t>
+  </si>
+  <si>
+    <t>Model #42305251</t>
+  </si>
+  <si>
+    <t>Model #42304440</t>
+  </si>
+  <si>
+    <t>Model #52332562</t>
+  </si>
+  <si>
+    <t>Model #F03-00109-QN0</t>
+  </si>
+  <si>
+    <t>Model # 43203961</t>
+  </si>
+  <si>
+    <t>Model #42769051</t>
+  </si>
+  <si>
+    <t>Model #42338951</t>
+  </si>
+  <si>
+    <t>Model #52307561</t>
+  </si>
+  <si>
+    <t>Model #42339251</t>
+  </si>
+  <si>
+    <t>Model #52304540</t>
+  </si>
+  <si>
+    <t>Model #52332561</t>
   </si>
   <si>
     <t>Model #42332540</t>
   </si>
   <si>
-    <t>Model #52305761</t>
+    <t>Model #42305651</t>
+  </si>
+  <si>
+    <t>Model #52332540</t>
+  </si>
+  <si>
+    <t>Model #F03-00133-QN0</t>
+  </si>
+  <si>
+    <t>Model #52306151</t>
+  </si>
+  <si>
+    <t>Model #42503861</t>
+  </si>
+  <si>
+    <t>Model #42769251</t>
+  </si>
+  <si>
+    <t>Model #42767851</t>
+  </si>
+  <si>
+    <t>Model #42304851</t>
+  </si>
+  <si>
+    <t>Model #F03-00135-QN0</t>
+  </si>
+  <si>
+    <t>Model #42768851</t>
+  </si>
+  <si>
+    <t>Model #52768451</t>
+  </si>
+  <si>
+    <t>Model #52306751</t>
+  </si>
+  <si>
+    <t>Model #52305151</t>
+  </si>
+  <si>
+    <t>Model #42339051</t>
+  </si>
+  <si>
+    <t>Model #52767851</t>
+  </si>
+  <si>
+    <t>Model #52504251</t>
+  </si>
+  <si>
+    <t>Model #52304351</t>
+  </si>
+  <si>
+    <t>Model #52306951</t>
   </si>
   <si>
     <t>Model #42306451</t>
   </si>
   <si>
-    <t>Model #42769461</t>
-  </si>
-  <si>
-    <t>Model #52303940</t>
-  </si>
-  <si>
-    <t>Model #52768651</t>
-  </si>
-  <si>
-    <t>Model #42769051</t>
-  </si>
-  <si>
-    <t>Model #52305151</t>
-  </si>
-  <si>
-    <t>Model #52769051</t>
-  </si>
-  <si>
-    <t>Model #42504961</t>
-  </si>
-  <si>
-    <t>Model #42504361</t>
-  </si>
-  <si>
-    <t>Model #F03-00135-QN0</t>
-  </si>
-  <si>
-    <t>Model #F03-00133-QN0</t>
-  </si>
-  <si>
-    <t>Model #42305331</t>
-  </si>
-  <si>
-    <t>Model #42305051</t>
-  </si>
-  <si>
-    <t>Model #42769251</t>
+    <t>Model #52305951</t>
+  </si>
+  <si>
+    <t>Model #42304951</t>
+  </si>
+  <si>
+    <t>Model #42332561</t>
+  </si>
+  <si>
+    <t>Model #52305551</t>
+  </si>
+  <si>
+    <t>Model #52305351</t>
+  </si>
+  <si>
+    <t>Model #42332531</t>
+  </si>
+  <si>
+    <t>Model #52338940</t>
+  </si>
+  <si>
+    <t>Model #42338862</t>
+  </si>
+  <si>
+    <t>Model #42768661</t>
+  </si>
+  <si>
+    <t>Model #42767640</t>
+  </si>
+  <si>
+    <t>Model #42305130</t>
+  </si>
+  <si>
+    <t>Model #42307051</t>
   </si>
   <si>
     <t>Model #43203961</t>
   </si>
   <si>
-    <t>Model #52503840</t>
-  </si>
-  <si>
-    <t>Model #52332551</t>
-  </si>
-  <si>
-    <t>Model #42306961</t>
-  </si>
-  <si>
-    <t>Model #42332562</t>
-  </si>
-  <si>
-    <t>Model #52768451</t>
-  </si>
-  <si>
-    <t>Model #42768851</t>
-  </si>
-  <si>
-    <t>Model #52304351</t>
-  </si>
-  <si>
-    <t>Model #52305551</t>
-  </si>
-  <si>
-    <t>Model #52504861</t>
-  </si>
-  <si>
-    <t>Model #52767651</t>
-  </si>
-  <si>
-    <t>Model #42304551</t>
-  </si>
-  <si>
-    <t>Model #42305130</t>
-  </si>
-  <si>
-    <t>Model #42304951</t>
-  </si>
-  <si>
-    <t>Model #52338940</t>
-  </si>
-  <si>
-    <t>Model #F03-00132-TW0</t>
-  </si>
-  <si>
-    <t>Model #42304061</t>
-  </si>
-  <si>
-    <t>Model #42767851</t>
-  </si>
-  <si>
-    <t>Model #52504251</t>
-  </si>
-  <si>
-    <t>Model #52304540</t>
-  </si>
-  <si>
-    <t>Model #52306751</t>
-  </si>
-  <si>
-    <t>Model #52769251</t>
-  </si>
-  <si>
-    <t>Model #42339151</t>
-  </si>
-  <si>
-    <t>Model #42306751</t>
-  </si>
-  <si>
-    <t>Model #52306951</t>
-  </si>
-  <si>
-    <t>Model #52339151</t>
-  </si>
-  <si>
-    <t>Model #42306361</t>
-  </si>
-  <si>
-    <t>Model #42305761</t>
-  </si>
-  <si>
-    <t>Model #52332540</t>
-  </si>
-  <si>
-    <t>Model #42338862</t>
-  </si>
-  <si>
-    <t>Model #42306562</t>
-  </si>
-  <si>
-    <t>Model #42768051</t>
-  </si>
-  <si>
-    <t>Model #52332531</t>
-  </si>
-  <si>
-    <t>Model #52768051</t>
-  </si>
-  <si>
-    <t>Model #42306040</t>
-  </si>
-  <si>
-    <t>Model #42306262</t>
-  </si>
-  <si>
-    <t>Model #42339051</t>
-  </si>
-  <si>
-    <t>Model #52306351</t>
-  </si>
-  <si>
-    <t>Model #52332561</t>
-  </si>
-  <si>
-    <t>Model #42338751</t>
-  </si>
-  <si>
-    <t>Model #42768262</t>
-  </si>
-  <si>
-    <t>Model #42304351</t>
-  </si>
-  <si>
-    <t>Model #42304651</t>
-  </si>
-  <si>
-    <t>Model #42304440</t>
-  </si>
-  <si>
-    <t>Model #52769451</t>
-  </si>
-  <si>
-    <t>Model #42767640</t>
-  </si>
-  <si>
-    <t>Model #42504261</t>
-  </si>
-  <si>
-    <t>Model #42338951</t>
-  </si>
-  <si>
-    <t>Model #42332531</t>
-  </si>
-  <si>
-    <t>Model #42307051</t>
-  </si>
-  <si>
-    <t>Model #42305651</t>
-  </si>
-  <si>
-    <t>Model #42305840</t>
-  </si>
-  <si>
-    <t>Model #42332551</t>
-  </si>
-  <si>
-    <t>Model #42332561</t>
-  </si>
-  <si>
-    <t>Model #42304851</t>
-  </si>
-  <si>
-    <t>Model #42306151</t>
-  </si>
-  <si>
-    <t>Model #52305951</t>
-  </si>
-  <si>
-    <t>Model #42306651</t>
-  </si>
-  <si>
-    <t>Model #42768451</t>
-  </si>
-  <si>
-    <t>Model #52767851</t>
-  </si>
-  <si>
-    <t>Model #52306540</t>
-  </si>
-  <si>
-    <t>Model #42768661</t>
-  </si>
-  <si>
-    <t>Model #42503861</t>
-  </si>
-  <si>
-    <t>Model #42305551</t>
-  </si>
-  <si>
-    <t>Model #52768240</t>
-  </si>
-  <si>
-    <t>Model #42503940</t>
-  </si>
-  <si>
-    <t>Model #42769240</t>
-  </si>
-  <si>
-    <t>Model #F03-00109-QN0</t>
-  </si>
-  <si>
-    <t>Model #52306151</t>
-  </si>
-  <si>
-    <t>Model #52305351</t>
-  </si>
-  <si>
-    <t>Model #42305251</t>
-  </si>
-  <si>
-    <t>Model #52332562</t>
-  </si>
-  <si>
-    <t>Model #42504861</t>
-  </si>
-  <si>
-    <t>Model #42304751</t>
-  </si>
-  <si>
-    <t>Model #42306851</t>
-  </si>
-  <si>
-    <t>Model #52307561</t>
-  </si>
-  <si>
-    <t>Model #F03-00122-KG0</t>
-  </si>
-  <si>
-    <t>Model #42339251</t>
-  </si>
-  <si>
-    <t>Model #42305961</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Twin</t>
+  </si>
+  <si>
     <t>Queen</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Twin XL</t>
+  </si>
+  <si>
     <t>Full</t>
   </si>
   <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Twin XL</t>
-  </si>
-  <si>
     <t>California King</t>
   </si>
   <si>
-    <t>Twin</t>
+    <t>Memory Foam</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
   </si>
   <si>
     <t>Foam</t>
   </si>
   <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Memory Foam</t>
-  </si>
-  <si>
     <t>Innerspring</t>
   </si>
   <si>
     <t>Box Spring Not Required</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>10</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
+    <t>Tight Top</t>
+  </si>
+  <si>
+    <t>Euro Top</t>
+  </si>
+  <si>
     <t>Pillow Top</t>
   </si>
   <si>
-    <t>Euro Top</t>
-  </si>
-  <si>
-    <t>Tight Top</t>
+    <t>No Additional Features</t>
   </si>
   <si>
     <t>Cooling,Edge Support,Handles,Hypoallergenic,Motion Isolation</t>
   </si>
   <si>
-    <t>No Additional Features</t>
-  </si>
-  <si>
     <t>Cooling,Edge Support,Motion Isolation</t>
   </si>
   <si>
@@ -736,127 +739,127 @@
     <t>Edge Support,Handles,Hypoallergenic,Motion Isolation</t>
   </si>
   <si>
+    <t>150 lb</t>
+  </si>
+  <si>
+    <t>210 lb</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>72 lb</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>103 lb</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
     <t>98 lb</t>
   </si>
   <si>
+    <t>101 lb</t>
+  </si>
+  <si>
+    <t>154 lb</t>
+  </si>
+  <si>
+    <t>109 lb</t>
+  </si>
+  <si>
+    <t>139 lb</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>220 lb</t>
+  </si>
+  <si>
+    <t>192 lb</t>
+  </si>
+  <si>
+    <t>119 lb</t>
+  </si>
+  <si>
+    <t>74 lb</t>
+  </si>
+  <si>
+    <t>85 lb</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>120 lb</t>
+  </si>
+  <si>
+    <t>168 lb</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>141 lb</t>
   </si>
   <si>
-    <t>210 lb</t>
-  </si>
-  <si>
-    <t>168 lb</t>
-  </si>
-  <si>
-    <t>103 lb</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>79</t>
+  </si>
+  <si>
+    <t>114</t>
   </si>
   <si>
     <t>166 lb</t>
   </si>
   <si>
+    <t>137 lb</t>
+  </si>
+  <si>
+    <t>163 lb</t>
+  </si>
+  <si>
+    <t>89 lb</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>196 lb</t>
+  </si>
+  <si>
+    <t>95 lb</t>
+  </si>
+  <si>
+    <t>69 lb</t>
+  </si>
+  <si>
     <t>133</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>220 lb</t>
-  </si>
-  <si>
-    <t>89 lb</t>
-  </si>
-  <si>
-    <t>163 lb</t>
-  </si>
-  <si>
-    <t>72 lb</t>
-  </si>
-  <si>
-    <t>69 lb</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>137 lb</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>101 lb</t>
-  </si>
-  <si>
-    <t>139 lb</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>150 lb</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>85 lb</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>192 lb</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>109 lb</t>
-  </si>
-  <si>
-    <t>95 lb</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>154 lb</t>
-  </si>
-  <si>
-    <t>196 lb</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>74 lb</t>
-  </si>
-  <si>
-    <t>119 lb</t>
-  </si>
-  <si>
-    <t>120 lb</t>
-  </si>
-  <si>
-    <t>105</t>
   </si>
 </sst>
 </file>
@@ -1294,34 +1297,34 @@
         <v>115</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>1199</v>
+        <v>299.99</v>
       </c>
       <c r="H2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1338,34 +1341,34 @@
         <v>116</v>
       </c>
       <c r="E3">
-        <v>92</v>
-      </c>
-      <c r="F3">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>711.42</v>
+        <v>1196.96</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J3" t="s">
         <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M3" t="s">
         <v>233</v>
       </c>
       <c r="N3" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1385,31 +1388,31 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1679</v>
+        <v>2199</v>
       </c>
       <c r="H4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N4" t="s">
         <v>237</v>
       </c>
       <c r="O4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1429,28 +1432,28 @@
         <v>92</v>
       </c>
       <c r="F5">
-        <v>1729</v>
+        <v>1740</v>
       </c>
       <c r="G5">
-        <v>942.22</v>
+        <v>828</v>
       </c>
       <c r="H5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
         <v>215</v>
       </c>
       <c r="J5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>236</v>
@@ -1470,34 +1473,37 @@
         <v>119</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1693</v>
       </c>
       <c r="G6">
-        <v>911.89</v>
+        <v>1474</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J6" t="s">
         <v>220</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N6" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1514,22 +1520,25 @@
         <v>120</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>2199</v>
+        <v>1130.17</v>
       </c>
       <c r="H7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J7" t="s">
         <v>221</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L7" t="s">
         <v>226</v>
@@ -1538,10 +1547,7 @@
         <v>234</v>
       </c>
       <c r="N7" t="s">
-        <v>235</v>
-      </c>
-      <c r="O7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1558,34 +1564,34 @@
         <v>121</v>
       </c>
       <c r="E8">
-        <v>92</v>
-      </c>
-      <c r="F8">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>311.94</v>
+        <v>999</v>
       </c>
       <c r="H8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N8" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="O8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1602,34 +1608,37 @@
         <v>122</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1199</v>
+        <v>2899</v>
       </c>
       <c r="H9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1646,34 +1655,37 @@
         <v>123</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F10">
+        <v>130</v>
       </c>
       <c r="G10">
-        <v>1599</v>
+        <v>899.99</v>
       </c>
       <c r="H10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J10" t="s">
         <v>221</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1693,28 +1705,28 @@
         <v>92</v>
       </c>
       <c r="F11">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="G11">
-        <v>547.33</v>
+        <v>1231.62</v>
       </c>
       <c r="H11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N11" t="s">
         <v>236</v>
@@ -1743,28 +1755,28 @@
         <v>1399</v>
       </c>
       <c r="H12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L12" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1781,37 +1793,34 @@
         <v>126</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>581</v>
       </c>
       <c r="G13">
-        <v>2899</v>
+        <v>672.76</v>
       </c>
       <c r="H13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I13" t="s">
         <v>215</v>
       </c>
       <c r="J13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M13" t="s">
         <v>234</v>
       </c>
       <c r="N13" t="s">
         <v>236</v>
-      </c>
-      <c r="O13" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1828,13 +1837,16 @@
         <v>127</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F14">
+        <v>1694</v>
       </c>
       <c r="G14">
-        <v>2599</v>
+        <v>1499</v>
       </c>
       <c r="H14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I14" t="s">
         <v>215</v>
@@ -1843,19 +1855,19 @@
         <v>220</v>
       </c>
       <c r="K14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L14" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1872,31 +1884,31 @@
         <v>128</v>
       </c>
       <c r="E15">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F15">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>599.99</v>
+        <v>1262.93</v>
       </c>
       <c r="H15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N15" t="s">
         <v>236</v>
@@ -1916,34 +1928,37 @@
         <v>129</v>
       </c>
       <c r="E16">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>593.99</v>
+        <v>1699</v>
       </c>
       <c r="H16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K16" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
         <v>228</v>
       </c>
       <c r="M16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N16" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1963,28 +1978,28 @@
         <v>92</v>
       </c>
       <c r="F17">
-        <v>1739</v>
+        <v>576</v>
       </c>
       <c r="G17">
-        <v>659.8</v>
+        <v>673.63</v>
       </c>
       <c r="H17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N17" t="s">
         <v>236</v>
@@ -2007,28 +2022,28 @@
         <v>92</v>
       </c>
       <c r="F18">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="G18">
-        <v>618.85</v>
+        <v>919.6900000000001</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I18" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s">
         <v>229</v>
       </c>
       <c r="M18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N18" t="s">
         <v>236</v>
@@ -2048,34 +2063,34 @@
         <v>132</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>1732</v>
       </c>
       <c r="G19">
-        <v>1380.6</v>
+        <v>618.85</v>
       </c>
       <c r="H19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
         <v>221</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N19" t="s">
-        <v>235</v>
-      </c>
-      <c r="O19" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2092,37 +2107,31 @@
         <v>133</v>
       </c>
       <c r="E20">
-        <v>92</v>
-      </c>
-      <c r="F20">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>805.97</v>
+        <v>780.6</v>
       </c>
       <c r="H20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N20" t="s">
         <v>236</v>
-      </c>
-      <c r="O20" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2142,31 +2151,31 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1279</v>
+        <v>1199</v>
       </c>
       <c r="H21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s">
         <v>229</v>
       </c>
       <c r="M21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2183,37 +2192,37 @@
         <v>135</v>
       </c>
       <c r="E22">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>1694</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1499</v>
+        <v>1399</v>
       </c>
       <c r="H22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s">
         <v>237</v>
       </c>
       <c r="O22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2230,16 +2239,16 @@
         <v>136</v>
       </c>
       <c r="E23">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>425</v>
       </c>
       <c r="G23">
-        <v>1262.93</v>
+        <v>620.97</v>
       </c>
       <c r="H23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I23" t="s">
         <v>215</v>
@@ -2248,13 +2257,13 @@
         <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s">
         <v>236</v>
@@ -2274,34 +2283,34 @@
         <v>137</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>2290</v>
+        <v>920.75</v>
       </c>
       <c r="H24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
         <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
-      </c>
-      <c r="O24" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2318,37 +2327,34 @@
         <v>138</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>1099</v>
+        <v>1313.41</v>
       </c>
       <c r="H25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
-      </c>
-      <c r="O25" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2365,37 +2371,34 @@
         <v>139</v>
       </c>
       <c r="E26">
-        <v>20</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1267.82</v>
+        <v>1173.21</v>
       </c>
       <c r="H26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2412,34 +2415,34 @@
         <v>140</v>
       </c>
       <c r="E27">
-        <v>92</v>
-      </c>
-      <c r="F27">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>486.57</v>
+        <v>1499</v>
       </c>
       <c r="H27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O27" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2459,28 +2462,28 @@
         <v>92</v>
       </c>
       <c r="F28">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G28">
-        <v>664.13</v>
+        <v>711.42</v>
       </c>
       <c r="H28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s">
         <v>236</v>
@@ -2500,37 +2503,37 @@
         <v>142</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="G29">
-        <v>2599</v>
+        <v>924.17</v>
       </c>
       <c r="H29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I29" t="s">
         <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N29" t="s">
         <v>236</v>
       </c>
       <c r="O29" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2547,34 +2550,34 @@
         <v>143</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>424</v>
       </c>
       <c r="G30">
-        <v>999</v>
+        <v>662.86</v>
       </c>
       <c r="H30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
-      </c>
-      <c r="O30" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2594,28 +2597,28 @@
         <v>92</v>
       </c>
       <c r="F31">
-        <v>581</v>
+        <v>1739</v>
       </c>
       <c r="G31">
-        <v>672.76</v>
+        <v>659.8</v>
       </c>
       <c r="H31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N31" t="s">
         <v>236</v>
@@ -2635,37 +2638,34 @@
         <v>145</v>
       </c>
       <c r="E32">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F32">
-        <v>1743</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>596.36</v>
+        <v>1316.83</v>
       </c>
       <c r="H32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s">
         <v>233</v>
       </c>
       <c r="N32" t="s">
         <v>236</v>
-      </c>
-      <c r="O32" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2682,31 +2682,28 @@
         <v>146</v>
       </c>
       <c r="E33">
-        <v>92</v>
-      </c>
-      <c r="F33">
-        <v>1739</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>628.3</v>
+        <v>899</v>
       </c>
       <c r="H33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s">
         <v>229</v>
       </c>
       <c r="M33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s">
         <v>236</v>
@@ -2729,28 +2726,31 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>489</v>
+        <v>2599</v>
       </c>
       <c r="H34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J34" t="s">
         <v>221</v>
       </c>
       <c r="K34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s">
         <v>229</v>
       </c>
       <c r="M34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N34" t="s">
         <v>236</v>
+      </c>
+      <c r="O34" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2767,16 +2767,16 @@
         <v>148</v>
       </c>
       <c r="E35">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>299.99</v>
+        <v>1479</v>
       </c>
       <c r="H35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I35" t="s">
         <v>218</v>
@@ -2785,16 +2785,19 @@
         <v>221</v>
       </c>
       <c r="K35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N35" t="s">
         <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2811,37 +2814,37 @@
         <v>149</v>
       </c>
       <c r="E36">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F36">
-        <v>579</v>
+        <v>1692</v>
       </c>
       <c r="G36">
-        <v>813.4299999999999</v>
+        <v>2599</v>
       </c>
       <c r="H36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N36" t="s">
         <v>236</v>
       </c>
       <c r="O36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2861,31 +2864,28 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1199</v>
+        <v>806.78</v>
       </c>
       <c r="H37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I37" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J37" t="s">
         <v>221</v>
       </c>
       <c r="K37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M37" t="s">
         <v>234</v>
       </c>
       <c r="N37" t="s">
-        <v>235</v>
-      </c>
-      <c r="O37" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2902,37 +2902,37 @@
         <v>151</v>
       </c>
       <c r="E38">
-        <v>66.666</v>
+        <v>92</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>579</v>
       </c>
       <c r="G38">
-        <v>1799</v>
+        <v>813.4299999999999</v>
       </c>
       <c r="H38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L38" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N38" t="s">
         <v>236</v>
       </c>
       <c r="O38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2949,34 +2949,34 @@
         <v>152</v>
       </c>
       <c r="E39">
-        <v>92</v>
-      </c>
-      <c r="F39">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>534.96</v>
+        <v>2290</v>
       </c>
       <c r="H39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I39" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J39" t="s">
         <v>220</v>
       </c>
       <c r="K39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M39" t="s">
         <v>233</v>
       </c>
       <c r="N39" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O39" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2993,31 +2993,31 @@
         <v>153</v>
       </c>
       <c r="E40">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F40">
-        <v>1733</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>905.98</v>
+        <v>1492.56</v>
       </c>
       <c r="H40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I40" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L40" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N40" t="s">
         <v>236</v>
@@ -3037,34 +3037,31 @@
         <v>154</v>
       </c>
       <c r="E41">
-        <v>100</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1399</v>
+        <v>1620.9</v>
       </c>
       <c r="H41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K41" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L41" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N41" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O41" t="s">
         <v>259</v>
@@ -3084,34 +3081,31 @@
         <v>155</v>
       </c>
       <c r="E42">
-        <v>92</v>
-      </c>
-      <c r="F42">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>924.17</v>
+        <v>1349.25</v>
       </c>
       <c r="H42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I42" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K42" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L42" t="s">
         <v>229</v>
       </c>
       <c r="M42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O42" t="s">
         <v>260</v>
@@ -3131,34 +3125,34 @@
         <v>156</v>
       </c>
       <c r="E43">
-        <v>100</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>920.75</v>
+        <v>986.5700000000001</v>
       </c>
       <c r="H43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I43" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L43" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N43" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="O43" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3175,31 +3169,31 @@
         <v>157</v>
       </c>
       <c r="E44">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F44">
-        <v>22</v>
+        <v>1757</v>
       </c>
       <c r="G44">
-        <v>866.4400000000001</v>
+        <v>653.62</v>
       </c>
       <c r="H44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I44" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N44" t="s">
         <v>236</v>
@@ -3219,31 +3213,31 @@
         <v>158</v>
       </c>
       <c r="E45">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F45">
-        <v>424</v>
+        <v>10</v>
       </c>
       <c r="G45">
-        <v>662.86</v>
+        <v>799</v>
       </c>
       <c r="H45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J45" t="s">
         <v>221</v>
       </c>
       <c r="K45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N45" t="s">
         <v>236</v>
@@ -3266,31 +3260,34 @@
         <v>100</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>1313.41</v>
+        <v>1099</v>
       </c>
       <c r="H46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I46" t="s">
         <v>215</v>
       </c>
       <c r="J46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N46" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O46" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3307,34 +3304,34 @@
         <v>160</v>
       </c>
       <c r="E47">
-        <v>100</v>
-      </c>
-      <c r="F47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1130.17</v>
+        <v>1199</v>
       </c>
       <c r="H47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I47" t="s">
         <v>215</v>
       </c>
       <c r="J47" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s">
         <v>229</v>
       </c>
       <c r="M47" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N47" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O47" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3351,37 +3348,37 @@
         <v>161</v>
       </c>
       <c r="E48">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F48">
-        <v>1693</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>1479</v>
+        <v>2599</v>
       </c>
       <c r="H48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J48" t="s">
         <v>221</v>
       </c>
       <c r="K48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O48" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3398,34 +3395,34 @@
         <v>162</v>
       </c>
       <c r="E49">
-        <v>92</v>
-      </c>
-      <c r="F49">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>928.13</v>
+        <v>1279</v>
       </c>
       <c r="H49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J49" t="s">
         <v>221</v>
       </c>
       <c r="K49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N49" t="s">
         <v>236</v>
+      </c>
+      <c r="O49" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3442,31 +3439,28 @@
         <v>163</v>
       </c>
       <c r="E50">
-        <v>100</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1316.83</v>
+        <v>905.98</v>
       </c>
       <c r="H50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L50" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N50" t="s">
         <v>236</v>
@@ -3486,22 +3480,25 @@
         <v>164</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F51">
+        <v>1729</v>
       </c>
       <c r="G51">
-        <v>1196.96</v>
+        <v>942.22</v>
       </c>
       <c r="H51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J51" t="s">
         <v>221</v>
       </c>
       <c r="K51" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L51" t="s">
         <v>229</v>
@@ -3510,10 +3507,7 @@
         <v>234</v>
       </c>
       <c r="N51" t="s">
-        <v>235</v>
-      </c>
-      <c r="O51" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3530,37 +3524,34 @@
         <v>165</v>
       </c>
       <c r="E52">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F52">
-        <v>1693</v>
+        <v>582</v>
       </c>
       <c r="G52">
-        <v>1474</v>
+        <v>311.94</v>
       </c>
       <c r="H52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I52" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J52" t="s">
         <v>221</v>
       </c>
       <c r="K52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N52" t="s">
-        <v>237</v>
-      </c>
-      <c r="O52" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3577,37 +3568,34 @@
         <v>166</v>
       </c>
       <c r="E53">
-        <v>100</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1099</v>
+        <v>2899</v>
       </c>
       <c r="H53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I53" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J53" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L53" t="s">
         <v>229</v>
       </c>
       <c r="M53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O53" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3624,31 +3612,31 @@
         <v>167</v>
       </c>
       <c r="E54">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F54">
-        <v>1730</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>919.6900000000001</v>
+        <v>920.78</v>
       </c>
       <c r="H54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M54" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N54" t="s">
         <v>236</v>
@@ -3668,34 +3656,37 @@
         <v>168</v>
       </c>
       <c r="E55">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>589</v>
       </c>
       <c r="G55">
-        <v>1492.56</v>
+        <v>590.6900000000001</v>
       </c>
       <c r="H55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L55" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N55" t="s">
         <v>236</v>
+      </c>
+      <c r="O55" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3712,25 +3703,28 @@
         <v>169</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F56">
+        <v>1731</v>
       </c>
       <c r="G56">
-        <v>734.33</v>
+        <v>761.13</v>
       </c>
       <c r="H56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I56" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L56" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M56" t="s">
         <v>234</v>
@@ -3753,34 +3747,37 @@
         <v>170</v>
       </c>
       <c r="E57">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>582</v>
       </c>
       <c r="G57">
-        <v>799</v>
+        <v>570.16</v>
       </c>
       <c r="H57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I57" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L57" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N57" t="s">
         <v>236</v>
+      </c>
+      <c r="O57" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3806,25 +3803,25 @@
         <v>1999</v>
       </c>
       <c r="H58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I58" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O58" t="s">
         <v>265</v>
@@ -3844,31 +3841,31 @@
         <v>172</v>
       </c>
       <c r="E59">
-        <v>92</v>
+        <v>90.28570000000001</v>
       </c>
       <c r="F59">
-        <v>425</v>
+        <v>35</v>
       </c>
       <c r="G59">
-        <v>620.97</v>
+        <v>599.99</v>
       </c>
       <c r="H59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I59" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N59" t="s">
         <v>236</v>
@@ -3888,34 +3885,13 @@
         <v>173</v>
       </c>
       <c r="E60">
+        <v>90.526</v>
+      </c>
+      <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60">
-        <v>1620.9</v>
-      </c>
       <c r="H60" t="s">
-        <v>212</v>
-      </c>
-      <c r="I60" t="s">
-        <v>217</v>
-      </c>
-      <c r="J60" t="s">
-        <v>221</v>
-      </c>
-      <c r="K60" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" t="s">
-        <v>225</v>
-      </c>
-      <c r="M60" t="s">
-        <v>234</v>
-      </c>
-      <c r="N60" t="s">
-        <v>239</v>
-      </c>
-      <c r="O60" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3932,37 +3908,34 @@
         <v>174</v>
       </c>
       <c r="E61">
-        <v>92</v>
-      </c>
-      <c r="F61">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>590.6900000000001</v>
+        <v>1599</v>
       </c>
       <c r="H61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I61" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J61" t="s">
         <v>220</v>
       </c>
       <c r="K61" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3979,28 +3952,25 @@
         <v>175</v>
       </c>
       <c r="E62">
-        <v>92</v>
-      </c>
-      <c r="F62">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>673.63</v>
+        <v>763.6900000000001</v>
       </c>
       <c r="H62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J62" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L62" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M62" t="s">
         <v>233</v>
@@ -4026,34 +3996,31 @@
         <v>92</v>
       </c>
       <c r="F63">
-        <v>582</v>
+        <v>1739</v>
       </c>
       <c r="G63">
-        <v>570.16</v>
+        <v>1399</v>
       </c>
       <c r="H63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L63" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N63" t="s">
         <v>236</v>
-      </c>
-      <c r="O63" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4070,34 +4037,34 @@
         <v>177</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F64">
+        <v>425</v>
       </c>
       <c r="G64">
-        <v>1499</v>
+        <v>1083.47</v>
       </c>
       <c r="H64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I64" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L64" t="s">
         <v>226</v>
       </c>
       <c r="M64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N64" t="s">
-        <v>235</v>
-      </c>
-      <c r="O64" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4114,34 +4081,34 @@
         <v>178</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F65">
+        <v>579</v>
       </c>
       <c r="G65">
-        <v>1048.67</v>
+        <v>534.96</v>
       </c>
       <c r="H65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I65" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J65" t="s">
         <v>221</v>
       </c>
       <c r="K65" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M65" t="s">
         <v>234</v>
       </c>
       <c r="N65" t="s">
-        <v>238</v>
-      </c>
-      <c r="O65" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4161,34 +4128,34 @@
         <v>94</v>
       </c>
       <c r="F66">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="G66">
-        <v>2599</v>
+        <v>1999</v>
       </c>
       <c r="H66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J66" t="s">
         <v>220</v>
       </c>
       <c r="K66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L66" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O66" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4208,28 +4175,31 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>763.6900000000001</v>
+        <v>1679</v>
       </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I67" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L67" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N67" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O67" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4246,34 +4216,34 @@
         <v>181</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F68">
+        <v>1729</v>
       </c>
       <c r="G68">
-        <v>1424</v>
+        <v>825.83</v>
       </c>
       <c r="H68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J68" t="s">
         <v>221</v>
       </c>
       <c r="K68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M68" t="s">
         <v>234</v>
       </c>
       <c r="N68" t="s">
-        <v>237</v>
-      </c>
-      <c r="O68" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4290,34 +4260,37 @@
         <v>182</v>
       </c>
       <c r="E69">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>1693</v>
       </c>
       <c r="G69">
-        <v>899</v>
+        <v>1479</v>
       </c>
       <c r="H69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I69" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J69" t="s">
         <v>220</v>
       </c>
       <c r="K69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L69" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N69" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O69" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4334,28 +4307,28 @@
         <v>183</v>
       </c>
       <c r="E70">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F70">
-        <v>1729</v>
+        <v>8</v>
       </c>
       <c r="G70">
-        <v>825.83</v>
+        <v>593.99</v>
       </c>
       <c r="H70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I70" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J70" t="s">
         <v>220</v>
       </c>
       <c r="K70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M70" t="s">
         <v>233</v>
@@ -4378,28 +4351,31 @@
         <v>184</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>806.78</v>
+        <v>722.34</v>
       </c>
       <c r="H71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L71" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N71" t="s">
         <v>236</v>
@@ -4419,37 +4395,34 @@
         <v>185</v>
       </c>
       <c r="E72">
-        <v>80</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1699</v>
+        <v>2099</v>
       </c>
       <c r="H72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I72" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J72" t="s">
         <v>221</v>
       </c>
       <c r="K72" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O72" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4469,31 +4442,31 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>2299</v>
+        <v>1380.6</v>
       </c>
       <c r="H73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I73" t="s">
         <v>215</v>
       </c>
       <c r="J73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K73" t="s">
         <v>10</v>
       </c>
       <c r="L73" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N73" t="s">
         <v>237</v>
       </c>
       <c r="O73" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4510,34 +4483,34 @@
         <v>187</v>
       </c>
       <c r="E74">
-        <v>92</v>
-      </c>
-      <c r="F74">
-        <v>1736</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>599</v>
+        <v>1199</v>
       </c>
       <c r="H74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J74" t="s">
         <v>220</v>
       </c>
       <c r="K74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N74" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O74" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4554,31 +4527,31 @@
         <v>188</v>
       </c>
       <c r="E75">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>1736</v>
       </c>
       <c r="G75">
-        <v>920.78</v>
+        <v>599</v>
       </c>
       <c r="H75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L75" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N75" t="s">
         <v>236</v>
@@ -4598,31 +4571,31 @@
         <v>189</v>
       </c>
       <c r="E76">
-        <v>92</v>
+        <v>82.2222</v>
       </c>
       <c r="F76">
-        <v>1734</v>
+        <v>27</v>
       </c>
       <c r="G76">
-        <v>709.96</v>
+        <v>599.99</v>
       </c>
       <c r="H76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I76" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L76" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N76" t="s">
         <v>236</v>
@@ -4642,31 +4615,37 @@
         <v>190</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>905.98</v>
+        <v>1267.82</v>
       </c>
       <c r="H77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I77" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J77" t="s">
         <v>220</v>
       </c>
       <c r="K77" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L77" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N77" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O77" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4683,31 +4662,34 @@
         <v>191</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>1173.21</v>
+        <v>1099</v>
       </c>
       <c r="H78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K78" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L78" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O78" t="s">
         <v>274</v>
@@ -4727,34 +4709,34 @@
         <v>192</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F79">
+        <v>1733</v>
       </c>
       <c r="G79">
-        <v>999</v>
+        <v>905.98</v>
       </c>
       <c r="H79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I79" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J79" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K79" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L79" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N79" t="s">
-        <v>235</v>
-      </c>
-      <c r="O79" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4771,22 +4753,25 @@
         <v>193</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F80">
+        <v>1737</v>
       </c>
       <c r="G80">
-        <v>780.6</v>
+        <v>547.33</v>
       </c>
       <c r="H80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L80" t="s">
         <v>228</v>
@@ -4815,31 +4800,28 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1899</v>
+        <v>734.33</v>
       </c>
       <c r="H81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I81" t="s">
         <v>215</v>
       </c>
       <c r="J81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K81" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N81" t="s">
-        <v>235</v>
-      </c>
-      <c r="O81" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4859,31 +4841,31 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>2099</v>
+        <v>999</v>
       </c>
       <c r="H82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I82" t="s">
         <v>215</v>
       </c>
       <c r="J82" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4900,25 +4882,25 @@
         <v>196</v>
       </c>
       <c r="E83">
-        <v>92</v>
+        <v>66.666</v>
       </c>
       <c r="F83">
-        <v>1740</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>828</v>
+        <v>1799</v>
       </c>
       <c r="H83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I83" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L83" t="s">
         <v>229</v>
@@ -4928,6 +4910,9 @@
       </c>
       <c r="N83" t="s">
         <v>236</v>
+      </c>
+      <c r="O83" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4944,34 +4929,34 @@
         <v>197</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F84">
+        <v>583</v>
       </c>
       <c r="G84">
-        <v>986.5700000000001</v>
+        <v>486.57</v>
       </c>
       <c r="H84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K84" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L84" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N84" t="s">
-        <v>239</v>
-      </c>
-      <c r="O84" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4988,37 +4973,34 @@
         <v>198</v>
       </c>
       <c r="E85">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G85">
-        <v>1479</v>
+        <v>866.4400000000001</v>
       </c>
       <c r="H85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L85" t="s">
         <v>229</v>
       </c>
       <c r="M85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N85" t="s">
         <v>236</v>
-      </c>
-      <c r="O85" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -5035,34 +5017,34 @@
         <v>199</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>1349.25</v>
+        <v>911.89</v>
       </c>
       <c r="H86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J86" t="s">
         <v>221</v>
       </c>
       <c r="K86" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L86" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N86" t="s">
-        <v>235</v>
-      </c>
-      <c r="O86" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -5082,28 +5064,28 @@
         <v>92</v>
       </c>
       <c r="F87">
-        <v>35</v>
+        <v>1734</v>
       </c>
       <c r="G87">
-        <v>599.99</v>
+        <v>709.96</v>
       </c>
       <c r="H87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I87" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J87" t="s">
         <v>221</v>
       </c>
       <c r="K87" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L87" t="s">
         <v>229</v>
       </c>
       <c r="M87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N87" t="s">
         <v>236</v>
@@ -5123,31 +5105,31 @@
         <v>201</v>
       </c>
       <c r="E88">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>1739</v>
       </c>
       <c r="G88">
-        <v>722.34</v>
+        <v>628.3</v>
       </c>
       <c r="H88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I88" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L88" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N88" t="s">
         <v>236</v>
@@ -5167,34 +5149,34 @@
         <v>202</v>
       </c>
       <c r="E89">
-        <v>92</v>
-      </c>
-      <c r="F89">
-        <v>1736</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>539.71</v>
+        <v>2299</v>
       </c>
       <c r="H89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I89" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J89" t="s">
         <v>220</v>
       </c>
       <c r="K89" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M89" t="s">
         <v>233</v>
       </c>
       <c r="N89" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O89" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5217,25 +5199,25 @@
         <v>1731</v>
       </c>
       <c r="G90">
-        <v>761.13</v>
+        <v>664.13</v>
       </c>
       <c r="H90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N90" t="s">
         <v>236</v>
@@ -5255,37 +5237,34 @@
         <v>204</v>
       </c>
       <c r="E91">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F91">
-        <v>1693</v>
+        <v>1736</v>
       </c>
       <c r="G91">
-        <v>1999</v>
+        <v>539.71</v>
       </c>
       <c r="H91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I91" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J91" t="s">
         <v>221</v>
       </c>
       <c r="K91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M91" t="s">
         <v>234</v>
       </c>
       <c r="N91" t="s">
-        <v>237</v>
-      </c>
-      <c r="O91" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5305,31 +5284,31 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>2899</v>
+        <v>1424</v>
       </c>
       <c r="H92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I92" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J92" t="s">
         <v>220</v>
       </c>
       <c r="K92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L92" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N92" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O92" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5346,31 +5325,28 @@
         <v>206</v>
       </c>
       <c r="E93">
-        <v>92</v>
-      </c>
-      <c r="F93">
-        <v>1757</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>653.62</v>
+        <v>489</v>
       </c>
       <c r="H93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I93" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J93" t="s">
         <v>220</v>
       </c>
       <c r="K93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L93" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M93" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N93" t="s">
         <v>236</v>
@@ -5390,28 +5366,31 @@
         <v>207</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F94">
+        <v>425</v>
       </c>
       <c r="G94">
-        <v>899</v>
+        <v>928.13</v>
       </c>
       <c r="H94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I94" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J94" t="s">
         <v>220</v>
       </c>
       <c r="K94" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L94" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N94" t="s">
         <v>236</v>
@@ -5431,34 +5410,34 @@
         <v>208</v>
       </c>
       <c r="E95">
-        <v>92</v>
-      </c>
-      <c r="F95">
-        <v>1739</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>1399</v>
+        <v>1899</v>
       </c>
       <c r="H95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J95" t="s">
         <v>220</v>
       </c>
       <c r="K95" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L95" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N95" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O95" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5475,37 +5454,34 @@
         <v>209</v>
       </c>
       <c r="E96">
-        <v>86</v>
-      </c>
-      <c r="F96">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>899.99</v>
+        <v>1048.67</v>
       </c>
       <c r="H96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I96" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J96" t="s">
         <v>220</v>
       </c>
       <c r="K96" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N96" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5522,34 +5498,37 @@
         <v>210</v>
       </c>
       <c r="E97">
-        <v>92</v>
+        <v>91.5548</v>
       </c>
       <c r="F97">
-        <v>425</v>
+        <v>1743</v>
       </c>
       <c r="G97">
-        <v>1083.47</v>
+        <v>596.36</v>
       </c>
       <c r="H97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M97" t="s">
         <v>234</v>
       </c>
       <c r="N97" t="s">
         <v>236</v>
+      </c>
+      <c r="O97" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5566,31 +5545,31 @@
         <v>211</v>
       </c>
       <c r="E98">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F98">
-        <v>1740</v>
+        <v>4</v>
       </c>
       <c r="G98">
-        <v>1231.62</v>
+        <v>899</v>
       </c>
       <c r="H98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I98" t="s">
         <v>215</v>
       </c>
       <c r="J98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L98" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M98" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N98" t="s">
         <v>236</v>
@@ -5610,34 +5589,34 @@
         <v>115</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>90.7692</v>
+      </c>
+      <c r="F99">
+        <v>26</v>
       </c>
       <c r="G99">
-        <v>1199</v>
+        <v>299.99</v>
       </c>
       <c r="H99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N99" t="s">
-        <v>235</v>
-      </c>
-      <c r="O99" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5654,34 +5633,34 @@
         <v>116</v>
       </c>
       <c r="E100">
-        <v>92</v>
-      </c>
-      <c r="F100">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>711.42</v>
+        <v>1196.96</v>
       </c>
       <c r="H100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I100" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J100" t="s">
         <v>220</v>
       </c>
       <c r="K100" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M100" t="s">
         <v>233</v>
       </c>
       <c r="N100" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O100" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5701,31 +5680,31 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1679</v>
+        <v>2199</v>
       </c>
       <c r="H101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I101" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K101" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N101" t="s">
         <v>237</v>
       </c>
       <c r="O101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5745,28 +5724,28 @@
         <v>92</v>
       </c>
       <c r="F102">
-        <v>1729</v>
+        <v>1740</v>
       </c>
       <c r="G102">
-        <v>942.22</v>
+        <v>828</v>
       </c>
       <c r="H102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I102" t="s">
         <v>215</v>
       </c>
       <c r="J102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K102" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N102" t="s">
         <v>236</v>
@@ -5786,34 +5765,37 @@
         <v>119</v>
       </c>
       <c r="E103">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>1693</v>
       </c>
       <c r="G103">
-        <v>911.89</v>
+        <v>1474</v>
       </c>
       <c r="H103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I103" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J103" t="s">
         <v>220</v>
       </c>
       <c r="K103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L103" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N103" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O103" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5830,22 +5812,25 @@
         <v>120</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
       </c>
       <c r="G104">
-        <v>2199</v>
+        <v>1130.17</v>
       </c>
       <c r="H104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J104" t="s">
         <v>221</v>
       </c>
       <c r="K104" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L104" t="s">
         <v>226</v>
@@ -5854,10 +5839,7 @@
         <v>234</v>
       </c>
       <c r="N104" t="s">
-        <v>235</v>
-      </c>
-      <c r="O104" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5874,34 +5856,34 @@
         <v>121</v>
       </c>
       <c r="E105">
-        <v>92</v>
-      </c>
-      <c r="F105">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>311.94</v>
+        <v>999</v>
       </c>
       <c r="H105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J105" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K105" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N105" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="O105" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5918,34 +5900,37 @@
         <v>122</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>1199</v>
+        <v>2899</v>
       </c>
       <c r="H106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I106" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J106" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K106" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L106" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O106" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5962,34 +5947,37 @@
         <v>123</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F107">
+        <v>130</v>
       </c>
       <c r="G107">
-        <v>1599</v>
+        <v>899.99</v>
       </c>
       <c r="H107" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I107" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J107" t="s">
         <v>221</v>
       </c>
       <c r="K107" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L107" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O107" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -6009,28 +5997,28 @@
         <v>92</v>
       </c>
       <c r="F108">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="G108">
-        <v>547.33</v>
+        <v>1231.62</v>
       </c>
       <c r="H108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I108" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L108" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M108" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N108" t="s">
         <v>236</v>
@@ -6059,28 +6047,28 @@
         <v>1399</v>
       </c>
       <c r="H109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I109" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J109" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K109" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L109" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M109" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O109" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -6097,37 +6085,34 @@
         <v>126</v>
       </c>
       <c r="E110">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>581</v>
       </c>
       <c r="G110">
-        <v>2899</v>
+        <v>672.76</v>
       </c>
       <c r="H110" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I110" t="s">
         <v>215</v>
       </c>
       <c r="J110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M110" t="s">
         <v>234</v>
       </c>
       <c r="N110" t="s">
         <v>236</v>
-      </c>
-      <c r="O110" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6144,13 +6129,16 @@
         <v>127</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F111">
+        <v>1694</v>
       </c>
       <c r="G111">
-        <v>2599</v>
+        <v>1499</v>
       </c>
       <c r="H111" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I111" t="s">
         <v>215</v>
@@ -6159,19 +6147,19 @@
         <v>220</v>
       </c>
       <c r="K111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L111" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N111" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -6188,31 +6176,31 @@
         <v>128</v>
       </c>
       <c r="E112">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F112">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G112">
-        <v>599.99</v>
+        <v>1262.93</v>
       </c>
       <c r="H112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I112" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N112" t="s">
         <v>236</v>
@@ -6232,34 +6220,37 @@
         <v>129</v>
       </c>
       <c r="E113">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F113">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>593.99</v>
+        <v>1699</v>
       </c>
       <c r="H113" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I113" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K113" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L113" t="s">
         <v>228</v>
       </c>
       <c r="M113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N113" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O113" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6279,28 +6270,25 @@
         <v>92</v>
       </c>
       <c r="F114">
-        <v>1739</v>
-      </c>
-      <c r="G114">
-        <v>659.8</v>
+        <v>576</v>
       </c>
       <c r="H114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J114" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L114" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M114" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N114" t="s">
         <v>236</v>
@@ -6323,28 +6311,28 @@
         <v>92</v>
       </c>
       <c r="F115">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="G115">
-        <v>618.85</v>
+        <v>919.6900000000001</v>
       </c>
       <c r="H115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I115" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L115" t="s">
         <v>229</v>
       </c>
       <c r="M115" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N115" t="s">
         <v>236</v>
@@ -6364,34 +6352,34 @@
         <v>132</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F116">
+        <v>1732</v>
       </c>
       <c r="G116">
-        <v>1380.6</v>
+        <v>618.85</v>
       </c>
       <c r="H116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J116" t="s">
         <v>221</v>
       </c>
       <c r="K116" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L116" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N116" t="s">
-        <v>235</v>
-      </c>
-      <c r="O116" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6408,37 +6396,31 @@
         <v>133</v>
       </c>
       <c r="E117">
-        <v>92</v>
-      </c>
-      <c r="F117">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>805.97</v>
+        <v>780.6</v>
       </c>
       <c r="H117" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I117" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L117" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N117" t="s">
         <v>236</v>
-      </c>
-      <c r="O117" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6458,31 +6440,31 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1279</v>
+        <v>1199</v>
       </c>
       <c r="H118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I118" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J118" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K118" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L118" t="s">
         <v>229</v>
       </c>
       <c r="M118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6499,37 +6481,37 @@
         <v>135</v>
       </c>
       <c r="E119">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F119">
-        <v>1694</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>1499</v>
+        <v>1399</v>
       </c>
       <c r="H119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I119" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K119" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L119" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N119" t="s">
         <v>237</v>
       </c>
       <c r="O119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6546,16 +6528,16 @@
         <v>136</v>
       </c>
       <c r="E120">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F120">
-        <v>14</v>
+        <v>425</v>
       </c>
       <c r="G120">
-        <v>1262.93</v>
+        <v>620.97</v>
       </c>
       <c r="H120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I120" t="s">
         <v>215</v>
@@ -6564,13 +6546,13 @@
         <v>220</v>
       </c>
       <c r="K120" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L120" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M120" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N120" t="s">
         <v>236</v>
@@ -6590,34 +6572,34 @@
         <v>137</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>2290</v>
+        <v>920.75</v>
       </c>
       <c r="H121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I121" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J121" t="s">
         <v>221</v>
       </c>
       <c r="K121" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L121" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M121" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N121" t="s">
-        <v>237</v>
-      </c>
-      <c r="O121" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6634,37 +6616,34 @@
         <v>138</v>
       </c>
       <c r="E122">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G122">
-        <v>1099</v>
+        <v>1313.41</v>
       </c>
       <c r="H122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I122" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J122" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K122" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L122" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N122" t="s">
-        <v>235</v>
-      </c>
-      <c r="O122" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -6681,37 +6660,34 @@
         <v>139</v>
       </c>
       <c r="E123">
-        <v>20</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>1267.82</v>
+        <v>1173.21</v>
       </c>
       <c r="H123" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I123" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J123" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K123" t="s">
         <v>10</v>
       </c>
       <c r="L123" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N123" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O123" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -6728,34 +6704,34 @@
         <v>140</v>
       </c>
       <c r="E124">
-        <v>92</v>
-      </c>
-      <c r="F124">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>486.57</v>
+        <v>1499</v>
       </c>
       <c r="H124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I124" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J124" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L124" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M124" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N124" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O124" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -6775,28 +6751,28 @@
         <v>92</v>
       </c>
       <c r="F125">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G125">
-        <v>664.13</v>
+        <v>711.42</v>
       </c>
       <c r="H125" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I125" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J125" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L125" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N125" t="s">
         <v>236</v>
@@ -6816,37 +6792,37 @@
         <v>142</v>
       </c>
       <c r="E126">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="G126">
-        <v>2599</v>
+        <v>924.17</v>
       </c>
       <c r="H126" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I126" t="s">
         <v>215</v>
       </c>
       <c r="J126" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L126" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M126" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N126" t="s">
         <v>236</v>
       </c>
       <c r="O126" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -6863,34 +6839,34 @@
         <v>143</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F127">
+        <v>424</v>
       </c>
       <c r="G127">
-        <v>999</v>
+        <v>662.86</v>
       </c>
       <c r="H127" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I127" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J127" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K127" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L127" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N127" t="s">
-        <v>238</v>
-      </c>
-      <c r="O127" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -6910,28 +6886,28 @@
         <v>92</v>
       </c>
       <c r="F128">
-        <v>581</v>
+        <v>1739</v>
       </c>
       <c r="G128">
-        <v>672.76</v>
+        <v>659.8</v>
       </c>
       <c r="H128" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I128" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J128" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K128" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L128" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N128" t="s">
         <v>236</v>
@@ -6951,37 +6927,34 @@
         <v>145</v>
       </c>
       <c r="E129">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F129">
-        <v>1743</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>596.36</v>
+        <v>1316.83</v>
       </c>
       <c r="H129" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I129" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J129" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K129" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L129" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M129" t="s">
         <v>233</v>
       </c>
       <c r="N129" t="s">
         <v>236</v>
-      </c>
-      <c r="O129" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -6998,31 +6971,28 @@
         <v>146</v>
       </c>
       <c r="E130">
-        <v>92</v>
-      </c>
-      <c r="F130">
-        <v>1739</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>628.3</v>
+        <v>899</v>
       </c>
       <c r="H130" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I130" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J130" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L130" t="s">
         <v>229</v>
       </c>
       <c r="M130" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N130" t="s">
         <v>236</v>
@@ -7045,28 +7015,31 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>489</v>
+        <v>2599</v>
       </c>
       <c r="H131" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I131" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J131" t="s">
         <v>221</v>
       </c>
       <c r="K131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L131" t="s">
         <v>229</v>
       </c>
       <c r="M131" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N131" t="s">
         <v>236</v>
+      </c>
+      <c r="O131" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -7083,16 +7056,16 @@
         <v>148</v>
       </c>
       <c r="E132">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F132">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>299.99</v>
+        <v>1479</v>
       </c>
       <c r="H132" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I132" t="s">
         <v>218</v>
@@ -7101,16 +7074,19 @@
         <v>221</v>
       </c>
       <c r="K132" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L132" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N132" t="s">
         <v>236</v>
+      </c>
+      <c r="O132" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -7127,37 +7103,37 @@
         <v>149</v>
       </c>
       <c r="E133">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F133">
-        <v>579</v>
+        <v>1692</v>
       </c>
       <c r="G133">
-        <v>813.4299999999999</v>
+        <v>2599</v>
       </c>
       <c r="H133" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J133" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K133" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L133" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N133" t="s">
         <v>236</v>
       </c>
       <c r="O133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -7177,31 +7153,28 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>1199</v>
+        <v>806.78</v>
       </c>
       <c r="H134" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I134" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J134" t="s">
         <v>221</v>
       </c>
       <c r="K134" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M134" t="s">
         <v>234</v>
       </c>
       <c r="N134" t="s">
-        <v>235</v>
-      </c>
-      <c r="O134" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -7218,37 +7191,37 @@
         <v>151</v>
       </c>
       <c r="E135">
-        <v>66.666</v>
+        <v>92</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>579</v>
       </c>
       <c r="G135">
-        <v>1799</v>
+        <v>813.4299999999999</v>
       </c>
       <c r="H135" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I135" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J135" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K135" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L135" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M135" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N135" t="s">
         <v>236</v>
       </c>
       <c r="O135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -7265,34 +7238,34 @@
         <v>152</v>
       </c>
       <c r="E136">
-        <v>92</v>
-      </c>
-      <c r="F136">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>534.96</v>
+        <v>2290</v>
       </c>
       <c r="H136" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I136" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J136" t="s">
         <v>220</v>
       </c>
       <c r="K136" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M136" t="s">
         <v>233</v>
       </c>
       <c r="N136" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O136" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -7309,31 +7282,31 @@
         <v>153</v>
       </c>
       <c r="E137">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F137">
-        <v>1733</v>
+        <v>4</v>
       </c>
       <c r="G137">
-        <v>905.98</v>
+        <v>1492.56</v>
       </c>
       <c r="H137" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I137" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J137" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K137" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L137" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M137" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N137" t="s">
         <v>236</v>
@@ -7353,34 +7326,31 @@
         <v>154</v>
       </c>
       <c r="E138">
-        <v>100</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>1399</v>
+        <v>1620.9</v>
       </c>
       <c r="H138" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I138" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K138" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L138" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N138" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O138" t="s">
         <v>259</v>
@@ -7400,34 +7370,31 @@
         <v>155</v>
       </c>
       <c r="E139">
-        <v>92</v>
-      </c>
-      <c r="F139">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>924.17</v>
+        <v>1349.25</v>
       </c>
       <c r="H139" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I139" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J139" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K139" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L139" t="s">
         <v>229</v>
       </c>
       <c r="M139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O139" t="s">
         <v>260</v>
@@ -7447,34 +7414,34 @@
         <v>156</v>
       </c>
       <c r="E140">
-        <v>100</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>920.75</v>
+        <v>986.5700000000001</v>
       </c>
       <c r="H140" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I140" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J140" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K140" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L140" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M140" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N140" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="O140" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -7491,31 +7458,31 @@
         <v>157</v>
       </c>
       <c r="E141">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F141">
-        <v>22</v>
+        <v>1757</v>
       </c>
       <c r="G141">
-        <v>866.4400000000001</v>
+        <v>653.62</v>
       </c>
       <c r="H141" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I141" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J141" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K141" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L141" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M141" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N141" t="s">
         <v>236</v>
@@ -7535,31 +7502,31 @@
         <v>158</v>
       </c>
       <c r="E142">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F142">
-        <v>424</v>
+        <v>10</v>
       </c>
       <c r="G142">
-        <v>662.86</v>
+        <v>799</v>
       </c>
       <c r="H142" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I142" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J142" t="s">
         <v>221</v>
       </c>
       <c r="K142" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M142" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N142" t="s">
         <v>236</v>
@@ -7582,31 +7549,34 @@
         <v>100</v>
       </c>
       <c r="F143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>1313.41</v>
+        <v>1099</v>
       </c>
       <c r="H143" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I143" t="s">
         <v>215</v>
       </c>
       <c r="J143" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K143" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L143" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M143" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N143" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O143" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -7623,34 +7593,34 @@
         <v>160</v>
       </c>
       <c r="E144">
-        <v>100</v>
-      </c>
-      <c r="F144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>1130.17</v>
+        <v>1199</v>
       </c>
       <c r="H144" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I144" t="s">
         <v>215</v>
       </c>
       <c r="J144" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K144" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L144" t="s">
         <v>229</v>
       </c>
       <c r="M144" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N144" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O144" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -7667,37 +7637,37 @@
         <v>161</v>
       </c>
       <c r="E145">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F145">
-        <v>1693</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>1479</v>
+        <v>2599</v>
       </c>
       <c r="H145" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I145" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J145" t="s">
         <v>221</v>
       </c>
       <c r="K145" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L145" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M145" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O145" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -7714,34 +7684,34 @@
         <v>162</v>
       </c>
       <c r="E146">
-        <v>92</v>
-      </c>
-      <c r="F146">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>928.13</v>
+        <v>1279</v>
       </c>
       <c r="H146" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I146" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J146" t="s">
         <v>221</v>
       </c>
       <c r="K146" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L146" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N146" t="s">
         <v>236</v>
+      </c>
+      <c r="O146" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -7758,31 +7728,28 @@
         <v>163</v>
       </c>
       <c r="E147">
-        <v>100</v>
-      </c>
-      <c r="F147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>1316.83</v>
+        <v>905.98</v>
       </c>
       <c r="H147" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I147" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J147" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K147" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L147" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M147" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N147" t="s">
         <v>236</v>
@@ -7802,22 +7769,25 @@
         <v>164</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F148">
+        <v>1729</v>
       </c>
       <c r="G148">
-        <v>1196.96</v>
+        <v>942.22</v>
       </c>
       <c r="H148" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I148" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J148" t="s">
         <v>221</v>
       </c>
       <c r="K148" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L148" t="s">
         <v>229</v>
@@ -7826,10 +7796,7 @@
         <v>234</v>
       </c>
       <c r="N148" t="s">
-        <v>235</v>
-      </c>
-      <c r="O148" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -7846,37 +7813,34 @@
         <v>165</v>
       </c>
       <c r="E149">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F149">
-        <v>1693</v>
+        <v>582</v>
       </c>
       <c r="G149">
-        <v>1474</v>
+        <v>311.94</v>
       </c>
       <c r="H149" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I149" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J149" t="s">
         <v>221</v>
       </c>
       <c r="K149" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L149" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N149" t="s">
-        <v>237</v>
-      </c>
-      <c r="O149" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -7893,37 +7857,34 @@
         <v>166</v>
       </c>
       <c r="E150">
-        <v>100</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>1099</v>
+        <v>2899</v>
       </c>
       <c r="H150" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I150" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J150" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K150" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L150" t="s">
         <v>229</v>
       </c>
       <c r="M150" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N150" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O150" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:15">
@@ -7940,31 +7901,31 @@
         <v>167</v>
       </c>
       <c r="E151">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F151">
-        <v>1730</v>
+        <v>8</v>
       </c>
       <c r="G151">
-        <v>919.6900000000001</v>
+        <v>920.78</v>
       </c>
       <c r="H151" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I151" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J151" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K151" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L151" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M151" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N151" t="s">
         <v>236</v>
@@ -7984,34 +7945,37 @@
         <v>168</v>
       </c>
       <c r="E152">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>589</v>
       </c>
       <c r="G152">
-        <v>1492.56</v>
+        <v>590.6900000000001</v>
       </c>
       <c r="H152" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I152" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J152" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K152" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L152" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M152" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N152" t="s">
         <v>236</v>
+      </c>
+      <c r="O152" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -8028,25 +7992,28 @@
         <v>169</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F153">
+        <v>1731</v>
       </c>
       <c r="G153">
-        <v>734.33</v>
+        <v>761.13</v>
       </c>
       <c r="H153" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I153" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J153" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K153" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L153" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M153" t="s">
         <v>234</v>
@@ -8069,34 +8036,37 @@
         <v>170</v>
       </c>
       <c r="E154">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>582</v>
       </c>
       <c r="G154">
-        <v>799</v>
+        <v>570.16</v>
       </c>
       <c r="H154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I154" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J154" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K154" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L154" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M154" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N154" t="s">
         <v>236</v>
+      </c>
+      <c r="O154" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -8122,25 +8092,25 @@
         <v>1999</v>
       </c>
       <c r="H155" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I155" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K155" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L155" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N155" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O155" t="s">
         <v>265</v>
@@ -8163,28 +8133,28 @@
         <v>92</v>
       </c>
       <c r="F156">
-        <v>425</v>
+        <v>35</v>
       </c>
       <c r="G156">
-        <v>620.97</v>
+        <v>599.99</v>
       </c>
       <c r="H156" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I156" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J156" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K156" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L156" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M156" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N156" t="s">
         <v>236</v>
@@ -8201,37 +8171,40 @@
         <v>76</v>
       </c>
       <c r="D157" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F157">
+        <v>589</v>
       </c>
       <c r="G157">
-        <v>1620.9</v>
+        <v>805.97</v>
       </c>
       <c r="H157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J157" t="s">
         <v>221</v>
       </c>
       <c r="K157" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L157" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N157" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O157" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:15">
@@ -8248,37 +8221,34 @@
         <v>174</v>
       </c>
       <c r="E158">
-        <v>92</v>
-      </c>
-      <c r="F158">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>590.6900000000001</v>
+        <v>1599</v>
       </c>
       <c r="H158" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I158" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J158" t="s">
         <v>220</v>
       </c>
       <c r="K158" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L158" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M158" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N158" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:15">
@@ -8295,28 +8265,25 @@
         <v>175</v>
       </c>
       <c r="E159">
-        <v>92</v>
-      </c>
-      <c r="F159">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>673.63</v>
+        <v>763.6900000000001</v>
       </c>
       <c r="H159" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I159" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J159" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K159" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L159" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M159" t="s">
         <v>233</v>
@@ -8342,34 +8309,31 @@
         <v>92</v>
       </c>
       <c r="F160">
-        <v>582</v>
+        <v>1739</v>
       </c>
       <c r="G160">
-        <v>570.16</v>
+        <v>1399</v>
       </c>
       <c r="H160" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I160" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J160" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K160" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L160" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M160" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N160" t="s">
         <v>236</v>
-      </c>
-      <c r="O160" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:15">
@@ -8386,34 +8350,34 @@
         <v>177</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F161">
+        <v>425</v>
       </c>
       <c r="G161">
-        <v>1499</v>
+        <v>1083.47</v>
       </c>
       <c r="H161" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I161" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J161" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K161" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L161" t="s">
         <v>226</v>
       </c>
       <c r="M161" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N161" t="s">
-        <v>235</v>
-      </c>
-      <c r="O161" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="162" spans="1:15">
@@ -8430,34 +8394,34 @@
         <v>178</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>90.77719999999999</v>
+      </c>
+      <c r="F162">
+        <v>579</v>
       </c>
       <c r="G162">
-        <v>1048.67</v>
+        <v>534.96</v>
       </c>
       <c r="H162" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I162" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J162" t="s">
         <v>221</v>
       </c>
       <c r="K162" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L162" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M162" t="s">
         <v>234</v>
       </c>
       <c r="N162" t="s">
-        <v>238</v>
-      </c>
-      <c r="O162" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:15">
@@ -8477,34 +8441,34 @@
         <v>94</v>
       </c>
       <c r="F163">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="G163">
-        <v>2599</v>
+        <v>1999</v>
       </c>
       <c r="H163" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I163" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J163" t="s">
         <v>220</v>
       </c>
       <c r="K163" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L163" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M163" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N163" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O163" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -8524,28 +8488,31 @@
         <v>0</v>
       </c>
       <c r="G164">
-        <v>763.6900000000001</v>
+        <v>1679</v>
       </c>
       <c r="H164" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I164" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J164" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K164" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L164" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M164" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N164" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O164" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -8562,34 +8529,34 @@
         <v>181</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F165">
+        <v>1729</v>
       </c>
       <c r="G165">
-        <v>1424</v>
+        <v>825.83</v>
       </c>
       <c r="H165" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J165" t="s">
         <v>221</v>
       </c>
       <c r="K165" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L165" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M165" t="s">
         <v>234</v>
       </c>
       <c r="N165" t="s">
-        <v>237</v>
-      </c>
-      <c r="O165" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:15">
@@ -8606,34 +8573,37 @@
         <v>182</v>
       </c>
       <c r="E166">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F166">
-        <v>4</v>
+        <v>1693</v>
       </c>
       <c r="G166">
-        <v>899</v>
+        <v>1479</v>
       </c>
       <c r="H166" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I166" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J166" t="s">
         <v>220</v>
       </c>
       <c r="K166" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L166" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M166" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N166" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O166" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:15">
@@ -8650,28 +8620,28 @@
         <v>183</v>
       </c>
       <c r="E167">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F167">
-        <v>1729</v>
+        <v>8</v>
       </c>
       <c r="G167">
-        <v>825.83</v>
+        <v>593.99</v>
       </c>
       <c r="H167" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I167" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J167" t="s">
         <v>220</v>
       </c>
       <c r="K167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M167" t="s">
         <v>233</v>
@@ -8694,28 +8664,31 @@
         <v>184</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="F168">
+        <v>5</v>
       </c>
       <c r="G168">
-        <v>806.78</v>
+        <v>722.34</v>
       </c>
       <c r="H168" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I168" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J168" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K168" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L168" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M168" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N168" t="s">
         <v>236</v>
@@ -8735,37 +8708,34 @@
         <v>185</v>
       </c>
       <c r="E169">
-        <v>80</v>
-      </c>
-      <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>1699</v>
+        <v>2099</v>
       </c>
       <c r="H169" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I169" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J169" t="s">
         <v>221</v>
       </c>
       <c r="K169" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L169" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M169" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N169" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O169" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:15">
@@ -8785,31 +8755,31 @@
         <v>0</v>
       </c>
       <c r="G170">
-        <v>2299</v>
+        <v>1380.6</v>
       </c>
       <c r="H170" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I170" t="s">
         <v>215</v>
       </c>
       <c r="J170" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K170" t="s">
         <v>10</v>
       </c>
       <c r="L170" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N170" t="s">
         <v>237</v>
       </c>
       <c r="O170" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:15">
@@ -8826,34 +8796,34 @@
         <v>187</v>
       </c>
       <c r="E171">
-        <v>92</v>
-      </c>
-      <c r="F171">
-        <v>1736</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>599</v>
+        <v>1199</v>
       </c>
       <c r="H171" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I171" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J171" t="s">
         <v>220</v>
       </c>
       <c r="K171" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L171" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M171" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N171" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O171" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -8870,31 +8840,31 @@
         <v>188</v>
       </c>
       <c r="E172">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F172">
-        <v>8</v>
+        <v>1736</v>
       </c>
       <c r="G172">
-        <v>920.78</v>
+        <v>599</v>
       </c>
       <c r="H172" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I172" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J172" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K172" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L172" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M172" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N172" t="s">
         <v>236</v>
@@ -8914,31 +8884,31 @@
         <v>189</v>
       </c>
       <c r="E173">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F173">
-        <v>1734</v>
+        <v>27</v>
       </c>
       <c r="G173">
-        <v>709.96</v>
+        <v>599.99</v>
       </c>
       <c r="H173" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I173" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J173" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K173" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L173" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M173" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N173" t="s">
         <v>236</v>
@@ -8958,31 +8928,37 @@
         <v>190</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
       </c>
       <c r="G174">
-        <v>905.98</v>
+        <v>1267.82</v>
       </c>
       <c r="H174" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I174" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J174" t="s">
         <v>220</v>
       </c>
       <c r="K174" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L174" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M174" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N174" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O174" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:15">
@@ -8999,31 +8975,34 @@
         <v>191</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>1173.21</v>
+        <v>1099</v>
       </c>
       <c r="H175" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I175" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J175" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K175" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L175" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N175" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O175" t="s">
         <v>274</v>
@@ -9043,34 +9022,34 @@
         <v>192</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F176">
+        <v>1733</v>
       </c>
       <c r="G176">
-        <v>999</v>
+        <v>905.98</v>
       </c>
       <c r="H176" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I176" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J176" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K176" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L176" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M176" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N176" t="s">
-        <v>235</v>
-      </c>
-      <c r="O176" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:15">
@@ -9087,22 +9066,25 @@
         <v>193</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F177">
+        <v>1737</v>
       </c>
       <c r="G177">
-        <v>780.6</v>
+        <v>547.33</v>
       </c>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I177" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J177" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K177" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L177" t="s">
         <v>228</v>
@@ -9131,31 +9113,28 @@
         <v>0</v>
       </c>
       <c r="G178">
-        <v>1899</v>
+        <v>734.33</v>
       </c>
       <c r="H178" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I178" t="s">
         <v>215</v>
       </c>
       <c r="J178" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K178" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L178" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M178" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N178" t="s">
-        <v>235</v>
-      </c>
-      <c r="O178" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:15">
@@ -9175,31 +9154,31 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>2099</v>
+        <v>999</v>
       </c>
       <c r="H179" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I179" t="s">
         <v>215</v>
       </c>
       <c r="J179" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K179" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L179" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M179" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N179" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O179" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="180" spans="1:15">
@@ -9216,25 +9195,25 @@
         <v>196</v>
       </c>
       <c r="E180">
-        <v>92</v>
+        <v>66.666</v>
       </c>
       <c r="F180">
-        <v>1740</v>
+        <v>3</v>
       </c>
       <c r="G180">
-        <v>828</v>
+        <v>1799</v>
       </c>
       <c r="H180" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I180" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J180" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K180" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L180" t="s">
         <v>229</v>
@@ -9244,6 +9223,9 @@
       </c>
       <c r="N180" t="s">
         <v>236</v>
+      </c>
+      <c r="O180" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="181" spans="1:15">
@@ -9260,34 +9242,34 @@
         <v>197</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F181">
+        <v>583</v>
       </c>
       <c r="G181">
-        <v>986.5700000000001</v>
+        <v>486.57</v>
       </c>
       <c r="H181" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I181" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J181" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K181" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L181" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M181" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N181" t="s">
-        <v>239</v>
-      </c>
-      <c r="O181" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -9304,37 +9286,34 @@
         <v>198</v>
       </c>
       <c r="E182">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G182">
-        <v>1479</v>
+        <v>866.4400000000001</v>
       </c>
       <c r="H182" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I182" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J182" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K182" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L182" t="s">
         <v>229</v>
       </c>
       <c r="M182" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N182" t="s">
         <v>236</v>
-      </c>
-      <c r="O182" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:15">
@@ -9351,34 +9330,34 @@
         <v>199</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F183">
+        <v>3</v>
       </c>
       <c r="G183">
-        <v>1349.25</v>
+        <v>911.89</v>
       </c>
       <c r="H183" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I183" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J183" t="s">
         <v>221</v>
       </c>
       <c r="K183" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="L183" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M183" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N183" t="s">
-        <v>235</v>
-      </c>
-      <c r="O183" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:15">
@@ -9398,28 +9377,28 @@
         <v>92</v>
       </c>
       <c r="F184">
-        <v>35</v>
+        <v>1734</v>
       </c>
       <c r="G184">
-        <v>599.99</v>
+        <v>709.96</v>
       </c>
       <c r="H184" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I184" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J184" t="s">
         <v>221</v>
       </c>
       <c r="K184" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L184" t="s">
         <v>229</v>
       </c>
       <c r="M184" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N184" t="s">
         <v>236</v>
@@ -9439,31 +9418,31 @@
         <v>201</v>
       </c>
       <c r="E185">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F185">
-        <v>5</v>
+        <v>1739</v>
       </c>
       <c r="G185">
-        <v>722.34</v>
+        <v>628.3</v>
       </c>
       <c r="H185" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I185" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J185" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K185" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L185" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M185" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N185" t="s">
         <v>236</v>
@@ -9483,34 +9462,34 @@
         <v>202</v>
       </c>
       <c r="E186">
-        <v>92</v>
-      </c>
-      <c r="F186">
-        <v>1736</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>539.71</v>
+        <v>2299</v>
       </c>
       <c r="H186" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I186" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J186" t="s">
         <v>220</v>
       </c>
       <c r="K186" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L186" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M186" t="s">
         <v>233</v>
       </c>
       <c r="N186" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="O186" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="187" spans="1:15">
@@ -9533,25 +9512,25 @@
         <v>1731</v>
       </c>
       <c r="G187">
-        <v>761.13</v>
+        <v>664.13</v>
       </c>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I187" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J187" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K187" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L187" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N187" t="s">
         <v>236</v>
@@ -9571,37 +9550,34 @@
         <v>204</v>
       </c>
       <c r="E188">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F188">
-        <v>1693</v>
+        <v>1736</v>
       </c>
       <c r="G188">
-        <v>1999</v>
+        <v>539.71</v>
       </c>
       <c r="H188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I188" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J188" t="s">
         <v>221</v>
       </c>
       <c r="K188" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L188" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M188" t="s">
         <v>234</v>
       </c>
       <c r="N188" t="s">
-        <v>237</v>
-      </c>
-      <c r="O188" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:15">
@@ -9621,31 +9597,31 @@
         <v>0</v>
       </c>
       <c r="G189">
-        <v>2899</v>
+        <v>1424</v>
       </c>
       <c r="H189" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I189" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J189" t="s">
         <v>220</v>
       </c>
       <c r="K189" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L189" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M189" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N189" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O189" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:15">
@@ -9662,31 +9638,28 @@
         <v>206</v>
       </c>
       <c r="E190">
-        <v>92</v>
-      </c>
-      <c r="F190">
-        <v>1757</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>653.62</v>
+        <v>489</v>
       </c>
       <c r="H190" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I190" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J190" t="s">
         <v>220</v>
       </c>
       <c r="K190" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L190" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M190" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N190" t="s">
         <v>236</v>
@@ -9706,28 +9679,31 @@
         <v>207</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F191">
+        <v>425</v>
       </c>
       <c r="G191">
-        <v>899</v>
+        <v>928.13</v>
       </c>
       <c r="H191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I191" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J191" t="s">
         <v>220</v>
       </c>
       <c r="K191" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L191" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M191" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N191" t="s">
         <v>236</v>
@@ -9747,34 +9723,34 @@
         <v>208</v>
       </c>
       <c r="E192">
-        <v>92</v>
-      </c>
-      <c r="F192">
-        <v>1739</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>1399</v>
+        <v>1899</v>
       </c>
       <c r="H192" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I192" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J192" t="s">
         <v>220</v>
       </c>
       <c r="K192" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L192" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M192" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N192" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="O192" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:15">
@@ -9791,37 +9767,34 @@
         <v>209</v>
       </c>
       <c r="E193">
-        <v>86</v>
-      </c>
-      <c r="F193">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>899.99</v>
+        <v>1048.67</v>
       </c>
       <c r="H193" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I193" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J193" t="s">
         <v>220</v>
       </c>
       <c r="K193" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L193" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M193" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N193" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O193" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:15">
@@ -9841,31 +9814,34 @@
         <v>92</v>
       </c>
       <c r="F194">
-        <v>425</v>
+        <v>1743</v>
       </c>
       <c r="G194">
-        <v>1083.47</v>
+        <v>596.36</v>
       </c>
       <c r="H194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I194" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J194" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K194" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L194" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M194" t="s">
         <v>234</v>
       </c>
       <c r="N194" t="s">
         <v>236</v>
+      </c>
+      <c r="O194" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="195" spans="1:15">
@@ -9882,31 +9858,31 @@
         <v>211</v>
       </c>
       <c r="E195">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F195">
-        <v>1740</v>
+        <v>4</v>
       </c>
       <c r="G195">
-        <v>1231.62</v>
+        <v>899</v>
       </c>
       <c r="H195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I195" t="s">
         <v>215</v>
       </c>
       <c r="J195" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K195" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L195" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M195" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N195" t="s">
         <v>236</v>
